--- a/src/index spreadsheet/C43 rev1 key template.xlsx
+++ b/src/index spreadsheet/C43 rev1 key template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacomostert/Documents/WP43S/gitlab.nosync/wp43s/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-sdk-64\wp43s_new\wp43c\wp43c\src\index spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AEED4F-3651-1641-9B3F-DF5C2EF012E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B63DD6-0438-474D-9435-0505B64E891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C43Layout42" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,14 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="349">
   <si>
     <t>primary</t>
   </si>
@@ -384,9 +392,6 @@
     <t>{51</t>
   </si>
   <si>
-    <t>-MNU_ALPHA</t>
-  </si>
-  <si>
     <t>{52</t>
   </si>
   <si>
@@ -495,9 +500,6 @@
     <t>ITM_F</t>
   </si>
   <si>
-    <t>ITM_DIGAMMA</t>
-  </si>
-  <si>
     <t>ITM_G</t>
   </si>
   <si>
@@ -564,9 +566,6 @@
     <t>ITM_UP_ARROW</t>
   </si>
   <si>
-    <t>ITM_OMICRON</t>
-  </si>
-  <si>
     <t>ITM_BACKSPACE</t>
   </si>
   <si>
@@ -597,9 +596,6 @@
     <t>ITM_Q</t>
   </si>
   <si>
-    <t>ITM_QOPPA</t>
-  </si>
-  <si>
     <t>ITM_9</t>
   </si>
   <si>
@@ -699,9 +695,6 @@
     <t>ITM_UNDERSCORE</t>
   </si>
   <si>
-    <t>ITM_SAMPI</t>
-  </si>
-  <si>
     <t>ITM_EXIT1</t>
   </si>
   <si>
@@ -982,6 +975,114 @@
   </si>
   <si>
     <t>LAYOUT 43S</t>
+  </si>
+  <si>
+    <t>ITM_a</t>
+  </si>
+  <si>
+    <t>ITM_b</t>
+  </si>
+  <si>
+    <t>ITM_CIRCUMFLEX</t>
+  </si>
+  <si>
+    <t>ITM_ROOT_SIGN</t>
+  </si>
+  <si>
+    <t>ITM_c</t>
+  </si>
+  <si>
+    <t>ITM_d</t>
+  </si>
+  <si>
+    <t>ITM_LG_SIGN</t>
+  </si>
+  <si>
+    <t>ITM_e</t>
+  </si>
+  <si>
+    <t>ITM_LN_SIGN</t>
+  </si>
+  <si>
+    <t>ITM_f</t>
+  </si>
+  <si>
+    <t>ITM_g</t>
+  </si>
+  <si>
+    <t>ITM_VERTICAL_BAR</t>
+  </si>
+  <si>
+    <t>ITM_h</t>
+  </si>
+  <si>
+    <t>ITM_i</t>
+  </si>
+  <si>
+    <t>ITM_pi</t>
+  </si>
+  <si>
+    <t>ITM_j</t>
+  </si>
+  <si>
+    <t>ITM_k</t>
+  </si>
+  <si>
+    <t>ITM_LEFT_PARENTHESIS</t>
+  </si>
+  <si>
+    <t>ITM_l</t>
+  </si>
+  <si>
+    <t>ITM_RIGHT_PARENTHESIS</t>
+  </si>
+  <si>
+    <t>ITM_m</t>
+  </si>
+  <si>
+    <t>ITM_n</t>
+  </si>
+  <si>
+    <t>ITM_o</t>
+  </si>
+  <si>
+    <t>ITM_p</t>
+  </si>
+  <si>
+    <t>ITM_q</t>
+  </si>
+  <si>
+    <t>ITM_r</t>
+  </si>
+  <si>
+    <t>ITM_s</t>
+  </si>
+  <si>
+    <t>ITM_t</t>
+  </si>
+  <si>
+    <t>ITM_u</t>
+  </si>
+  <si>
+    <t>ITM_v</t>
+  </si>
+  <si>
+    <t>ITM_w</t>
+  </si>
+  <si>
+    <t>ITM_x</t>
+  </si>
+  <si>
+    <t>ITM_y</t>
+  </si>
+  <si>
+    <t>ITM_z</t>
+  </si>
+  <si>
+    <t>ITM_PRN</t>
+  </si>
+  <si>
+    <t>-MNU_DISP</t>
   </si>
 </sst>
 </file>
@@ -1653,34 +1754,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC7FC9F-BE2F-4B48-BE28-68111B7F8FF5}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="I34" zoomScale="64" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50:K91"/>
+    <sheetView topLeftCell="A34" zoomScale="64" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51:K89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.35546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31">
+    <row r="1" spans="1:11" ht="30.9">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J1" s="19">
         <f>'C43Layout1'!J1</f>
         <v>17</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1734,7 +1835,7 @@
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1743,17 +1844,16 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="19" t="str">
-        <f>'C43Layout1'!G3</f>
-        <v>ITM_a</v>
+        <v>138</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>313</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K3" s="20" t="str">
         <f t="shared" ref="K3:K44" si="0">IF(A3="","","      "&amp;
@@ -1768,7 +1868,7 @@
 I3&amp;"  "&amp;REPT(" ",($J$1-LEN(I3)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {21,   ITM_SIGMAPLUS,     ITM_SIGMAMINUS,    ITM_TGLFRT,        ITM_NULL,          ITM_A,             ITM_a,             ITM_ALPHA,         ITM_REG_A          },</v>
+        <v xml:space="preserve">      {21,   ITM_SIGMAPLUS,     ITM_SIGMAMINUS,    ITM_TGLFRT,        ITM_NULL,          ITM_A,             ITM_a,             ITM_SIGMA,         ITM_REG_A          },</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1782,27 +1882,26 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
         <v>141</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>142</v>
       </c>
-      <c r="F4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="19" t="str">
-        <f>'C43Layout1'!G4</f>
-        <v>ITM_b</v>
+      <c r="G4" s="19" t="s">
+        <v>314</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="I4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K4" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {22,   ITM_1ONX,          ITM_YX,            ITM_HASH_JM,       ITM_NUMBER_SIGN,   ITM_B,             ITM_b,             ITM_BETA,          ITM_REG_B          },</v>
+        <v xml:space="preserve">      {22,   ITM_1ONX,          ITM_YX,            ITM_HASH_JM,       ITM_NUMBER_SIGN,   ITM_B,             ITM_b,             ITM_CIRCUMFLEX,    ITM_REG_B          },</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1819,24 +1918,23 @@
         <v>89</v>
       </c>
       <c r="E5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" t="s">
         <v>145</v>
       </c>
-      <c r="F5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="19" t="str">
-        <f>'C43Layout1'!G5</f>
-        <v>ITM_c</v>
+      <c r="G5" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="I5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K5" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {23,   ITM_SQUAREROOTX,   ITM_SQUARE,        ITM_ms,            ITM_CHECK_MARK,    ITM_C,             ITM_c,             ITM_CHI,           ITM_REG_C          },</v>
+        <v xml:space="preserve">      {23,   ITM_SQUAREROOTX,   ITM_SQUARE,        ITM_ms,            ITM_ROOT_SIGN,     ITM_C,             ITM_c,             ITM_ROOT_SIGN,     ITM_REG_C          },</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1850,27 +1948,26 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="19" t="str">
-        <f>'C43Layout1'!G6</f>
-        <v>ITM_d</v>
+        <v>148</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>318</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>319</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K6" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {24,   ITM_LOG10,         ITM_10x,           ITM_dotD,          ITM_NULL,          ITM_D,             ITM_d,             ITM_DELTA,         ITM_REG_D          },</v>
+        <v xml:space="preserve">      {24,   ITM_LOG10,         ITM_10x,           ITM_dotD,          ITM_NULL,          ITM_D,             ITM_d,             ITM_LG_SIGN,       ITM_REG_D          },</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1881,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
         <v>92</v>
@@ -1890,21 +1987,20 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="19" t="str">
-        <f>'C43Layout1'!G7</f>
-        <v>ITM_e</v>
+        <v>151</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>320</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="K7" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {25,   ITM_LN,            ITM_EXP,           ITM_toREC2,        ITM_NULL,          ITM_E,             ITM_e,             ITM_EPSILON,       ITM_NULL           },</v>
+        <v xml:space="preserve">      {25,   ITM_LN,            ITM_EXP,           ITM_toREC2,        ITM_NULL,          ITM_E,             ITM_e,             ITM_LN_SIGN,       ITM_E              },</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1924,21 +2020,20 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="19" t="str">
-        <f>'C43Layout1'!G8</f>
-        <v>ITM_f</v>
+        <v>153</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K8" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {26,   ITM_XEQ,           ITM_GTO,           ITM_toPOL2,        ITM_NULL,          ITM_F,             ITM_f,             ITM_DIGAMMA,       ITM_alpha          },</v>
+        <v xml:space="preserve">      {26,   ITM_XEQ,           ITM_GTO,           ITM_toPOL2,        ITM_NULL,          ITM_F,             ITM_f,             ITM_alpha,         ITM_alpha          },</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1965,21 +2060,20 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="19" t="str">
-        <f>'C43Layout1'!G10</f>
-        <v>ITM_g</v>
+        <v>154</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>323</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {31,   ITM_STO,           KEY_COMPLEX,       ITM_MAGNITUDE,     ITM_NULL,          ITM_G,             ITM_g,             ITM_GAMMA,         ITM_NULL           },</v>
+        <v xml:space="preserve">      {31,   ITM_STO,           KEY_COMPLEX,       ITM_MAGNITUDE,     ITM_NULL,          ITM_G,             ITM_g,             ITM_VERTICAL_BAR,  ITM_NULL           },</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1999,21 +2093,20 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="19" t="str">
-        <f>'C43Layout1'!G11</f>
-        <v>ITM_h</v>
+        <v>156</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {32,   ITM_RCL,           ITM_PC,            ITM_ANGLE,         ITM_NULL,          ITM_H,             ITM_h,             ITM_ETA,           ITM_HEX            },</v>
+        <v xml:space="preserve">      {32,   ITM_RCL,           ITM_PC,            ITM_ANGLE,         ITM_NULL,          ITM_H,             ITM_h,             ITM_DELTA,         ITM_HEX            },</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2024,7 +2117,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
         <v>94</v>
@@ -2033,21 +2126,20 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="19" t="str">
-        <f>'C43Layout1'!G12</f>
-        <v>ITM_i</v>
+        <v>159</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="I12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {33,   ITM_Rdown,         ITM_CONSTpi,       ITM_XTHROOT,       ITM_NULL,          ITM_I,             ITM_i,             ITM_IOTA,          ITM_REG_I          },</v>
+        <v xml:space="preserve">      {33,   ITM_Rdown,         ITM_CONSTpi,       ITM_XTHROOT,       ITM_NULL,          ITM_I,             ITM_i,             ITM_pi,            ITM_REG_I          },</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2061,27 +2153,26 @@
         <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="19" t="str">
-        <f>'C43Layout1'!G13</f>
-        <v>ITM_j</v>
+        <v>162</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {34,   ITM_sin,           ITM_arcsin,        ITM_CC,            ITM_NULL,          ITM_J,             ITM_j,             ITM_THETA,         ITM_REG_J          },</v>
+        <v xml:space="preserve">      {34,   ITM_sin,           ITM_arcsin,        ITM_CC,            ITM_NULL,          ITM_J,             ITM_j,             ITM_NULL,          ITM_REG_J          },</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2101,21 +2192,20 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="19" t="str">
-        <f>'C43Layout1'!G14</f>
-        <v>ITM_k</v>
+        <v>164</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="I14" t="s">
-        <v>242</v>
-      </c>
-      <c r="K14" s="20" t="str">
+        <v>237</v>
+      </c>
+      <c r="K14" s="20" t="e">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {35,   ITM_cos,           ITM_arccos,        ITM_LBL,           ITM_NULL,          ITM_K,             ITM_k,             ITM_KAPPA,         ITM_REG_K          },</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2135,21 +2225,20 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="19" t="str">
-        <f>'C43Layout1'!G15</f>
-        <v>ITM_l</v>
+        <v>166</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="I15" t="s">
-        <v>243</v>
-      </c>
-      <c r="K15" s="20" t="str">
+        <v>238</v>
+      </c>
+      <c r="K15" s="20" t="e">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {36,   ITM_tan,           ITM_arctan,        ITM_RTN,           ITM_NULL,          ITM_L,             ITM_l,             ITM_LAMBDA,        ITM_REG_L          },</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2178,20 +2267,18 @@
       <c r="F17" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="19" t="str">
-        <f>'C43Layout1'!G17</f>
-        <v>ITM_XEDIT</v>
-      </c>
-      <c r="H17" s="19" t="str">
-        <f>'C43Layout1'!H17</f>
-        <v>ITM_NULL</v>
+      <c r="G17" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="I17" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {41,   ITM_ENTER,         ITM_AIM,           -MNU_CPX,          ITM_ENTER,         ITM_ENTER,         ITM_XEDIT,         ITM_NULL,          ITM_ENTER          },</v>
+        <v xml:space="preserve">      {41,   ITM_ENTER,         ITM_AIM,           -MNU_CPX,          ITM_ENTER,         ITM_ENTER,         ITM_XEDIT,         ITM_XEDIT,         ITM_ENTER          },</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2208,24 +2295,23 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="19" t="str">
-        <f>'C43Layout1'!G18</f>
-        <v>ITM_m</v>
+        <v>169</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>333</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {42,   ITM_XexY,          ITM_LASTX,         ITM_Rup,           ITM_ex,            ITM_M,             ITM_m,             ITM_MU,            ITM_NULL           },</v>
+        <v xml:space="preserve">      {42,   ITM_XexY,          ITM_LASTX,         ITM_Rup,           ITM_ex,            ITM_M,             ITM_m,             ITM_ex,            ITM_NULL           },</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2242,24 +2328,23 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="19" t="str">
-        <f>'C43Layout1'!G19</f>
-        <v>ITM_n</v>
+        <v>172</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="H19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
       </c>
       <c r="K19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {43,   ITM_CHS,           -MNU_MODE,         -MNU_STK,          ITM_PLUS_MINUS,    ITM_N,             ITM_n,             ITM_NU,            ITM_NULL           },</v>
+        <v xml:space="preserve">      {43,   ITM_CHS,           -MNU_MODE,         -MNU_STK,          ITM_PLUS_MINUS,    ITM_N,             ITM_n,             ITM_PLUS_MINUS,    ITM_NULL           },</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2270,7 +2355,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
@@ -2279,21 +2364,20 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="19" t="str">
-        <f>'C43Layout1'!G20</f>
-        <v>ITM_o</v>
+        <v>174</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {44,   ITM_EXPONENT,      -MNU_DSP,          -MNU_EXP,          ITM_NULL,          ITM_O,             ITM_o,             ITM_OMICRON,       ITM_NULL           },</v>
+        <v xml:space="preserve">      {44,   ITM_EXPONENT,      -MNU_DISP,         -MNU_EXP,          ITM_NULL,          ITM_O,             ITM_o,             ITM_NULL,          ITM_NULL           },</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2301,34 +2385,32 @@
         <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="19" t="str">
-        <f>'C43Layout1'!G21</f>
-        <v>ITM_CLA</v>
-      </c>
-      <c r="H21" s="19" t="str">
-        <f>'C43Layout1'!H21</f>
-        <v>ITM_NULL</v>
+        <v>176</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K21" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {45,   ITM_BACKSPACE,     -MNU_CLR,          ITM_UNDO,          ITM_BACKSPACE,     ITM_BACKSPACE,     ITM_CLA,           ITM_NULL,          ITM_BACKSPACE      },</v>
+        <v xml:space="preserve">      {45,   ITM_BACKSPACE,     -MNU_CLR,          ITM_UNDO,          ITM_BACKSPACE,     ITM_BACKSPACE,     ITM_CLA,           ITM_CLA,           ITM_BACKSPACE      },</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2343,29 +2425,28 @@
         <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="19" t="str">
-        <f>'C43Layout1'!G23</f>
-        <v>CHR_caseUP</v>
+        <v>178</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K23" s="20" t="str">
         <f t="shared" si="0"/>
@@ -2374,10 +2455,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -2386,32 +2467,31 @@
         <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" s="19" t="str">
-        <f>'C43Layout1'!G24</f>
-        <v>ITM_p</v>
+        <v>182</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="H24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {52,   ITM_7,             -MNU_EQN,          -MNU_INFO,         ITM_7,             ITM_P,             ITM_p,             ITM_PI,            ITM_7              },</v>
+        <v xml:space="preserve">      {52,   ITM_7,             -MNU_EQN,          -MNU_INFO,         ITM_7,             ITM_P,             ITM_p,             ITM_7,             ITM_7              },</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -2420,32 +2500,31 @@
         <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="19" t="str">
-        <f>'C43Layout1'!G25</f>
-        <v>ITM_q</v>
+        <v>185</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="H25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K25" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {53,   ITM_8,             -MNU_ADV,          -MNU_CONST,        ITM_8,             ITM_Q,             ITM_q,             ITM_QOPPA,         ITM_8              },</v>
+        <v xml:space="preserve">      {53,   ITM_8,             -MNU_ADV,          -MNU_CONST,        ITM_8,             ITM_Q,             ITM_q,             ITM_8,             ITM_8              },</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -2454,29 +2533,28 @@
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" s="19" t="str">
-        <f>'C43Layout1'!G26</f>
-        <v>ITM_r</v>
+        <v>187</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="H26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K26" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {54,   ITM_9,             -MNU_MATX,         -MNU_XFN,          ITM_9,             ITM_R,             ITM_r,             ITM_RHO,           ITM_9              },</v>
+        <v xml:space="preserve">      {54,   ITM_9,             -MNU_MATX,         -MNU_XFN,          ITM_9,             ITM_R,             ITM_r,             ITM_9,             ITM_9              },</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -2488,24 +2566,23 @@
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="19" t="str">
-        <f>'C43Layout1'!G27</f>
-        <v>ITM_s</v>
+        <v>190</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="H27" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I27" t="s">
         <v>35</v>
       </c>
       <c r="K27" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {55,   ITM_DIV,           -MNU_STAT,         -MNU_SUMS,         ITM_OBELUS,        ITM_S,             ITM_s,             ITM_SIGMA,         ITM_DIV            },</v>
+        <v xml:space="preserve">      {55,   ITM_DIV,           -MNU_STAT,         -MNU_SUMS,         ITM_OBELUS,        ITM_S,             ITM_s,             ITM_OBELUS,        ITM_DIV            },</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2517,32 +2594,31 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" t="s">
         <v>123</v>
       </c>
-      <c r="B29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" t="s">
-        <v>124</v>
-      </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="19" t="str">
-        <f>'C43Layout1'!G29</f>
-        <v>CHR_caseDN</v>
+        <v>192</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="H29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K29" s="20" t="str">
         <f t="shared" si="0"/>
@@ -2551,10 +2627,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
         <v>114</v>
@@ -2563,32 +2639,31 @@
         <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="19" t="str">
-        <f>'C43Layout1'!G30</f>
-        <v>ITM_t</v>
+        <v>196</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K30" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {62,   ITM_4,             -MNU_BASE,         -MNU_FIN,          ITM_4,             ITM_T,             ITM_t,             ITM_TAU,           ITM_4              },</v>
+        <v xml:space="preserve">      {62,   ITM_4,             -MNU_BASE,         -MNU_FIN,          ITM_4,             ITM_T,             ITM_t,             ITM_4,             ITM_4              },</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
@@ -2597,32 +2672,31 @@
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="19" t="str">
-        <f>'C43Layout1'!G31</f>
-        <v>ITM_u</v>
+        <v>199</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="H31" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K31" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {63,   ITM_5,             -MNU_ANGLECONV,    -MNU_UNITCONV,     ITM_5,             ITM_U,             ITM_u,             ITM_PHI,           ITM_5              },</v>
+        <v xml:space="preserve">      {63,   ITM_5,             -MNU_ANGLECONV,    -MNU_UNITCONV,     ITM_5,             ITM_U,             ITM_u,             ITM_5,             ITM_5              },</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -2631,29 +2705,28 @@
         <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G32" s="19" t="str">
-        <f>'C43Layout1'!G32</f>
-        <v>ITM_v</v>
+        <v>202</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="H32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K32" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {64,   ITM_6,             -MNU_FLAGS,        -MNU_BITS,         ITM_6,             ITM_V,             ITM_v,             ITM_PSI,           ITM_6              },</v>
+        <v xml:space="preserve">      {64,   ITM_6,             -MNU_FLAGS,        -MNU_BITS,         ITM_6,             ITM_V,             ITM_v,             ITM_6,             ITM_6              },</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -2665,24 +2738,23 @@
         <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="19" t="str">
-        <f>'C43Layout1'!G33</f>
-        <v>ITM_w</v>
+        <v>205</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="H33" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I33" t="s">
         <v>40</v>
       </c>
       <c r="K33" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {65,   ITM_MULT,          -MNU_PROB,         -MNU_INTS,         ITM_CROSS,         ITM_W,             ITM_w,             ITM_OMEGA,         ITM_MULT           },</v>
+        <v xml:space="preserve">      {65,   ITM_MULT,          -MNU_PROB,         -MNU_INTS,         ITM_CROSS,         ITM_W,             ITM_w,             ITM_CROSS,         ITM_MULT           },</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2694,7 +2766,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -2711,27 +2783,26 @@
       <c r="F35" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="19" t="str">
-        <f>'C43Layout1'!G35</f>
-        <v>ITM_NULL</v>
+      <c r="G35" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s">
         <v>83</v>
       </c>
       <c r="K35" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {71,   KEY_fg,            ITM_NULL,          ITM_NULL,          KEY_fg,            KEY_fg,            ITM_NULL,          ITM_NULL,          KEY_fg             },</v>
+        <v xml:space="preserve">      {71,   KEY_fg,            ITM_NULL,          ITM_NULL,          KEY_fg,            KEY_fg,            ITM_NULL,          KEY_fg,            KEY_fg             },</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -2740,66 +2811,64 @@
         <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" s="19" t="str">
-        <f>'C43Layout1'!G36</f>
-        <v>ITM_x</v>
+        <v>208</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>344</v>
       </c>
       <c r="H36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K36" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {72,   ITM_1,             ITM_ASSIGN,        -MNU_ASN,          ITM_1,             ITM_X,             ITM_x,             ITM_XI,            ITM_1              },</v>
+        <v xml:space="preserve">      {72,   ITM_1,             ITM_ASSIGN,        -MNU_ASN,          ITM_1,             ITM_X,             ITM_x,             ITM_1,             ITM_1              },</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G37" s="19" t="str">
-        <f>'C43Layout1'!G37</f>
-        <v>ITM_y</v>
+        <v>212</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="H37" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K37" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {73,   ITM_2,             ITM_USERMODE,      -MNU_LOOP,         ITM_2,             ITM_Y,             ITM_y,             ITM_UPSILON,       ITM_2              },</v>
+        <v xml:space="preserve">      {73,   ITM_2,             ITM_USERMODE,      -MNU_LOOP,         ITM_2,             ITM_Y,             ITM_y,             ITM_2,             ITM_2              },</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s">
         <v>79</v>
@@ -2808,29 +2877,28 @@
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F38" t="s">
-        <v>219</v>
-      </c>
-      <c r="G38" s="19" t="str">
-        <f>'C43Layout1'!G38</f>
-        <v>ITM_z</v>
+        <v>215</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="H38" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K38" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {74,   ITM_3,             -MNU_PFN,          -MNU_TEST,         ITM_3,             ITM_Z,             ITM_z,             ITM_ZETA,          ITM_3              },</v>
+        <v xml:space="preserve">      {74,   ITM_3,             -MNU_PFN,          -MNU_TEST,         ITM_3,             ITM_Z,             ITM_z,             ITM_3,             ITM_3              },</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -2842,24 +2910,23 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F39" t="s">
-        <v>222</v>
-      </c>
-      <c r="G39" s="19" t="str">
-        <f>'C43Layout1'!G39</f>
-        <v>ITM_MINUS</v>
+        <v>218</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="H39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I39" t="s">
         <v>41</v>
       </c>
       <c r="K39" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {75,   ITM_SUB,           -MNU_IO,           -MNU_ALPHAFN,      ITM_MINUS,         ITM_UNDERSCORE,    ITM_MINUS,         ITM_SAMPI,         ITM_SUB            },</v>
+        <v xml:space="preserve">      {75,   ITM_SUB,           -MNU_IO,           -MNU_ALPHAFN,      ITM_MINUS,         ITM_UNDERSCORE,    ITM_MINUS,         ITM_MINUS,         ITM_SUB            },</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2871,44 +2938,43 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
         <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="19" t="str">
-        <f>'C43Layout1'!G41</f>
-        <v>ITM_OFF</v>
+        <v>219</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K41" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {81,   ITM_EXIT1,         ITM_OFF,           -MNU_PRINT,        ITM_EXIT1,         ITM_EXIT1,         ITM_OFF,           ITM_PRINTER,       ITM_EXIT1          },</v>
+        <v xml:space="preserve">      {81,   ITM_EXIT1,         ITM_OFF,           ITM_PRN,           ITM_EXIT1,         ITM_EXIT1,         ITM_OFF,           ITM_PRN,           ITM_EXIT1          },</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
@@ -2917,32 +2983,31 @@
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F42" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="19" t="str">
-        <f>'C43Layout1'!G42</f>
-        <v>ITM_0</v>
+        <v>222</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="I42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K42" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {82,   ITM_0,             -MNU_HOME,         ITM_TIMER,         ITM_0,             ITM_COLON,         ITM_0,             -MNU_ALPHA,        ITM_0              },</v>
+        <v xml:space="preserve">      {82,   ITM_0,             -MNU_HOME,         ITM_TIMER,         ITM_0,             ITM_COLON,         ITM_0,             ITM_0,             ITM_0              },</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -2951,29 +3016,28 @@
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F43" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="19" t="str">
-        <f>'C43Layout1'!G43</f>
-        <v>ITM_PERIOD</v>
+        <v>224</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K43" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {83,   ITM_PERIOD,        ITM_SHOW,          ITM_VIEW,          ITM_PERIOD,        ITM_COMMA,         ITM_PERIOD,        -MNU_ALPHADOT,     ITM_PERIOD         },</v>
+        <v xml:space="preserve">      {83,   ITM_PERIOD,        ITM_SHOW,          ITM_VIEW,          ITM_PERIOD,        ITM_COMMA,         ITM_PERIOD,        ITM_PERIOD,        ITM_PERIOD         },</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -2988,26 +3052,25 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
-      </c>
-      <c r="G44" s="19" t="str">
-        <f>'C43Layout1'!G44</f>
-        <v>ITM_SLASH</v>
+        <v>225</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>266</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="I44" t="s">
         <v>10</v>
       </c>
       <c r="K44" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      {84,   ITM_RS,            ITM_PR,            -MNU_CLK,          ITM_NULL,          ITM_QUESTION_MARK, ITM_SLASH,         -MNU_ALPHAMATH,    ITM_NULL           },</v>
+        <v xml:space="preserve">      {84,   ITM_RS,            ITM_PR,            -MNU_CLK,          ITM_NULL,          ITM_QUESTION_MARK, ITM_SLASH,         ITM_SLASH,         ITM_NULL           },</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -3019,17 +3082,16 @@
         <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
-      </c>
-      <c r="G45" s="19" t="str">
-        <f>'C43Layout1'!G45</f>
-        <v>ITM_PLUS</v>
+        <v>227</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H45" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="I45" t="s">
         <v>43</v>
@@ -3047,7 +3109,7 @@
 I45&amp;"  "&amp;REPT(" ",($J$1-LEN(I45)))&amp;
 "}"
 )</f>
-        <v xml:space="preserve">      {85,   ITM_ADD,           -MNU_CATALOG,      -MNU_PARTS,        ITM_PLUS,          ITM_SPACE,         ITM_PLUS,          -MNU_ALPHAINTL,    ITM_ADD            }</v>
+        <v xml:space="preserve">      {85,   ITM_ADD,           -MNU_CATALOG,      -MNU_PARTS,        ITM_PLUS,          ITM_SPACE,         ITM_PLUS,          ITM_PLUS,          ITM_ADD            }</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3058,7 +3120,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="K47" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3098,10 +3160,10 @@
         <v>primaryTam</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="31">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30.9">
       <c r="A51" s="1" t="str">
         <f>A1</f>
         <v>LAYOUT42</v>
@@ -3110,7 +3172,7 @@
         <v>50</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3143,7 +3205,7 @@
       </c>
       <c r="H52" t="str">
         <f>"kbd_usr["&amp;$A52&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[0].gShiftedAim=ITM_ALPHA; </v>
+        <v xml:space="preserve">kbd_usr[0].gShiftedAim=ITM_SIGMA; </v>
       </c>
       <c r="I52" t="str">
         <f>"kbd_usr["&amp;$A52&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I3&amp;"; "</f>
@@ -3158,7 +3220,7 @@
 'C43Layout42'!G52&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G52)))&amp;
 'C43Layout42'!H52&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H52)))&amp;
 'C43Layout42'!I52&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I52)))</f>
-        <v xml:space="preserve">    kbd_usr[0].primary=ITM_SIGMAPLUS;                 kbd_usr[0].fShifted=ITM_SIGMAMINUS;               kbd_usr[0].gShifted=ITM_TGLFRT;                   kbd_usr[0].keyLblAim=ITM_NULL;                    kbd_usr[0].primaryAim=ITM_A;                      kbd_usr[0].fShiftedAim=ITM_a;                     kbd_usr[0].gShiftedAim=ITM_ALPHA;                 kbd_usr[0].primaryTam=ITM_REG_A;                  </v>
+        <v xml:space="preserve">    kbd_usr[0].primary=ITM_SIGMAPLUS;                 kbd_usr[0].fShifted=ITM_SIGMAMINUS;               kbd_usr[0].gShifted=ITM_TGLFRT;                   kbd_usr[0].keyLblAim=ITM_NULL;                    kbd_usr[0].primaryAim=ITM_A;                      kbd_usr[0].fShiftedAim=ITM_a;                     kbd_usr[0].gShiftedAim=ITM_SIGMA;                 kbd_usr[0].primaryTam=ITM_REG_A;                  </v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3191,7 +3253,7 @@
       </c>
       <c r="H53" t="str">
         <f>"kbd_usr["&amp;$A53&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H4&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].gShiftedAim=ITM_BETA; </v>
+        <v xml:space="preserve">kbd_usr[1].gShiftedAim=ITM_CIRCUMFLEX; </v>
       </c>
       <c r="I53" t="str">
         <f>"kbd_usr["&amp;$A53&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I4&amp;"; "</f>
@@ -3206,7 +3268,7 @@
 'C43Layout42'!G53&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G53)))&amp;
 'C43Layout42'!H53&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H53)))&amp;
 'C43Layout42'!I53&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I53)))</f>
-        <v xml:space="preserve">    kbd_usr[1].primary=ITM_1ONX;                      kbd_usr[1].fShifted=ITM_YX;                       kbd_usr[1].gShifted=ITM_HASH_JM;                  kbd_usr[1].keyLblAim=ITM_NUMBER_SIGN;             kbd_usr[1].primaryAim=ITM_B;                      kbd_usr[1].fShiftedAim=ITM_b;                     kbd_usr[1].gShiftedAim=ITM_BETA;                  kbd_usr[1].primaryTam=ITM_REG_B;                  </v>
+        <v xml:space="preserve">    kbd_usr[1].primary=ITM_1ONX;                      kbd_usr[1].fShifted=ITM_YX;                       kbd_usr[1].gShifted=ITM_HASH_JM;                  kbd_usr[1].keyLblAim=ITM_NUMBER_SIGN;             kbd_usr[1].primaryAim=ITM_B;                      kbd_usr[1].fShiftedAim=ITM_b;                     kbd_usr[1].gShiftedAim=ITM_CIRCUMFLEX;            kbd_usr[1].primaryTam=ITM_REG_B;                  </v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3227,7 +3289,7 @@
       </c>
       <c r="E54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;E$50&amp;"="&amp;'C43Layout42'!E5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].keyLblAim=ITM_CHECK_MARK; </v>
+        <v xml:space="preserve">kbd_usr[2].keyLblAim=ITM_ROOT_SIGN; </v>
       </c>
       <c r="F54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;F$50&amp;"="&amp;'C43Layout42'!F5&amp;"; "</f>
@@ -3239,7 +3301,7 @@
       </c>
       <c r="H54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].gShiftedAim=ITM_CHI; </v>
+        <v xml:space="preserve">kbd_usr[2].gShiftedAim=ITM_ROOT_SIGN; </v>
       </c>
       <c r="I54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I5&amp;"; "</f>
@@ -3254,7 +3316,7 @@
 'C43Layout42'!G54&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G54)))&amp;
 'C43Layout42'!H54&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H54)))&amp;
 'C43Layout42'!I54&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I54)))</f>
-        <v xml:space="preserve">    kbd_usr[2].primary=ITM_SQUAREROOTX;               kbd_usr[2].fShifted=ITM_SQUARE;                   kbd_usr[2].gShifted=ITM_ms;                       kbd_usr[2].keyLblAim=ITM_CHECK_MARK;              kbd_usr[2].primaryAim=ITM_C;                      kbd_usr[2].fShiftedAim=ITM_c;                     kbd_usr[2].gShiftedAim=ITM_CHI;                   kbd_usr[2].primaryTam=ITM_REG_C;                  </v>
+        <v xml:space="preserve">    kbd_usr[2].primary=ITM_SQUAREROOTX;               kbd_usr[2].fShifted=ITM_SQUARE;                   kbd_usr[2].gShifted=ITM_ms;                       kbd_usr[2].keyLblAim=ITM_ROOT_SIGN;               kbd_usr[2].primaryAim=ITM_C;                      kbd_usr[2].fShiftedAim=ITM_c;                     kbd_usr[2].gShiftedAim=ITM_ROOT_SIGN;             kbd_usr[2].primaryTam=ITM_REG_C;                  </v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3287,7 +3349,7 @@
       </c>
       <c r="H55" t="str">
         <f>"kbd_usr["&amp;$A55&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H6&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[3].gShiftedAim=ITM_DELTA; </v>
+        <v xml:space="preserve">kbd_usr[3].gShiftedAim=ITM_LG_SIGN; </v>
       </c>
       <c r="I55" t="str">
         <f>"kbd_usr["&amp;$A55&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I6&amp;"; "</f>
@@ -3302,7 +3364,7 @@
 'C43Layout42'!G55&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G55)))&amp;
 'C43Layout42'!H55&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H55)))&amp;
 'C43Layout42'!I55&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I55)))</f>
-        <v xml:space="preserve">    kbd_usr[3].primary=ITM_LOG10;                     kbd_usr[3].fShifted=ITM_10x;                      kbd_usr[3].gShifted=ITM_dotD;                     kbd_usr[3].keyLblAim=ITM_NULL;                    kbd_usr[3].primaryAim=ITM_D;                      kbd_usr[3].fShiftedAim=ITM_d;                     kbd_usr[3].gShiftedAim=ITM_DELTA;                 kbd_usr[3].primaryTam=ITM_REG_D;                  </v>
+        <v xml:space="preserve">    kbd_usr[3].primary=ITM_LOG10;                     kbd_usr[3].fShifted=ITM_10x;                      kbd_usr[3].gShifted=ITM_dotD;                     kbd_usr[3].keyLblAim=ITM_NULL;                    kbd_usr[3].primaryAim=ITM_D;                      kbd_usr[3].fShiftedAim=ITM_d;                     kbd_usr[3].gShiftedAim=ITM_LG_SIGN;               kbd_usr[3].primaryTam=ITM_REG_D;                  </v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3335,11 +3397,11 @@
       </c>
       <c r="H56" t="str">
         <f>"kbd_usr["&amp;$A56&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[4].gShiftedAim=ITM_EPSILON; </v>
+        <v xml:space="preserve">kbd_usr[4].gShiftedAim=ITM_LN_SIGN; </v>
       </c>
       <c r="I56" t="str">
         <f>"kbd_usr["&amp;$A56&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[4].primaryTam=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[4].primaryTam=ITM_E; </v>
       </c>
       <c r="K56" s="21" t="str">
         <f>"    "&amp;'C43Layout42'!B56&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!B56)))&amp;
@@ -3350,7 +3412,7 @@
 'C43Layout42'!G56&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G56)))&amp;
 'C43Layout42'!H56&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H56)))&amp;
 'C43Layout42'!I56&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I56)))</f>
-        <v xml:space="preserve">    kbd_usr[4].primary=ITM_LN;                        kbd_usr[4].fShifted=ITM_EXP;                      kbd_usr[4].gShifted=ITM_toREC2;                   kbd_usr[4].keyLblAim=ITM_NULL;                    kbd_usr[4].primaryAim=ITM_E;                      kbd_usr[4].fShiftedAim=ITM_e;                     kbd_usr[4].gShiftedAim=ITM_EPSILON;               kbd_usr[4].primaryTam=ITM_NULL;                   </v>
+        <v xml:space="preserve">    kbd_usr[4].primary=ITM_LN;                        kbd_usr[4].fShifted=ITM_EXP;                      kbd_usr[4].gShifted=ITM_toREC2;                   kbd_usr[4].keyLblAim=ITM_NULL;                    kbd_usr[4].primaryAim=ITM_E;                      kbd_usr[4].fShiftedAim=ITM_e;                     kbd_usr[4].gShiftedAim=ITM_LN_SIGN;               kbd_usr[4].primaryTam=ITM_E;                      </v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3383,7 +3445,7 @@
       </c>
       <c r="H57" t="str">
         <f>"kbd_usr["&amp;$A57&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H8&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[5].gShiftedAim=ITM_DIGAMMA; </v>
+        <v xml:space="preserve">kbd_usr[5].gShiftedAim=ITM_alpha; </v>
       </c>
       <c r="I57" t="str">
         <f>"kbd_usr["&amp;$A57&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I8&amp;"; "</f>
@@ -3398,7 +3460,7 @@
 'C43Layout42'!G57&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G57)))&amp;
 'C43Layout42'!H57&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H57)))&amp;
 'C43Layout42'!I57&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I57)))</f>
-        <v xml:space="preserve">    kbd_usr[5].primary=ITM_XEQ;                       kbd_usr[5].fShifted=ITM_GTO;                      kbd_usr[5].gShifted=ITM_toPOL2;                   kbd_usr[5].keyLblAim=ITM_NULL;                    kbd_usr[5].primaryAim=ITM_F;                      kbd_usr[5].fShiftedAim=ITM_f;                     kbd_usr[5].gShiftedAim=ITM_DIGAMMA;               kbd_usr[5].primaryTam=ITM_alpha;                  </v>
+        <v xml:space="preserve">    kbd_usr[5].primary=ITM_XEQ;                       kbd_usr[5].fShifted=ITM_GTO;                      kbd_usr[5].gShifted=ITM_toPOL2;                   kbd_usr[5].keyLblAim=ITM_NULL;                    kbd_usr[5].primaryAim=ITM_F;                      kbd_usr[5].fShiftedAim=ITM_f;                     kbd_usr[5].gShiftedAim=ITM_alpha;                 kbd_usr[5].primaryTam=ITM_alpha;                  </v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3431,7 +3493,7 @@
       </c>
       <c r="H58" t="str">
         <f>"kbd_usr["&amp;$A58&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H10&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[6].gShiftedAim=ITM_GAMMA; </v>
+        <v xml:space="preserve">kbd_usr[6].gShiftedAim=ITM_VERTICAL_BAR; </v>
       </c>
       <c r="I58" t="str">
         <f>"kbd_usr["&amp;$A58&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I10&amp;"; "</f>
@@ -3446,7 +3508,7 @@
 'C43Layout42'!G58&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G58)))&amp;
 'C43Layout42'!H58&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H58)))&amp;
 'C43Layout42'!I58&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I58)))</f>
-        <v xml:space="preserve">    kbd_usr[6].primary=ITM_STO;                       kbd_usr[6].fShifted=KEY_COMPLEX;                  kbd_usr[6].gShifted=ITM_MAGNITUDE;                kbd_usr[6].keyLblAim=ITM_NULL;                    kbd_usr[6].primaryAim=ITM_G;                      kbd_usr[6].fShiftedAim=ITM_g;                     kbd_usr[6].gShiftedAim=ITM_GAMMA;                 kbd_usr[6].primaryTam=ITM_NULL;                   </v>
+        <v xml:space="preserve">    kbd_usr[6].primary=ITM_STO;                       kbd_usr[6].fShifted=KEY_COMPLEX;                  kbd_usr[6].gShifted=ITM_MAGNITUDE;                kbd_usr[6].keyLblAim=ITM_NULL;                    kbd_usr[6].primaryAim=ITM_G;                      kbd_usr[6].fShiftedAim=ITM_g;                     kbd_usr[6].gShiftedAim=ITM_VERTICAL_BAR;          kbd_usr[6].primaryTam=ITM_NULL;                   </v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3479,7 +3541,7 @@
       </c>
       <c r="H59" t="str">
         <f>"kbd_usr["&amp;$A59&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H11&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[7].gShiftedAim=ITM_ETA; </v>
+        <v xml:space="preserve">kbd_usr[7].gShiftedAim=ITM_DELTA; </v>
       </c>
       <c r="I59" t="str">
         <f>"kbd_usr["&amp;$A59&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I11&amp;"; "</f>
@@ -3494,7 +3556,7 @@
 'C43Layout42'!G59&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G59)))&amp;
 'C43Layout42'!H59&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H59)))&amp;
 'C43Layout42'!I59&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I59)))</f>
-        <v xml:space="preserve">    kbd_usr[7].primary=ITM_RCL;                       kbd_usr[7].fShifted=ITM_PC;                       kbd_usr[7].gShifted=ITM_ANGLE;                    kbd_usr[7].keyLblAim=ITM_NULL;                    kbd_usr[7].primaryAim=ITM_H;                      kbd_usr[7].fShiftedAim=ITM_h;                     kbd_usr[7].gShiftedAim=ITM_ETA;                   kbd_usr[7].primaryTam=ITM_HEX;                    </v>
+        <v xml:space="preserve">    kbd_usr[7].primary=ITM_RCL;                       kbd_usr[7].fShifted=ITM_PC;                       kbd_usr[7].gShifted=ITM_ANGLE;                    kbd_usr[7].keyLblAim=ITM_NULL;                    kbd_usr[7].primaryAim=ITM_H;                      kbd_usr[7].fShiftedAim=ITM_h;                     kbd_usr[7].gShiftedAim=ITM_DELTA;                 kbd_usr[7].primaryTam=ITM_HEX;                    </v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3527,7 +3589,7 @@
       </c>
       <c r="H60" t="str">
         <f>"kbd_usr["&amp;$A60&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H12&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[8].gShiftedAim=ITM_IOTA; </v>
+        <v xml:space="preserve">kbd_usr[8].gShiftedAim=ITM_pi; </v>
       </c>
       <c r="I60" t="str">
         <f>"kbd_usr["&amp;$A60&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I12&amp;"; "</f>
@@ -3542,7 +3604,7 @@
 'C43Layout42'!G60&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G60)))&amp;
 'C43Layout42'!H60&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H60)))&amp;
 'C43Layout42'!I60&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I60)))</f>
-        <v xml:space="preserve">    kbd_usr[8].primary=ITM_Rdown;                     kbd_usr[8].fShifted=ITM_CONSTpi;                  kbd_usr[8].gShifted=ITM_XTHROOT;                  kbd_usr[8].keyLblAim=ITM_NULL;                    kbd_usr[8].primaryAim=ITM_I;                      kbd_usr[8].fShiftedAim=ITM_i;                     kbd_usr[8].gShiftedAim=ITM_IOTA;                  kbd_usr[8].primaryTam=ITM_REG_I;                  </v>
+        <v xml:space="preserve">    kbd_usr[8].primary=ITM_Rdown;                     kbd_usr[8].fShifted=ITM_CONSTpi;                  kbd_usr[8].gShifted=ITM_XTHROOT;                  kbd_usr[8].keyLblAim=ITM_NULL;                    kbd_usr[8].primaryAim=ITM_I;                      kbd_usr[8].fShiftedAim=ITM_i;                     kbd_usr[8].gShiftedAim=ITM_pi;                    kbd_usr[8].primaryTam=ITM_REG_I;                  </v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3575,7 +3637,7 @@
       </c>
       <c r="H61" t="str">
         <f>"kbd_usr["&amp;$A61&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H13&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[9].gShiftedAim=ITM_THETA; </v>
+        <v xml:space="preserve">kbd_usr[9].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I61" t="str">
         <f>"kbd_usr["&amp;$A61&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I13&amp;"; "</f>
@@ -3590,7 +3652,7 @@
 'C43Layout42'!G61&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G61)))&amp;
 'C43Layout42'!H61&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H61)))&amp;
 'C43Layout42'!I61&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I61)))</f>
-        <v xml:space="preserve">    kbd_usr[9].primary=ITM_sin;                       kbd_usr[9].fShifted=ITM_arcsin;                   kbd_usr[9].gShifted=ITM_CC;                       kbd_usr[9].keyLblAim=ITM_NULL;                    kbd_usr[9].primaryAim=ITM_J;                      kbd_usr[9].fShiftedAim=ITM_j;                     kbd_usr[9].gShiftedAim=ITM_THETA;                 kbd_usr[9].primaryTam=ITM_REG_J;                  </v>
+        <v xml:space="preserve">    kbd_usr[9].primary=ITM_sin;                       kbd_usr[9].fShifted=ITM_arcsin;                   kbd_usr[9].gShifted=ITM_CC;                       kbd_usr[9].keyLblAim=ITM_NULL;                    kbd_usr[9].primaryAim=ITM_J;                      kbd_usr[9].fShiftedAim=ITM_j;                     kbd_usr[9].gShiftedAim=ITM_NULL;                  kbd_usr[9].primaryTam=ITM_REG_J;                  </v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3623,7 +3685,7 @@
       </c>
       <c r="H62" t="str">
         <f>"kbd_usr["&amp;$A62&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H14&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[10].gShiftedAim=ITM_KAPPA; </v>
+        <v xml:space="preserve">kbd_usr[10].gShiftedAim=ITM_LEFT_PARENTHESIS; </v>
       </c>
       <c r="I62" t="str">
         <f>"kbd_usr["&amp;$A62&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I14&amp;"; "</f>
@@ -3638,7 +3700,7 @@
 'C43Layout42'!G62&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G62)))&amp;
 'C43Layout42'!H62&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H62)))&amp;
 'C43Layout42'!I62&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I62)))</f>
-        <v xml:space="preserve">    kbd_usr[10].primary=ITM_cos;                      kbd_usr[10].fShifted=ITM_arccos;                  kbd_usr[10].gShifted=ITM_LBL;                     kbd_usr[10].keyLblAim=ITM_NULL;                   kbd_usr[10].primaryAim=ITM_K;                     kbd_usr[10].fShiftedAim=ITM_k;                    kbd_usr[10].gShiftedAim=ITM_KAPPA;                kbd_usr[10].primaryTam=ITM_REG_K;                 </v>
+        <v xml:space="preserve">    kbd_usr[10].primary=ITM_cos;                      kbd_usr[10].fShifted=ITM_arccos;                  kbd_usr[10].gShifted=ITM_LBL;                     kbd_usr[10].keyLblAim=ITM_NULL;                   kbd_usr[10].primaryAim=ITM_K;                     kbd_usr[10].fShiftedAim=ITM_k;                    kbd_usr[10].gShiftedAim=ITM_LEFT_PARENTHESIS;     kbd_usr[10].primaryTam=ITM_REG_K;                 </v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3671,7 +3733,7 @@
       </c>
       <c r="H63" t="str">
         <f>"kbd_usr["&amp;$A63&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H15&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[11].gShiftedAim=ITM_LAMBDA; </v>
+        <v xml:space="preserve">kbd_usr[11].gShiftedAim=ITM_RIGHT_PARENTHESIS; </v>
       </c>
       <c r="I63" t="str">
         <f>"kbd_usr["&amp;$A63&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I15&amp;"; "</f>
@@ -3686,7 +3748,7 @@
 'C43Layout42'!G63&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G63)))&amp;
 'C43Layout42'!H63&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H63)))&amp;
 'C43Layout42'!I63&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I63)))</f>
-        <v xml:space="preserve">    kbd_usr[11].primary=ITM_tan;                      kbd_usr[11].fShifted=ITM_arctan;                  kbd_usr[11].gShifted=ITM_RTN;                     kbd_usr[11].keyLblAim=ITM_NULL;                   kbd_usr[11].primaryAim=ITM_L;                     kbd_usr[11].fShiftedAim=ITM_l;                    kbd_usr[11].gShiftedAim=ITM_LAMBDA;               kbd_usr[11].primaryTam=ITM_REG_L;                 </v>
+        <v xml:space="preserve">    kbd_usr[11].primary=ITM_tan;                      kbd_usr[11].fShifted=ITM_arctan;                  kbd_usr[11].gShifted=ITM_RTN;                     kbd_usr[11].keyLblAim=ITM_NULL;                   kbd_usr[11].primaryAim=ITM_L;                     kbd_usr[11].fShiftedAim=ITM_l;                    kbd_usr[11].gShiftedAim=ITM_RIGHT_PARENTHESIS;    kbd_usr[11].primaryTam=ITM_REG_L;                 </v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3719,7 +3781,7 @@
       </c>
       <c r="H64" t="str">
         <f>"kbd_usr["&amp;$A64&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[12].gShiftedAim=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[12].gShiftedAim=ITM_XEDIT; </v>
       </c>
       <c r="I64" t="str">
         <f>"kbd_usr["&amp;$A64&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I17&amp;"; "</f>
@@ -3734,7 +3796,7 @@
 'C43Layout42'!G64&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G64)))&amp;
 'C43Layout42'!H64&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H64)))&amp;
 'C43Layout42'!I64&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I64)))</f>
-        <v xml:space="preserve">    kbd_usr[12].primary=ITM_ENTER;                    kbd_usr[12].fShifted=ITM_AIM;                     kbd_usr[12].gShifted=-MNU_CPX;                    kbd_usr[12].keyLblAim=ITM_ENTER;                  kbd_usr[12].primaryAim=ITM_ENTER;                 kbd_usr[12].fShiftedAim=ITM_XEDIT;                kbd_usr[12].gShiftedAim=ITM_NULL;                 kbd_usr[12].primaryTam=ITM_ENTER;                 </v>
+        <v xml:space="preserve">    kbd_usr[12].primary=ITM_ENTER;                    kbd_usr[12].fShifted=ITM_AIM;                     kbd_usr[12].gShifted=-MNU_CPX;                    kbd_usr[12].keyLblAim=ITM_ENTER;                  kbd_usr[12].primaryAim=ITM_ENTER;                 kbd_usr[12].fShiftedAim=ITM_XEDIT;                kbd_usr[12].gShiftedAim=ITM_XEDIT;                kbd_usr[12].primaryTam=ITM_ENTER;                 </v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3767,7 +3829,7 @@
       </c>
       <c r="H65" t="str">
         <f>"kbd_usr["&amp;$A65&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H18&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].gShiftedAim=ITM_MU; </v>
+        <v xml:space="preserve">kbd_usr[13].gShiftedAim=ITM_ex; </v>
       </c>
       <c r="I65" t="str">
         <f>"kbd_usr["&amp;$A65&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I18&amp;"; "</f>
@@ -3782,7 +3844,7 @@
 'C43Layout42'!G65&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G65)))&amp;
 'C43Layout42'!H65&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H65)))&amp;
 'C43Layout42'!I65&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I65)))</f>
-        <v xml:space="preserve">    kbd_usr[13].primary=ITM_XexY;                     kbd_usr[13].fShifted=ITM_LASTX;                   kbd_usr[13].gShifted=ITM_Rup;                     kbd_usr[13].keyLblAim=ITM_ex;                     kbd_usr[13].primaryAim=ITM_M;                     kbd_usr[13].fShiftedAim=ITM_m;                    kbd_usr[13].gShiftedAim=ITM_MU;                   kbd_usr[13].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">    kbd_usr[13].primary=ITM_XexY;                     kbd_usr[13].fShifted=ITM_LASTX;                   kbd_usr[13].gShifted=ITM_Rup;                     kbd_usr[13].keyLblAim=ITM_ex;                     kbd_usr[13].primaryAim=ITM_M;                     kbd_usr[13].fShiftedAim=ITM_m;                    kbd_usr[13].gShiftedAim=ITM_ex;                   kbd_usr[13].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3815,7 +3877,7 @@
       </c>
       <c r="H66" t="str">
         <f>"kbd_usr["&amp;$A66&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H19&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[14].gShiftedAim=ITM_NU; </v>
+        <v xml:space="preserve">kbd_usr[14].gShiftedAim=ITM_PLUS_MINUS; </v>
       </c>
       <c r="I66" t="str">
         <f>"kbd_usr["&amp;$A66&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I19&amp;"; "</f>
@@ -3830,7 +3892,7 @@
 'C43Layout42'!G66&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G66)))&amp;
 'C43Layout42'!H66&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H66)))&amp;
 'C43Layout42'!I66&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I66)))</f>
-        <v xml:space="preserve">    kbd_usr[14].primary=ITM_CHS;                      kbd_usr[14].fShifted=-MNU_MODE;                   kbd_usr[14].gShifted=-MNU_STK;                    kbd_usr[14].keyLblAim=ITM_PLUS_MINUS;             kbd_usr[14].primaryAim=ITM_N;                     kbd_usr[14].fShiftedAim=ITM_n;                    kbd_usr[14].gShiftedAim=ITM_NU;                   kbd_usr[14].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">    kbd_usr[14].primary=ITM_CHS;                      kbd_usr[14].fShifted=-MNU_MODE;                   kbd_usr[14].gShifted=-MNU_STK;                    kbd_usr[14].keyLblAim=ITM_PLUS_MINUS;             kbd_usr[14].primaryAim=ITM_N;                     kbd_usr[14].fShiftedAim=ITM_n;                    kbd_usr[14].gShiftedAim=ITM_PLUS_MINUS;           kbd_usr[14].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3843,7 +3905,7 @@
       </c>
       <c r="C67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;C$50&amp;"="&amp;'C43Layout42'!C20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].fShifted=-MNU_DSP; </v>
+        <v xml:space="preserve">kbd_usr[15].fShifted=-MNU_DISP; </v>
       </c>
       <c r="D67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;D$50&amp;"="&amp;'C43Layout42'!D20&amp;"; "</f>
@@ -3863,7 +3925,7 @@
       </c>
       <c r="H67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].gShiftedAim=ITM_OMICRON; </v>
+        <v xml:space="preserve">kbd_usr[15].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I20&amp;"; "</f>
@@ -3878,7 +3940,7 @@
 'C43Layout42'!G67&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G67)))&amp;
 'C43Layout42'!H67&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H67)))&amp;
 'C43Layout42'!I67&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I67)))</f>
-        <v xml:space="preserve">    kbd_usr[15].primary=ITM_EXPONENT;                 kbd_usr[15].fShifted=-MNU_DSP;                    kbd_usr[15].gShifted=-MNU_EXP;                    kbd_usr[15].keyLblAim=ITM_NULL;                   kbd_usr[15].primaryAim=ITM_O;                     kbd_usr[15].fShiftedAim=ITM_o;                    kbd_usr[15].gShiftedAim=ITM_OMICRON;              kbd_usr[15].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">    kbd_usr[15].primary=ITM_EXPONENT;                 kbd_usr[15].fShifted=-MNU_DISP;                   kbd_usr[15].gShifted=-MNU_EXP;                    kbd_usr[15].keyLblAim=ITM_NULL;                   kbd_usr[15].primaryAim=ITM_O;                     kbd_usr[15].fShiftedAim=ITM_o;                    kbd_usr[15].gShiftedAim=ITM_NULL;                 kbd_usr[15].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3911,7 +3973,7 @@
       </c>
       <c r="H68" t="str">
         <f>"kbd_usr["&amp;$A68&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H21&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[16].gShiftedAim=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[16].gShiftedAim=ITM_CLA; </v>
       </c>
       <c r="I68" t="str">
         <f>"kbd_usr["&amp;$A68&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I21&amp;"; "</f>
@@ -3926,7 +3988,7 @@
 'C43Layout42'!G68&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G68)))&amp;
 'C43Layout42'!H68&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H68)))&amp;
 'C43Layout42'!I68&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I68)))</f>
-        <v xml:space="preserve">    kbd_usr[16].primary=ITM_BACKSPACE;                kbd_usr[16].fShifted=-MNU_CLR;                    kbd_usr[16].gShifted=ITM_UNDO;                    kbd_usr[16].keyLblAim=ITM_BACKSPACE;              kbd_usr[16].primaryAim=ITM_BACKSPACE;             kbd_usr[16].fShiftedAim=ITM_CLA;                  kbd_usr[16].gShiftedAim=ITM_NULL;                 kbd_usr[16].primaryTam=ITM_BACKSPACE;             </v>
+        <v xml:space="preserve">    kbd_usr[16].primary=ITM_BACKSPACE;                kbd_usr[16].fShifted=-MNU_CLR;                    kbd_usr[16].gShifted=ITM_UNDO;                    kbd_usr[16].keyLblAim=ITM_BACKSPACE;              kbd_usr[16].primaryAim=ITM_BACKSPACE;             kbd_usr[16].fShiftedAim=ITM_CLA;                  kbd_usr[16].gShiftedAim=ITM_CLA;                  kbd_usr[16].primaryTam=ITM_BACKSPACE;             </v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4007,7 +4069,7 @@
       </c>
       <c r="H70" t="str">
         <f>"kbd_usr["&amp;$A70&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].gShiftedAim=ITM_PI; </v>
+        <v xml:space="preserve">kbd_usr[18].gShiftedAim=ITM_7; </v>
       </c>
       <c r="I70" t="str">
         <f>"kbd_usr["&amp;$A70&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I24&amp;"; "</f>
@@ -4022,7 +4084,7 @@
 'C43Layout42'!G70&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G70)))&amp;
 'C43Layout42'!H70&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H70)))&amp;
 'C43Layout42'!I70&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I70)))</f>
-        <v xml:space="preserve">    kbd_usr[18].primary=ITM_7;                        kbd_usr[18].fShifted=-MNU_EQN;                    kbd_usr[18].gShifted=-MNU_INFO;                   kbd_usr[18].keyLblAim=ITM_7;                      kbd_usr[18].primaryAim=ITM_P;                     kbd_usr[18].fShiftedAim=ITM_p;                    kbd_usr[18].gShiftedAim=ITM_PI;                   kbd_usr[18].primaryTam=ITM_7;                     </v>
+        <v xml:space="preserve">    kbd_usr[18].primary=ITM_7;                        kbd_usr[18].fShifted=-MNU_EQN;                    kbd_usr[18].gShifted=-MNU_INFO;                   kbd_usr[18].keyLblAim=ITM_7;                      kbd_usr[18].primaryAim=ITM_P;                     kbd_usr[18].fShiftedAim=ITM_p;                    kbd_usr[18].gShiftedAim=ITM_7;                    kbd_usr[18].primaryTam=ITM_7;                     </v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4055,7 +4117,7 @@
       </c>
       <c r="H71" t="str">
         <f>"kbd_usr["&amp;$A71&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H25&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].gShiftedAim=ITM_QOPPA; </v>
+        <v xml:space="preserve">kbd_usr[19].gShiftedAim=ITM_8; </v>
       </c>
       <c r="I71" t="str">
         <f>"kbd_usr["&amp;$A71&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I25&amp;"; "</f>
@@ -4070,7 +4132,7 @@
 'C43Layout42'!G71&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G71)))&amp;
 'C43Layout42'!H71&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H71)))&amp;
 'C43Layout42'!I71&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I71)))</f>
-        <v xml:space="preserve">    kbd_usr[19].primary=ITM_8;                        kbd_usr[19].fShifted=-MNU_ADV;                    kbd_usr[19].gShifted=-MNU_CONST;                  kbd_usr[19].keyLblAim=ITM_8;                      kbd_usr[19].primaryAim=ITM_Q;                     kbd_usr[19].fShiftedAim=ITM_q;                    kbd_usr[19].gShiftedAim=ITM_QOPPA;                kbd_usr[19].primaryTam=ITM_8;                     </v>
+        <v xml:space="preserve">    kbd_usr[19].primary=ITM_8;                        kbd_usr[19].fShifted=-MNU_ADV;                    kbd_usr[19].gShifted=-MNU_CONST;                  kbd_usr[19].keyLblAim=ITM_8;                      kbd_usr[19].primaryAim=ITM_Q;                     kbd_usr[19].fShiftedAim=ITM_q;                    kbd_usr[19].gShiftedAim=ITM_8;                    kbd_usr[19].primaryTam=ITM_8;                     </v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4103,7 +4165,7 @@
       </c>
       <c r="H72" t="str">
         <f>"kbd_usr["&amp;$A72&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H26&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].gShiftedAim=ITM_RHO; </v>
+        <v xml:space="preserve">kbd_usr[20].gShiftedAim=ITM_9; </v>
       </c>
       <c r="I72" t="str">
         <f>"kbd_usr["&amp;$A72&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I26&amp;"; "</f>
@@ -4118,7 +4180,7 @@
 'C43Layout42'!G72&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G72)))&amp;
 'C43Layout42'!H72&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H72)))&amp;
 'C43Layout42'!I72&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I72)))</f>
-        <v xml:space="preserve">    kbd_usr[20].primary=ITM_9;                        kbd_usr[20].fShifted=-MNU_MATX;                   kbd_usr[20].gShifted=-MNU_XFN;                    kbd_usr[20].keyLblAim=ITM_9;                      kbd_usr[20].primaryAim=ITM_R;                     kbd_usr[20].fShiftedAim=ITM_r;                    kbd_usr[20].gShiftedAim=ITM_RHO;                  kbd_usr[20].primaryTam=ITM_9;                     </v>
+        <v xml:space="preserve">    kbd_usr[20].primary=ITM_9;                        kbd_usr[20].fShifted=-MNU_MATX;                   kbd_usr[20].gShifted=-MNU_XFN;                    kbd_usr[20].keyLblAim=ITM_9;                      kbd_usr[20].primaryAim=ITM_R;                     kbd_usr[20].fShiftedAim=ITM_r;                    kbd_usr[20].gShiftedAim=ITM_9;                    kbd_usr[20].primaryTam=ITM_9;                     </v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4151,7 +4213,7 @@
       </c>
       <c r="H73" t="str">
         <f>"kbd_usr["&amp;$A73&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H27&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[21].gShiftedAim=ITM_SIGMA; </v>
+        <v xml:space="preserve">kbd_usr[21].gShiftedAim=ITM_OBELUS; </v>
       </c>
       <c r="I73" t="str">
         <f>"kbd_usr["&amp;$A73&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I27&amp;"; "</f>
@@ -4166,7 +4228,7 @@
 'C43Layout42'!G73&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G73)))&amp;
 'C43Layout42'!H73&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H73)))&amp;
 'C43Layout42'!I73&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I73)))</f>
-        <v xml:space="preserve">    kbd_usr[21].primary=ITM_DIV;                      kbd_usr[21].fShifted=-MNU_STAT;                   kbd_usr[21].gShifted=-MNU_SUMS;                   kbd_usr[21].keyLblAim=ITM_OBELUS;                 kbd_usr[21].primaryAim=ITM_S;                     kbd_usr[21].fShiftedAim=ITM_s;                    kbd_usr[21].gShiftedAim=ITM_SIGMA;                kbd_usr[21].primaryTam=ITM_DIV;                   </v>
+        <v xml:space="preserve">    kbd_usr[21].primary=ITM_DIV;                      kbd_usr[21].fShifted=-MNU_STAT;                   kbd_usr[21].gShifted=-MNU_SUMS;                   kbd_usr[21].keyLblAim=ITM_OBELUS;                 kbd_usr[21].primaryAim=ITM_S;                     kbd_usr[21].fShiftedAim=ITM_s;                    kbd_usr[21].gShiftedAim=ITM_OBELUS;               kbd_usr[21].primaryTam=ITM_DIV;                   </v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4247,7 +4309,7 @@
       </c>
       <c r="H75" t="str">
         <f>"kbd_usr["&amp;$A75&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H30&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].gShiftedAim=ITM_TAU; </v>
+        <v xml:space="preserve">kbd_usr[23].gShiftedAim=ITM_4; </v>
       </c>
       <c r="I75" t="str">
         <f>"kbd_usr["&amp;$A75&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I30&amp;"; "</f>
@@ -4262,7 +4324,7 @@
 'C43Layout42'!G75&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G75)))&amp;
 'C43Layout42'!H75&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H75)))&amp;
 'C43Layout42'!I75&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I75)))</f>
-        <v xml:space="preserve">    kbd_usr[23].primary=ITM_4;                        kbd_usr[23].fShifted=-MNU_BASE;                   kbd_usr[23].gShifted=-MNU_FIN;                    kbd_usr[23].keyLblAim=ITM_4;                      kbd_usr[23].primaryAim=ITM_T;                     kbd_usr[23].fShiftedAim=ITM_t;                    kbd_usr[23].gShiftedAim=ITM_TAU;                  kbd_usr[23].primaryTam=ITM_4;                     </v>
+        <v xml:space="preserve">    kbd_usr[23].primary=ITM_4;                        kbd_usr[23].fShifted=-MNU_BASE;                   kbd_usr[23].gShifted=-MNU_FIN;                    kbd_usr[23].keyLblAim=ITM_4;                      kbd_usr[23].primaryAim=ITM_T;                     kbd_usr[23].fShiftedAim=ITM_t;                    kbd_usr[23].gShiftedAim=ITM_4;                    kbd_usr[23].primaryTam=ITM_4;                     </v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4295,7 +4357,7 @@
       </c>
       <c r="H76" t="str">
         <f>"kbd_usr["&amp;$A76&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[24].gShiftedAim=ITM_PHI; </v>
+        <v xml:space="preserve">kbd_usr[24].gShiftedAim=ITM_5; </v>
       </c>
       <c r="I76" t="str">
         <f>"kbd_usr["&amp;$A76&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I31&amp;"; "</f>
@@ -4310,7 +4372,7 @@
 'C43Layout42'!G76&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G76)))&amp;
 'C43Layout42'!H76&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H76)))&amp;
 'C43Layout42'!I76&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I76)))</f>
-        <v xml:space="preserve">    kbd_usr[24].primary=ITM_5;                        kbd_usr[24].fShifted=-MNU_ANGLECONV;              kbd_usr[24].gShifted=-MNU_UNITCONV;               kbd_usr[24].keyLblAim=ITM_5;                      kbd_usr[24].primaryAim=ITM_U;                     kbd_usr[24].fShiftedAim=ITM_u;                    kbd_usr[24].gShiftedAim=ITM_PHI;                  kbd_usr[24].primaryTam=ITM_5;                     </v>
+        <v xml:space="preserve">    kbd_usr[24].primary=ITM_5;                        kbd_usr[24].fShifted=-MNU_ANGLECONV;              kbd_usr[24].gShifted=-MNU_UNITCONV;               kbd_usr[24].keyLblAim=ITM_5;                      kbd_usr[24].primaryAim=ITM_U;                     kbd_usr[24].fShiftedAim=ITM_u;                    kbd_usr[24].gShiftedAim=ITM_5;                    kbd_usr[24].primaryTam=ITM_5;                     </v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4343,7 +4405,7 @@
       </c>
       <c r="H77" t="str">
         <f>"kbd_usr["&amp;$A77&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H32&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].gShiftedAim=ITM_PSI; </v>
+        <v xml:space="preserve">kbd_usr[25].gShiftedAim=ITM_6; </v>
       </c>
       <c r="I77" t="str">
         <f>"kbd_usr["&amp;$A77&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I32&amp;"; "</f>
@@ -4358,7 +4420,7 @@
 'C43Layout42'!G77&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G77)))&amp;
 'C43Layout42'!H77&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H77)))&amp;
 'C43Layout42'!I77&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I77)))</f>
-        <v xml:space="preserve">    kbd_usr[25].primary=ITM_6;                        kbd_usr[25].fShifted=-MNU_FLAGS;                  kbd_usr[25].gShifted=-MNU_BITS;                   kbd_usr[25].keyLblAim=ITM_6;                      kbd_usr[25].primaryAim=ITM_V;                     kbd_usr[25].fShiftedAim=ITM_v;                    kbd_usr[25].gShiftedAim=ITM_PSI;                  kbd_usr[25].primaryTam=ITM_6;                     </v>
+        <v xml:space="preserve">    kbd_usr[25].primary=ITM_6;                        kbd_usr[25].fShifted=-MNU_FLAGS;                  kbd_usr[25].gShifted=-MNU_BITS;                   kbd_usr[25].keyLblAim=ITM_6;                      kbd_usr[25].primaryAim=ITM_V;                     kbd_usr[25].fShiftedAim=ITM_v;                    kbd_usr[25].gShiftedAim=ITM_6;                    kbd_usr[25].primaryTam=ITM_6;                     </v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4391,7 +4453,7 @@
       </c>
       <c r="H78" t="str">
         <f>"kbd_usr["&amp;$A78&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H33&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[26].gShiftedAim=ITM_OMEGA; </v>
+        <v xml:space="preserve">kbd_usr[26].gShiftedAim=ITM_CROSS; </v>
       </c>
       <c r="I78" t="str">
         <f>"kbd_usr["&amp;$A78&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I33&amp;"; "</f>
@@ -4406,7 +4468,7 @@
 'C43Layout42'!G78&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G78)))&amp;
 'C43Layout42'!H78&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H78)))&amp;
 'C43Layout42'!I78&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I78)))</f>
-        <v xml:space="preserve">    kbd_usr[26].primary=ITM_MULT;                     kbd_usr[26].fShifted=-MNU_PROB;                   kbd_usr[26].gShifted=-MNU_INTS;                   kbd_usr[26].keyLblAim=ITM_CROSS;                  kbd_usr[26].primaryAim=ITM_W;                     kbd_usr[26].fShiftedAim=ITM_w;                    kbd_usr[26].gShiftedAim=ITM_OMEGA;                kbd_usr[26].primaryTam=ITM_MULT;                  </v>
+        <v xml:space="preserve">    kbd_usr[26].primary=ITM_MULT;                     kbd_usr[26].fShifted=-MNU_PROB;                   kbd_usr[26].gShifted=-MNU_INTS;                   kbd_usr[26].keyLblAim=ITM_CROSS;                  kbd_usr[26].primaryAim=ITM_W;                     kbd_usr[26].fShiftedAim=ITM_w;                    kbd_usr[26].gShiftedAim=ITM_CROSS;                kbd_usr[26].primaryTam=ITM_MULT;                  </v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4439,7 +4501,7 @@
       </c>
       <c r="H79" t="str">
         <f>"kbd_usr["&amp;$A79&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H35&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[27].gShiftedAim=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[27].gShiftedAim=KEY_fg; </v>
       </c>
       <c r="I79" t="str">
         <f>"kbd_usr["&amp;$A79&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I35&amp;"; "</f>
@@ -4454,7 +4516,7 @@
 'C43Layout42'!G79&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G79)))&amp;
 'C43Layout42'!H79&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H79)))&amp;
 'C43Layout42'!I79&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I79)))</f>
-        <v xml:space="preserve">    kbd_usr[27].primary=KEY_fg;                       kbd_usr[27].fShifted=ITM_NULL;                    kbd_usr[27].gShifted=ITM_NULL;                    kbd_usr[27].keyLblAim=KEY_fg;                     kbd_usr[27].primaryAim=KEY_fg;                    kbd_usr[27].fShiftedAim=ITM_NULL;                 kbd_usr[27].gShiftedAim=ITM_NULL;                 kbd_usr[27].primaryTam=KEY_fg;                    </v>
+        <v xml:space="preserve">    kbd_usr[27].primary=KEY_fg;                       kbd_usr[27].fShifted=ITM_NULL;                    kbd_usr[27].gShifted=ITM_NULL;                    kbd_usr[27].keyLblAim=KEY_fg;                     kbd_usr[27].primaryAim=KEY_fg;                    kbd_usr[27].fShiftedAim=ITM_NULL;                 kbd_usr[27].gShiftedAim=KEY_fg;                   kbd_usr[27].primaryTam=KEY_fg;                    </v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4487,7 +4549,7 @@
       </c>
       <c r="H80" t="str">
         <f>"kbd_usr["&amp;$A80&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H36&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[28].gShiftedAim=ITM_XI; </v>
+        <v xml:space="preserve">kbd_usr[28].gShiftedAim=ITM_1; </v>
       </c>
       <c r="I80" t="str">
         <f>"kbd_usr["&amp;$A80&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I36&amp;"; "</f>
@@ -4502,7 +4564,7 @@
 'C43Layout42'!G80&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G80)))&amp;
 'C43Layout42'!H80&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H80)))&amp;
 'C43Layout42'!I80&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I80)))</f>
-        <v xml:space="preserve">    kbd_usr[28].primary=ITM_1;                        kbd_usr[28].fShifted=ITM_ASSIGN;                  kbd_usr[28].gShifted=-MNU_ASN;                    kbd_usr[28].keyLblAim=ITM_1;                      kbd_usr[28].primaryAim=ITM_X;                     kbd_usr[28].fShiftedAim=ITM_x;                    kbd_usr[28].gShiftedAim=ITM_XI;                   kbd_usr[28].primaryTam=ITM_1;                     </v>
+        <v xml:space="preserve">    kbd_usr[28].primary=ITM_1;                        kbd_usr[28].fShifted=ITM_ASSIGN;                  kbd_usr[28].gShifted=-MNU_ASN;                    kbd_usr[28].keyLblAim=ITM_1;                      kbd_usr[28].primaryAim=ITM_X;                     kbd_usr[28].fShiftedAim=ITM_x;                    kbd_usr[28].gShiftedAim=ITM_1;                    kbd_usr[28].primaryTam=ITM_1;                     </v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4535,7 +4597,7 @@
       </c>
       <c r="H81" t="str">
         <f>"kbd_usr["&amp;$A81&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[29].gShiftedAim=ITM_UPSILON; </v>
+        <v xml:space="preserve">kbd_usr[29].gShiftedAim=ITM_2; </v>
       </c>
       <c r="I81" t="str">
         <f>"kbd_usr["&amp;$A81&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I37&amp;"; "</f>
@@ -4550,7 +4612,7 @@
 'C43Layout42'!G81&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G81)))&amp;
 'C43Layout42'!H81&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H81)))&amp;
 'C43Layout42'!I81&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I81)))</f>
-        <v xml:space="preserve">    kbd_usr[29].primary=ITM_2;                        kbd_usr[29].fShifted=ITM_USERMODE;                kbd_usr[29].gShifted=-MNU_LOOP;                   kbd_usr[29].keyLblAim=ITM_2;                      kbd_usr[29].primaryAim=ITM_Y;                     kbd_usr[29].fShiftedAim=ITM_y;                    kbd_usr[29].gShiftedAim=ITM_UPSILON;              kbd_usr[29].primaryTam=ITM_2;                     </v>
+        <v xml:space="preserve">    kbd_usr[29].primary=ITM_2;                        kbd_usr[29].fShifted=ITM_USERMODE;                kbd_usr[29].gShifted=-MNU_LOOP;                   kbd_usr[29].keyLblAim=ITM_2;                      kbd_usr[29].primaryAim=ITM_Y;                     kbd_usr[29].fShiftedAim=ITM_y;                    kbd_usr[29].gShiftedAim=ITM_2;                    kbd_usr[29].primaryTam=ITM_2;                     </v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4583,7 +4645,7 @@
       </c>
       <c r="H82" t="str">
         <f>"kbd_usr["&amp;$A82&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].gShiftedAim=ITM_ZETA; </v>
+        <v xml:space="preserve">kbd_usr[30].gShiftedAim=ITM_3; </v>
       </c>
       <c r="I82" t="str">
         <f>"kbd_usr["&amp;$A82&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I38&amp;"; "</f>
@@ -4598,7 +4660,7 @@
 'C43Layout42'!G82&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G82)))&amp;
 'C43Layout42'!H82&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H82)))&amp;
 'C43Layout42'!I82&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I82)))</f>
-        <v xml:space="preserve">    kbd_usr[30].primary=ITM_3;                        kbd_usr[30].fShifted=-MNU_PFN;                    kbd_usr[30].gShifted=-MNU_TEST;                   kbd_usr[30].keyLblAim=ITM_3;                      kbd_usr[30].primaryAim=ITM_Z;                     kbd_usr[30].fShiftedAim=ITM_z;                    kbd_usr[30].gShiftedAim=ITM_ZETA;                 kbd_usr[30].primaryTam=ITM_3;                     </v>
+        <v xml:space="preserve">    kbd_usr[30].primary=ITM_3;                        kbd_usr[30].fShifted=-MNU_PFN;                    kbd_usr[30].gShifted=-MNU_TEST;                   kbd_usr[30].keyLblAim=ITM_3;                      kbd_usr[30].primaryAim=ITM_Z;                     kbd_usr[30].fShiftedAim=ITM_z;                    kbd_usr[30].gShiftedAim=ITM_3;                    kbd_usr[30].primaryTam=ITM_3;                     </v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4631,7 +4693,7 @@
       </c>
       <c r="H83" t="str">
         <f>"kbd_usr["&amp;$A83&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H39&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[31].gShiftedAim=ITM_SAMPI; </v>
+        <v xml:space="preserve">kbd_usr[31].gShiftedAim=ITM_MINUS; </v>
       </c>
       <c r="I83" t="str">
         <f>"kbd_usr["&amp;$A83&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I39&amp;"; "</f>
@@ -4646,7 +4708,7 @@
 'C43Layout42'!G83&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G83)))&amp;
 'C43Layout42'!H83&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H83)))&amp;
 'C43Layout42'!I83&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I83)))</f>
-        <v xml:space="preserve">    kbd_usr[31].primary=ITM_SUB;                      kbd_usr[31].fShifted=-MNU_IO;                     kbd_usr[31].gShifted=-MNU_ALPHAFN;                kbd_usr[31].keyLblAim=ITM_MINUS;                  kbd_usr[31].primaryAim=ITM_UNDERSCORE;            kbd_usr[31].fShiftedAim=ITM_MINUS;                kbd_usr[31].gShiftedAim=ITM_SAMPI;                kbd_usr[31].primaryTam=ITM_SUB;                   </v>
+        <v xml:space="preserve">    kbd_usr[31].primary=ITM_SUB;                      kbd_usr[31].fShifted=-MNU_IO;                     kbd_usr[31].gShifted=-MNU_ALPHAFN;                kbd_usr[31].keyLblAim=ITM_MINUS;                  kbd_usr[31].primaryAim=ITM_UNDERSCORE;            kbd_usr[31].fShiftedAim=ITM_MINUS;                kbd_usr[31].gShiftedAim=ITM_MINUS;                kbd_usr[31].primaryTam=ITM_SUB;                   </v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4663,7 +4725,7 @@
       </c>
       <c r="D84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;D$50&amp;"="&amp;'C43Layout42'!D41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].gShifted=-MNU_PRINT; </v>
+        <v xml:space="preserve">kbd_usr[32].gShifted=ITM_PRN; </v>
       </c>
       <c r="E84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;E$50&amp;"="&amp;'C43Layout42'!E41&amp;"; "</f>
@@ -4679,7 +4741,7 @@
       </c>
       <c r="H84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].gShiftedAim=ITM_PRINTER; </v>
+        <v xml:space="preserve">kbd_usr[32].gShiftedAim=ITM_PRN; </v>
       </c>
       <c r="I84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I41&amp;"; "</f>
@@ -4694,7 +4756,7 @@
 'C43Layout42'!G84&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G84)))&amp;
 'C43Layout42'!H84&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H84)))&amp;
 'C43Layout42'!I84&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I84)))</f>
-        <v xml:space="preserve">    kbd_usr[32].primary=ITM_EXIT1;                    kbd_usr[32].fShifted=ITM_OFF;                     kbd_usr[32].gShifted=-MNU_PRINT;                  kbd_usr[32].keyLblAim=ITM_EXIT1;                  kbd_usr[32].primaryAim=ITM_EXIT1;                 kbd_usr[32].fShiftedAim=ITM_OFF;                  kbd_usr[32].gShiftedAim=ITM_PRINTER;              kbd_usr[32].primaryTam=ITM_EXIT1;                 </v>
+        <v xml:space="preserve">    kbd_usr[32].primary=ITM_EXIT1;                    kbd_usr[32].fShifted=ITM_OFF;                     kbd_usr[32].gShifted=ITM_PRN;                     kbd_usr[32].keyLblAim=ITM_EXIT1;                  kbd_usr[32].primaryAim=ITM_EXIT1;                 kbd_usr[32].fShiftedAim=ITM_OFF;                  kbd_usr[32].gShiftedAim=ITM_PRN;                  kbd_usr[32].primaryTam=ITM_EXIT1;                 </v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4727,7 +4789,7 @@
       </c>
       <c r="H85" t="str">
         <f>"kbd_usr["&amp;$A85&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H42&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].gShiftedAim=-MNU_ALPHA; </v>
+        <v xml:space="preserve">kbd_usr[33].gShiftedAim=ITM_0; </v>
       </c>
       <c r="I85" t="str">
         <f>"kbd_usr["&amp;$A85&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I42&amp;"; "</f>
@@ -4742,7 +4804,7 @@
 'C43Layout42'!G85&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G85)))&amp;
 'C43Layout42'!H85&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H85)))&amp;
 'C43Layout42'!I85&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I85)))</f>
-        <v xml:space="preserve">    kbd_usr[33].primary=ITM_0;                        kbd_usr[33].fShifted=-MNU_HOME;                   kbd_usr[33].gShifted=ITM_TIMER;                   kbd_usr[33].keyLblAim=ITM_0;                      kbd_usr[33].primaryAim=ITM_COLON;                 kbd_usr[33].fShiftedAim=ITM_0;                    kbd_usr[33].gShiftedAim=-MNU_ALPHA;               kbd_usr[33].primaryTam=ITM_0;                     </v>
+        <v xml:space="preserve">    kbd_usr[33].primary=ITM_0;                        kbd_usr[33].fShifted=-MNU_HOME;                   kbd_usr[33].gShifted=ITM_TIMER;                   kbd_usr[33].keyLblAim=ITM_0;                      kbd_usr[33].primaryAim=ITM_COLON;                 kbd_usr[33].fShiftedAim=ITM_0;                    kbd_usr[33].gShiftedAim=ITM_0;                    kbd_usr[33].primaryTam=ITM_0;                     </v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4775,7 +4837,7 @@
       </c>
       <c r="H86" t="str">
         <f>"kbd_usr["&amp;$A86&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H43&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[34].gShiftedAim=-MNU_ALPHADOT; </v>
+        <v xml:space="preserve">kbd_usr[34].gShiftedAim=ITM_PERIOD; </v>
       </c>
       <c r="I86" t="str">
         <f>"kbd_usr["&amp;$A86&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I43&amp;"; "</f>
@@ -4790,7 +4852,7 @@
 'C43Layout42'!G86&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G86)))&amp;
 'C43Layout42'!H86&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H86)))&amp;
 'C43Layout42'!I86&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I86)))</f>
-        <v xml:space="preserve">    kbd_usr[34].primary=ITM_PERIOD;                   kbd_usr[34].fShifted=ITM_SHOW;                    kbd_usr[34].gShifted=ITM_VIEW;                    kbd_usr[34].keyLblAim=ITM_PERIOD;                 kbd_usr[34].primaryAim=ITM_COMMA;                 kbd_usr[34].fShiftedAim=ITM_PERIOD;               kbd_usr[34].gShiftedAim=-MNU_ALPHADOT;            kbd_usr[34].primaryTam=ITM_PERIOD;                </v>
+        <v xml:space="preserve">    kbd_usr[34].primary=ITM_PERIOD;                   kbd_usr[34].fShifted=ITM_SHOW;                    kbd_usr[34].gShifted=ITM_VIEW;                    kbd_usr[34].keyLblAim=ITM_PERIOD;                 kbd_usr[34].primaryAim=ITM_COMMA;                 kbd_usr[34].fShiftedAim=ITM_PERIOD;               kbd_usr[34].gShiftedAim=ITM_PERIOD;               kbd_usr[34].primaryTam=ITM_PERIOD;                </v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4823,7 +4885,7 @@
       </c>
       <c r="H87" t="str">
         <f>"kbd_usr["&amp;$A87&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H44&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[35].gShiftedAim=-MNU_ALPHAMATH; </v>
+        <v xml:space="preserve">kbd_usr[35].gShiftedAim=ITM_SLASH; </v>
       </c>
       <c r="I87" t="str">
         <f>"kbd_usr["&amp;$A87&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I44&amp;"; "</f>
@@ -4838,7 +4900,7 @@
 'C43Layout42'!G87&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G87)))&amp;
 'C43Layout42'!H87&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H87)))&amp;
 'C43Layout42'!I87&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I87)))</f>
-        <v xml:space="preserve">    kbd_usr[35].primary=ITM_RS;                       kbd_usr[35].fShifted=ITM_PR;                      kbd_usr[35].gShifted=-MNU_CLK;                    kbd_usr[35].keyLblAim=ITM_NULL;                   kbd_usr[35].primaryAim=ITM_QUESTION_MARK;         kbd_usr[35].fShiftedAim=ITM_SLASH;                kbd_usr[35].gShiftedAim=-MNU_ALPHAMATH;           kbd_usr[35].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">    kbd_usr[35].primary=ITM_RS;                       kbd_usr[35].fShifted=ITM_PR;                      kbd_usr[35].gShifted=-MNU_CLK;                    kbd_usr[35].keyLblAim=ITM_NULL;                   kbd_usr[35].primaryAim=ITM_QUESTION_MARK;         kbd_usr[35].fShiftedAim=ITM_SLASH;                kbd_usr[35].gShiftedAim=ITM_SLASH;                kbd_usr[35].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4871,7 +4933,7 @@
       </c>
       <c r="H88" t="str">
         <f>"kbd_usr["&amp;$A88&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout42'!H45&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[36].gShiftedAim=-MNU_ALPHAINTL; </v>
+        <v xml:space="preserve">kbd_usr[36].gShiftedAim=ITM_PLUS; </v>
       </c>
       <c r="I88" t="str">
         <f>"kbd_usr["&amp;$A88&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout42'!I45&amp;"; "</f>
@@ -4886,17 +4948,17 @@
 'C43Layout42'!G88&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!G88)))&amp;
 'C43Layout42'!H88&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!H88)))&amp;
 'C43Layout42'!I88&amp;REPT(" ",('C43Layout42'!$J$51-LEN('C43Layout42'!I88)))</f>
-        <v xml:space="preserve">    kbd_usr[36].primary=ITM_ADD;                      kbd_usr[36].fShifted=-MNU_CATALOG;                kbd_usr[36].gShifted=-MNU_PARTS;                  kbd_usr[36].keyLblAim=ITM_PLUS;                   kbd_usr[36].primaryAim=ITM_SPACE;                 kbd_usr[36].fShiftedAim=ITM_PLUS;                 kbd_usr[36].gShiftedAim=-MNU_ALPHAINTL;           kbd_usr[36].primaryTam=ITM_ADD;                   </v>
+        <v xml:space="preserve">    kbd_usr[36].primary=ITM_ADD;                      kbd_usr[36].fShifted=-MNU_CATALOG;                kbd_usr[36].gShifted=-MNU_PARTS;                  kbd_usr[36].keyLblAim=ITM_PLUS;                   kbd_usr[36].primaryAim=ITM_SPACE;                 kbd_usr[36].fShiftedAim=ITM_PLUS;                 kbd_usr[36].gShiftedAim=ITM_PLUS;                 kbd_usr[36].primaryTam=ITM_ADD;                   </v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="K89" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="K90" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4912,33 +4974,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="H49" zoomScale="74" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.35546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31">
+    <row r="1" spans="1:11" ht="30.9">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J1">
         <v>17</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -5001,17 +5063,16 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="17" t="str">
-        <f>MID(F3,1,4)&amp;CHAR(32+CODE(MID(F3,5,1)))</f>
-        <v>ITM_a</v>
+        <v>138</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K3" s="15" t="str">
         <f>IF(A3="","","      "&amp;
@@ -5026,7 +5087,7 @@
 'C43Layout1'!I3&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I3)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {21,   ITM_SIGMAPLUS,     ITM_RI,            ITM_TGLFRT,        ITM_NULL,          ITM_A,             ITM_a,             ITM_ALPHA,         ITM_REG_A          },</v>
+        <v xml:space="preserve">      {21,   ITM_SIGMAPLUS,     ITM_RI,            ITM_TGLFRT,        ITM_NULL,          ITM_A,             ITM_a,             ITM_SIGMA,         ITM_REG_A          },</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5040,23 +5101,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="17" t="str">
-        <f t="shared" ref="G4:G8" si="0">MID(F4,1,4)&amp;CHAR(32+CODE(MID(F4,5,1)))</f>
-        <v>ITM_b</v>
+      <c r="G4" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K4" s="15" t="str">
         <f>IF(A4="","","      "&amp;
@@ -5071,7 +5131,7 @@
 'C43Layout1'!I4&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I4)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {22,   ITM_1ONX,          ITM_YX,            ITM_HASH_JM,       ITM_NUMBER_SIGN,   ITM_B,             ITM_b,             ITM_BETA,          ITM_REG_B          },</v>
+        <v xml:space="preserve">      {22,   ITM_1ONX,          ITM_YX,            ITM_HASH_JM,       ITM_NUMBER_SIGN,   ITM_B,             ITM_b,             ITM_CIRCUMFLEX,    ITM_REG_B          },</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5088,20 +5148,19 @@
         <v>89</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>ITM_c</v>
+      <c r="G5" s="17" t="s">
+        <v>317</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K5" s="15" t="str">
         <f>IF(A5="","","      "&amp;
@@ -5116,7 +5175,7 @@
 'C43Layout1'!I5&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I5)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {23,   ITM_SQUAREROOTX,   ITM_SQUARE,        ITM_ms,            ITM_CHECK_MARK,    ITM_C,             ITM_c,             ITM_CHI,           ITM_REG_C          },</v>
+        <v xml:space="preserve">      {23,   ITM_SQUAREROOTX,   ITM_SQUARE,        ITM_ms,            ITM_ROOT_SIGN,     ITM_C,             ITM_c,             ITM_ROOT_SIGN,     ITM_REG_C          },</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5130,23 +5189,22 @@
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>ITM_d</v>
+        <v>148</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>150</v>
+        <v>319</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K6" s="15" t="str">
         <f>IF(A6="","","      "&amp;
@@ -5161,7 +5219,7 @@
 'C43Layout1'!I6&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I6)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {24,   ITM_LOG10,         ITM_10x,           ITM_dotD,          ITM_NULL,          ITM_D,             ITM_d,             ITM_DELTA,         ITM_REG_D          },</v>
+        <v xml:space="preserve">      {24,   ITM_LOG10,         ITM_10x,           ITM_dotD,          ITM_NULL,          ITM_D,             ITM_d,             ITM_LG_SIGN,       ITM_REG_D          },</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5172,7 +5230,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>92</v>
@@ -5181,17 +5239,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>ITM_e</v>
+        <v>151</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>320</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="K7" s="15" t="str">
         <f>IF(A7="","","      "&amp;
@@ -5206,7 +5263,7 @@
 'C43Layout1'!I7&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I7)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {25,   ITM_LN,            ITM_EXP,           ITM_toREC2,        ITM_NULL,          ITM_E,             ITM_e,             ITM_EPSILON,       ITM_NULL           },</v>
+        <v xml:space="preserve">      {25,   ITM_LN,            ITM_EXP,           ITM_toREC2,        ITM_NULL,          ITM_E,             ITM_e,             ITM_LN_SIGN,       ITM_E              },</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5226,17 +5283,16 @@
         <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>ITM_f</v>
+        <v>153</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K8" s="15" t="str">
         <f>IF(A8="","","      "&amp;
@@ -5251,7 +5307,7 @@
 'C43Layout1'!I8&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I8)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {26,   ITM_XEQ,           ITM_AIM,           ITM_toPOL2,        ITM_NULL,          ITM_F,             ITM_f,             ITM_DIGAMMA,       ITM_alpha          },</v>
+        <v xml:space="preserve">      {26,   ITM_XEQ,           ITM_AIM,           ITM_toPOL2,        ITM_NULL,          ITM_F,             ITM_f,             ITM_alpha,         ITM_alpha          },</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5297,14 +5353,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="17" t="str">
-        <f t="shared" ref="G10:G15" si="1">MID(F10,1,4)&amp;CHAR(32+CODE(MID(F10,5,1)))</f>
-        <v>ITM_g</v>
+        <v>154</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>10</v>
@@ -5322,7 +5377,7 @@
 'C43Layout1'!I10&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I10)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {31,   ITM_STO,           ITM_MAGNITUDE,     ITM_ANGLE,         ITM_NULL,          ITM_G,             ITM_g,             ITM_GAMMA,         ITM_NULL           },</v>
+        <v xml:space="preserve">      {31,   ITM_STO,           ITM_MAGNITUDE,     ITM_ANGLE,         ITM_NULL,          ITM_G,             ITM_g,             ITM_VERTICAL_BAR,  ITM_NULL           },</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5342,14 +5397,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>ITM_h</v>
+        <v>156</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>325</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>24</v>
@@ -5367,7 +5421,7 @@
 'C43Layout1'!I11&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I11)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {32,   ITM_RCL,           ITM_PC,            ITM_DELTAPC,       ITM_NULL,          ITM_H,             ITM_h,             ITM_ETA,           ITM_HEX            },</v>
+        <v xml:space="preserve">      {32,   ITM_RCL,           ITM_PC,            ITM_DELTAPC,       ITM_NULL,          ITM_H,             ITM_h,             ITM_DELTA,         ITM_HEX            },</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5378,7 +5432,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>94</v>
@@ -5387,17 +5441,16 @@
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>ITM_i</v>
+        <v>159</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>326</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K12" s="15" t="str">
         <f>IF(A12="","","      "&amp;
@@ -5412,7 +5465,7 @@
 'C43Layout1'!I12&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I12)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {33,   ITM_Rdown,         ITM_CONSTpi,       ITM_XTHROOT,       ITM_NULL,          ITM_I,             ITM_i,             ITM_IOTA,          ITM_REG_I          },</v>
+        <v xml:space="preserve">      {33,   ITM_Rdown,         ITM_CONSTpi,       ITM_XTHROOT,       ITM_NULL,          ITM_I,             ITM_i,             ITM_pi,            ITM_REG_I          },</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5432,17 +5485,16 @@
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>ITM_j</v>
+        <v>162</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>328</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K13" s="15" t="str">
         <f>IF(A13="","","      "&amp;
@@ -5457,7 +5509,7 @@
 'C43Layout1'!I13&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I13)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {34,   ITM_sin,           ITM_arcsin,        ITM_GTO,           ITM_NULL,          ITM_J,             ITM_j,             ITM_THETA,         ITM_REG_J          },</v>
+        <v xml:space="preserve">      {34,   ITM_sin,           ITM_arcsin,        ITM_GTO,           ITM_NULL,          ITM_J,             ITM_j,             ITM_NULL,          ITM_REG_J          },</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5477,19 +5529,18 @@
         <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>ITM_k</v>
+        <v>164</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>329</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="K14" s="15" t="str">
+        <v>237</v>
+      </c>
+      <c r="K14" s="15" t="e">
         <f>IF(A14="","","      "&amp;
 'C43Layout1'!A14&amp;",   "&amp;
 'C43Layout1'!B14&amp;", "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!B14)))&amp;
@@ -5502,7 +5553,7 @@
 'C43Layout1'!I14&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I14)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {35,   ITM_cos,           ITM_arccos,        ITM_LBL,           ITM_NULL,          ITM_K,             ITM_k,             ITM_KAPPA,         ITM_REG_K          },</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5522,19 +5573,18 @@
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>ITM_l</v>
+        <v>166</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K15" s="15" t="str">
+        <v>238</v>
+      </c>
+      <c r="K15" s="15" t="e">
         <f>IF(A15="","","      "&amp;
 'C43Layout1'!A15&amp;",   "&amp;
 'C43Layout1'!B15&amp;", "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!B15)))&amp;
@@ -5547,7 +5597,7 @@
 'C43Layout1'!I15&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I15)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {36,   ITM_tan,           ITM_arctan,        ITM_RTN,           ITM_NULL,          ITM_L,             ITM_l,             ITM_LAMBDA,        ITM_REG_L          },</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5596,10 +5646,10 @@
         <v>29</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>29</v>
@@ -5617,7 +5667,7 @@
 'C43Layout1'!I17&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I17)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {41,   ITM_ENTER,         KEY_COMPLEX,       -MNU_CPX,          ITM_ENTER,         ITM_ENTER,         ITM_XEDIT,         ITM_NULL,          ITM_ENTER          },</v>
+        <v xml:space="preserve">      {41,   ITM_ENTER,         KEY_COMPLEX,       -MNU_CPX,          ITM_ENTER,         ITM_ENTER,         ITM_XEDIT,         ITM_XEDIT,         ITM_ENTER          },</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5634,17 +5684,16 @@
         <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="17" t="str">
-        <f t="shared" ref="G18:G20" si="2">MID(F18,1,4)&amp;CHAR(32+CODE(MID(F18,5,1)))</f>
-        <v>ITM_m</v>
+        <v>169</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>10</v>
@@ -5662,7 +5711,7 @@
 'C43Layout1'!I18&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I18)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {42,   ITM_XexY,          ITM_LASTX,         ITM_Rup,           ITM_ex,            ITM_M,             ITM_m,             ITM_MU,            ITM_NULL           },</v>
+        <v xml:space="preserve">      {42,   ITM_XexY,          ITM_LASTX,         ITM_Rup,           ITM_ex,            ITM_M,             ITM_m,             ITM_ex,            ITM_NULL           },</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5679,17 +5728,16 @@
         <v>52</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>ITM_n</v>
+        <v>172</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>334</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>10</v>
@@ -5707,7 +5755,7 @@
 'C43Layout1'!I19&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I19)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {43,   ITM_CHS,           -MNU_MODE,         -MNU_STK,          ITM_PLUS_MINUS,    ITM_N,             ITM_n,             ITM_NU,            ITM_NULL           },</v>
+        <v xml:space="preserve">      {43,   ITM_CHS,           -MNU_MODE,         -MNU_STK,          ITM_PLUS_MINUS,    ITM_N,             ITM_n,             ITM_PLUS_MINUS,    ITM_NULL           },</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5718,7 +5766,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>50</v>
@@ -5727,14 +5775,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>ITM_o</v>
+        <v>174</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>335</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>10</v>
@@ -5752,7 +5799,7 @@
 'C43Layout1'!I20&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I20)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {44,   ITM_EXPONENT,      -MNU_DSP,          -MNU_EXP,          ITM_NULL,          ITM_O,             ITM_o,             ITM_OMICRON,       ITM_NULL           },</v>
+        <v xml:space="preserve">      {44,   ITM_EXPONENT,      -MNU_DISP,         -MNU_EXP,          ITM_NULL,          ITM_O,             ITM_o,             ITM_NULL,          ITM_NULL           },</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5760,28 +5807,28 @@
         <v>116</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K21" s="15" t="str">
         <f>IF(A21="","","      "&amp;
@@ -5796,7 +5843,7 @@
 'C43Layout1'!I21&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I21)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {45,   ITM_BACKSPACE,     ITM_UNDO,          -MNU_CLR,          ITM_BACKSPACE,     ITM_BACKSPACE,     ITM_CLA,           ITM_NULL,          ITM_BACKSPACE      },</v>
+        <v xml:space="preserve">      {45,   ITM_BACKSPACE,     ITM_UNDO,          -MNU_CLR,          ITM_BACKSPACE,     ITM_BACKSPACE,     ITM_CLA,           ITM_CLA,           ITM_BACKSPACE      },</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5830,28 +5877,28 @@
         <v>117</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K23" s="15" t="str">
         <f>IF(A23="","","      "&amp;
@@ -5871,10 +5918,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>67</v>
@@ -5883,20 +5930,19 @@
         <v>82</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" s="17" t="str">
-        <f t="shared" ref="G24:G27" si="3">MID(F24,1,4)&amp;CHAR(32+CODE(MID(F24,5,1)))</f>
-        <v>ITM_p</v>
+        <v>182</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>336</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K24" s="15" t="str">
         <f>IF(A24="","","      "&amp;
@@ -5911,15 +5957,15 @@
 'C43Layout1'!I24&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I24)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {52,   ITM_7,             -MNU_EQN,          -MNU_HOME,         ITM_7,             ITM_P,             ITM_p,             ITM_PI,            ITM_7              },</v>
+        <v xml:space="preserve">      {52,   ITM_7,             -MNU_EQN,          -MNU_HOME,         ITM_7,             ITM_P,             ITM_p,             ITM_7,             ITM_7              },</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>66</v>
@@ -5928,20 +5974,19 @@
         <v>56</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>ITM_q</v>
+        <v>185</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K25" s="15" t="str">
         <f>IF(A25="","","      "&amp;
@@ -5956,15 +6001,15 @@
 'C43Layout1'!I25&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I25)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {53,   ITM_8,             -MNU_ADV,          -MNU_CONST,        ITM_8,             ITM_Q,             ITM_q,             ITM_QOPPA,         ITM_8              },</v>
+        <v xml:space="preserve">      {53,   ITM_8,             -MNU_ADV,          -MNU_CONST,        ITM_8,             ITM_Q,             ITM_q,             ITM_8,             ITM_8              },</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>68</v>
@@ -5973,20 +6018,19 @@
         <v>69</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>ITM_r</v>
+        <v>187</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>338</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K26" s="15" t="str">
         <f>IF(A26="","","      "&amp;
@@ -6001,12 +6045,12 @@
 'C43Layout1'!I26&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I26)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {54,   ITM_9,             -MNU_MATX,         -MNU_XFN,          ITM_9,             ITM_R,             ITM_r,             ITM_RHO,           ITM_9              },</v>
+        <v xml:space="preserve">      {54,   ITM_9,             -MNU_MATX,         -MNU_XFN,          ITM_9,             ITM_R,             ITM_r,             ITM_9,             ITM_9              },</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>35</v>
@@ -6018,17 +6062,16 @@
         <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>ITM_s</v>
+        <v>190</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>339</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>35</v>
@@ -6046,7 +6089,7 @@
 'C43Layout1'!I27&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I27)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {55,   ITM_DIV,           -MNU_STAT,         -MNU_SUMS,         ITM_OBELUS,        ITM_S,             ITM_s,             ITM_SIGMA,         ITM_DIV            },</v>
+        <v xml:space="preserve">      {55,   ITM_DIV,           -MNU_STAT,         -MNU_SUMS,         ITM_OBELUS,        ITM_S,             ITM_s,             ITM_OBELUS,        ITM_DIV            },</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6077,31 +6120,31 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K29" s="15" t="str">
         <f>IF(A29="","","      "&amp;
@@ -6121,10 +6164,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>114</v>
@@ -6133,20 +6176,19 @@
         <v>70</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="17" t="str">
-        <f t="shared" ref="G30:G32" si="4">MID(F30,1,4)&amp;CHAR(32+CODE(MID(F30,5,1)))</f>
-        <v>ITM_t</v>
+        <v>196</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K30" s="15" t="str">
         <f>IF(A30="","","      "&amp;
@@ -6161,15 +6203,15 @@
 'C43Layout1'!I30&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I30)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {62,   ITM_4,             -MNU_BASE,         -MNU_CLK,          ITM_4,             ITM_T,             ITM_t,             ITM_TAU,           ITM_4              },</v>
+        <v xml:space="preserve">      {62,   ITM_4,             -MNU_BASE,         -MNU_CLK,          ITM_4,             ITM_T,             ITM_t,             ITM_4,             ITM_4              },</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>61</v>
@@ -6178,20 +6220,19 @@
         <v>60</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>ITM_u</v>
+        <v>199</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>341</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K31" s="15" t="str">
         <f>IF(A31="","","      "&amp;
@@ -6206,15 +6247,15 @@
 'C43Layout1'!I31&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I31)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {63,   ITM_5,             -MNU_ANGLECONV,    -MNU_UNITCONV,     ITM_5,             ITM_U,             ITM_u,             ITM_PHI,           ITM_5              },</v>
+        <v xml:space="preserve">      {63,   ITM_5,             -MNU_ANGLECONV,    -MNU_UNITCONV,     ITM_5,             ITM_U,             ITM_u,             ITM_5,             ITM_5              },</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>62</v>
@@ -6223,20 +6264,19 @@
         <v>63</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G32" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>ITM_v</v>
+        <v>202</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K32" s="15" t="str">
         <f>IF(A32="","","      "&amp;
@@ -6251,12 +6291,12 @@
 'C43Layout1'!I32&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I32)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {64,   ITM_6,             -MNU_FLAGS,        -MNU_BITS,         ITM_6,             ITM_V,             ITM_v,             ITM_PSI,           ITM_6              },</v>
+        <v xml:space="preserve">      {64,   ITM_6,             -MNU_FLAGS,        -MNU_BITS,         ITM_6,             ITM_V,             ITM_v,             ITM_6,             ITM_6              },</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>40</v>
@@ -6268,17 +6308,16 @@
         <v>64</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="17" t="str">
-        <f>MID(F33,1,4)&amp;CHAR(32+CODE(MID(F33,5,1)))</f>
-        <v>ITM_w</v>
+        <v>205</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>343</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>40</v>
@@ -6296,7 +6335,7 @@
 'C43Layout1'!I33&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I33)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {65,   ITM_MULT,          -MNU_PROB,         -MNU_INTS,         ITM_CROSS,         ITM_W,             ITM_w,             ITM_OMEGA,         ITM_MULT           },</v>
+        <v xml:space="preserve">      {65,   ITM_MULT,          -MNU_PROB,         -MNU_INTS,         ITM_CROSS,         ITM_W,             ITM_w,             ITM_CROSS,         ITM_MULT           },</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6327,7 +6366,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>83</v>
@@ -6348,7 +6387,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>83</v>
@@ -6366,15 +6405,15 @@
 'C43Layout1'!I35&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I35)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {71,   KEY_fg,            ITM_NULL,          ITM_NULL,          KEY_fg,            KEY_fg,            ITM_NULL,          ITM_NULL,          KEY_fg             },</v>
+        <v xml:space="preserve">      {71,   KEY_fg,            ITM_NULL,          ITM_NULL,          KEY_fg,            KEY_fg,            ITM_NULL,          KEY_fg,            KEY_fg             },</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>20</v>
@@ -6383,20 +6422,19 @@
         <v>81</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" s="17" t="str">
-        <f t="shared" ref="G36:G38" si="5">MID(F36,1,4)&amp;CHAR(32+CODE(MID(F36,5,1)))</f>
-        <v>ITM_x</v>
+        <v>208</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K36" s="15" t="str">
         <f>IF(A36="","","      "&amp;
@@ -6411,37 +6449,36 @@
 'C43Layout1'!I36&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I36)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {72,   ITM_1,             ITM_ASSIGN,        -MNU_ASN,          ITM_1,             ITM_X,             ITM_x,             ITM_XI,            ITM_1              },</v>
+        <v xml:space="preserve">      {72,   ITM_1,             ITM_ASSIGN,        -MNU_ASN,          ITM_1,             ITM_X,             ITM_x,             ITM_1,             ITM_1              },</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G37" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>ITM_y</v>
+        <v>212</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>345</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K37" s="15" t="str">
         <f>IF(A37="","","      "&amp;
@@ -6456,15 +6493,15 @@
 'C43Layout1'!I37&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I37)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {73,   ITM_2,             ITM_USERMODE,      -MNU_LOOP,         ITM_2,             ITM_Y,             ITM_y,             ITM_UPSILON,       ITM_2              },</v>
+        <v xml:space="preserve">      {73,   ITM_2,             ITM_USERMODE,      -MNU_LOOP,         ITM_2,             ITM_Y,             ITM_y,             ITM_2,             ITM_2              },</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>76</v>
@@ -6473,20 +6510,19 @@
         <v>75</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G38" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>ITM_z</v>
+        <v>215</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K38" s="15" t="str">
         <f>IF(A38="","","      "&amp;
@@ -6501,12 +6537,12 @@
 'C43Layout1'!I38&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I38)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {74,   ITM_3,             -MNU_PARTS,        -MNU_TEST,         ITM_3,             ITM_Z,             ITM_z,             ITM_ZETA,          ITM_3              },</v>
+        <v xml:space="preserve">      {74,   ITM_3,             -MNU_PARTS,        -MNU_TEST,         ITM_3,             ITM_Z,             ITM_z,             ITM_3,             ITM_3              },</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>41</v>
@@ -6518,16 +6554,16 @@
         <v>48</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>41</v>
@@ -6545,7 +6581,7 @@
 'C43Layout1'!I39&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I39)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {75,   ITM_SUB,           -MNU_FIN,          -MNU_ALPHAFN,      ITM_MINUS,         ITM_UNDERSCORE,    ITM_MINUS,         ITM_SAMPI,         ITM_SUB            },</v>
+        <v xml:space="preserve">      {75,   ITM_SUB,           -MNU_FIN,          -MNU_ALPHAFN,      ITM_MINUS,         ITM_UNDERSCORE,    ITM_MINUS,         ITM_MINUS,         ITM_SUB            },</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6576,31 +6612,31 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K41" s="15" t="str">
         <f>IF(A41="","","      "&amp;
@@ -6615,15 +6651,15 @@
 'C43Layout1'!I41&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I41)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {81,   ITM_EXIT1,         ITM_OFF,           -MNU_PRINT,        ITM_EXIT1,         ITM_EXIT1,         ITM_OFF,           ITM_PRINTER,       ITM_EXIT1          },</v>
+        <v xml:space="preserve">      {81,   ITM_EXIT1,         ITM_OFF,           ITM_PRN,           ITM_EXIT1,         ITM_EXIT1,         ITM_OFF,           ITM_PRN,           ITM_EXIT1          },</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>23</v>
@@ -6632,19 +6668,19 @@
         <v>42</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K42" s="15" t="str">
         <f>IF(A42="","","      "&amp;
@@ -6659,15 +6695,15 @@
 'C43Layout1'!I42&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I42)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {82,   ITM_0,             ITM_VIEW,          ITM_TIMER,         ITM_0,             ITM_COLON,         ITM_0,             -MNU_ALPHA,        ITM_0              },</v>
+        <v xml:space="preserve">      {82,   ITM_0,             ITM_VIEW,          ITM_TIMER,         ITM_0,             ITM_COLON,         ITM_0,             ITM_0,             ITM_0              },</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
@@ -6676,19 +6712,19 @@
         <v>77</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K43" s="15" t="str">
         <f>IF(A43="","","      "&amp;
@@ -6703,12 +6739,12 @@
 'C43Layout1'!I43&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I43)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {83,   ITM_PERIOD,        ITM_SHOW,          -MNU_INFO,         ITM_PERIOD,        ITM_COMMA,         ITM_PERIOD,        -MNU_ALPHADOT,     ITM_PERIOD         },</v>
+        <v xml:space="preserve">      {83,   ITM_PERIOD,        ITM_SHOW,          -MNU_INFO,         ITM_PERIOD,        ITM_COMMA,         ITM_PERIOD,        ITM_PERIOD,        ITM_PERIOD         },</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>44</v>
@@ -6723,13 +6759,13 @@
         <v>10</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>10</v>
@@ -6747,12 +6783,12 @@
 'C43Layout1'!I44&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I44)))&amp;
 "},"
 )</f>
-        <v xml:space="preserve">      {84,   ITM_RS,            ITM_PR,            -MNU_PFN,          ITM_NULL,          ITM_QUESTION_MARK, ITM_SLASH,         -MNU_ALPHAMATH,    ITM_NULL           },</v>
+        <v xml:space="preserve">      {84,   ITM_RS,            ITM_PR,            -MNU_PFN,          ITM_NULL,          ITM_QUESTION_MARK, ITM_SLASH,         ITM_SLASH,         ITM_NULL           },</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>43</v>
@@ -6764,16 +6800,16 @@
         <v>72</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>43</v>
@@ -6791,7 +6827,7 @@
 'C43Layout1'!I45&amp;"  "&amp;REPT(" ",('C43Layout1'!$J$1-LEN('C43Layout1'!I45)))&amp;
 "}"
 )</f>
-        <v xml:space="preserve">      {85,   ITM_ADD,           -MNU_CATALOG,      -MNU_IO,           ITM_PLUS,          ITM_SPACE,         ITM_PLUS,          -MNU_ALPHAINTL,    ITM_ADD            }</v>
+        <v xml:space="preserve">      {85,   ITM_ADD,           -MNU_CATALOG,      -MNU_IO,           ITM_PLUS,          ITM_SPACE,         ITM_PLUS,          ITM_PLUS,          ITM_ADD            }</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6802,10 +6838,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="K47" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="17" customHeight="1"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="17.05" customHeight="1"/>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>47</v>
@@ -6843,10 +6879,10 @@
         <v>primaryTam</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="31">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30.9">
       <c r="A51" s="1" t="str">
         <f>A1</f>
         <v>LAYOUT1</v>
@@ -6855,7 +6891,7 @@
         <v>50</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -6888,7 +6924,7 @@
       </c>
       <c r="H52" t="str">
         <f>"kbd_usr["&amp;$A52&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[0].gShiftedAim=ITM_ALPHA; </v>
+        <v xml:space="preserve">kbd_usr[0].gShiftedAim=ITM_SIGMA; </v>
       </c>
       <c r="I52" t="str">
         <f>"kbd_usr["&amp;$A52&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I3&amp;"; "</f>
@@ -6903,7 +6939,7 @@
 'C43Layout1'!G52&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G52)))&amp;
 'C43Layout1'!H52&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H52)))&amp;
 'C43Layout1'!I52&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I52)))</f>
-        <v xml:space="preserve">    kbd_usr[0].primary=ITM_SIGMAPLUS;                 kbd_usr[0].fShifted=ITM_RI;                       kbd_usr[0].gShifted=ITM_TGLFRT;                   kbd_usr[0].keyLblAim=ITM_NULL;                    kbd_usr[0].primaryAim=ITM_A;                      kbd_usr[0].fShiftedAim=ITM_a;                     kbd_usr[0].gShiftedAim=ITM_ALPHA;                 kbd_usr[0].primaryTam=ITM_REG_A;                  </v>
+        <v xml:space="preserve">    kbd_usr[0].primary=ITM_SIGMAPLUS;                 kbd_usr[0].fShifted=ITM_RI;                       kbd_usr[0].gShifted=ITM_TGLFRT;                   kbd_usr[0].keyLblAim=ITM_NULL;                    kbd_usr[0].primaryAim=ITM_A;                      kbd_usr[0].fShiftedAim=ITM_a;                     kbd_usr[0].gShiftedAim=ITM_SIGMA;                 kbd_usr[0].primaryTam=ITM_REG_A;                  </v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -6936,7 +6972,7 @@
       </c>
       <c r="H53" t="str">
         <f>"kbd_usr["&amp;$A53&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H4&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].gShiftedAim=ITM_BETA; </v>
+        <v xml:space="preserve">kbd_usr[1].gShiftedAim=ITM_CIRCUMFLEX; </v>
       </c>
       <c r="I53" t="str">
         <f>"kbd_usr["&amp;$A53&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I4&amp;"; "</f>
@@ -6951,7 +6987,7 @@
 'C43Layout1'!G53&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G53)))&amp;
 'C43Layout1'!H53&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H53)))&amp;
 'C43Layout1'!I53&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I53)))</f>
-        <v xml:space="preserve">    kbd_usr[1].primary=ITM_1ONX;                      kbd_usr[1].fShifted=ITM_YX;                       kbd_usr[1].gShifted=ITM_HASH_JM;                  kbd_usr[1].keyLblAim=ITM_NUMBER_SIGN;             kbd_usr[1].primaryAim=ITM_B;                      kbd_usr[1].fShiftedAim=ITM_b;                     kbd_usr[1].gShiftedAim=ITM_BETA;                  kbd_usr[1].primaryTam=ITM_REG_B;                  </v>
+        <v xml:space="preserve">    kbd_usr[1].primary=ITM_1ONX;                      kbd_usr[1].fShifted=ITM_YX;                       kbd_usr[1].gShifted=ITM_HASH_JM;                  kbd_usr[1].keyLblAim=ITM_NUMBER_SIGN;             kbd_usr[1].primaryAim=ITM_B;                      kbd_usr[1].fShiftedAim=ITM_b;                     kbd_usr[1].gShiftedAim=ITM_CIRCUMFLEX;            kbd_usr[1].primaryTam=ITM_REG_B;                  </v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -6972,7 +7008,7 @@
       </c>
       <c r="E54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;E$50&amp;"="&amp;'C43Layout1'!E5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].keyLblAim=ITM_CHECK_MARK; </v>
+        <v xml:space="preserve">kbd_usr[2].keyLblAim=ITM_ROOT_SIGN; </v>
       </c>
       <c r="F54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;F$50&amp;"="&amp;'C43Layout1'!F5&amp;"; "</f>
@@ -6984,7 +7020,7 @@
       </c>
       <c r="H54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].gShiftedAim=ITM_CHI; </v>
+        <v xml:space="preserve">kbd_usr[2].gShiftedAim=ITM_ROOT_SIGN; </v>
       </c>
       <c r="I54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I5&amp;"; "</f>
@@ -6999,7 +7035,7 @@
 'C43Layout1'!G54&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G54)))&amp;
 'C43Layout1'!H54&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H54)))&amp;
 'C43Layout1'!I54&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I54)))</f>
-        <v xml:space="preserve">    kbd_usr[2].primary=ITM_SQUAREROOTX;               kbd_usr[2].fShifted=ITM_SQUARE;                   kbd_usr[2].gShifted=ITM_ms;                       kbd_usr[2].keyLblAim=ITM_CHECK_MARK;              kbd_usr[2].primaryAim=ITM_C;                      kbd_usr[2].fShiftedAim=ITM_c;                     kbd_usr[2].gShiftedAim=ITM_CHI;                   kbd_usr[2].primaryTam=ITM_REG_C;                  </v>
+        <v xml:space="preserve">    kbd_usr[2].primary=ITM_SQUAREROOTX;               kbd_usr[2].fShifted=ITM_SQUARE;                   kbd_usr[2].gShifted=ITM_ms;                       kbd_usr[2].keyLblAim=ITM_ROOT_SIGN;               kbd_usr[2].primaryAim=ITM_C;                      kbd_usr[2].fShiftedAim=ITM_c;                     kbd_usr[2].gShiftedAim=ITM_ROOT_SIGN;             kbd_usr[2].primaryTam=ITM_REG_C;                  </v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7032,7 +7068,7 @@
       </c>
       <c r="H55" t="str">
         <f>"kbd_usr["&amp;$A55&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H6&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[3].gShiftedAim=ITM_DELTA; </v>
+        <v xml:space="preserve">kbd_usr[3].gShiftedAim=ITM_LG_SIGN; </v>
       </c>
       <c r="I55" t="str">
         <f>"kbd_usr["&amp;$A55&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I6&amp;"; "</f>
@@ -7047,7 +7083,7 @@
 'C43Layout1'!G55&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G55)))&amp;
 'C43Layout1'!H55&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H55)))&amp;
 'C43Layout1'!I55&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I55)))</f>
-        <v xml:space="preserve">    kbd_usr[3].primary=ITM_LOG10;                     kbd_usr[3].fShifted=ITM_10x;                      kbd_usr[3].gShifted=ITM_dotD;                     kbd_usr[3].keyLblAim=ITM_NULL;                    kbd_usr[3].primaryAim=ITM_D;                      kbd_usr[3].fShiftedAim=ITM_d;                     kbd_usr[3].gShiftedAim=ITM_DELTA;                 kbd_usr[3].primaryTam=ITM_REG_D;                  </v>
+        <v xml:space="preserve">    kbd_usr[3].primary=ITM_LOG10;                     kbd_usr[3].fShifted=ITM_10x;                      kbd_usr[3].gShifted=ITM_dotD;                     kbd_usr[3].keyLblAim=ITM_NULL;                    kbd_usr[3].primaryAim=ITM_D;                      kbd_usr[3].fShiftedAim=ITM_d;                     kbd_usr[3].gShiftedAim=ITM_LG_SIGN;               kbd_usr[3].primaryTam=ITM_REG_D;                  </v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7080,11 +7116,11 @@
       </c>
       <c r="H56" t="str">
         <f>"kbd_usr["&amp;$A56&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[4].gShiftedAim=ITM_EPSILON; </v>
+        <v xml:space="preserve">kbd_usr[4].gShiftedAim=ITM_LN_SIGN; </v>
       </c>
       <c r="I56" t="str">
         <f>"kbd_usr["&amp;$A56&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[4].primaryTam=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[4].primaryTam=ITM_E; </v>
       </c>
       <c r="K56" s="16" t="str">
         <f>"    "&amp;'C43Layout1'!B56&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!B56)))&amp;
@@ -7095,7 +7131,7 @@
 'C43Layout1'!G56&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G56)))&amp;
 'C43Layout1'!H56&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H56)))&amp;
 'C43Layout1'!I56&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I56)))</f>
-        <v xml:space="preserve">    kbd_usr[4].primary=ITM_LN;                        kbd_usr[4].fShifted=ITM_EXP;                      kbd_usr[4].gShifted=ITM_toREC2;                   kbd_usr[4].keyLblAim=ITM_NULL;                    kbd_usr[4].primaryAim=ITM_E;                      kbd_usr[4].fShiftedAim=ITM_e;                     kbd_usr[4].gShiftedAim=ITM_EPSILON;               kbd_usr[4].primaryTam=ITM_NULL;                   </v>
+        <v xml:space="preserve">    kbd_usr[4].primary=ITM_LN;                        kbd_usr[4].fShifted=ITM_EXP;                      kbd_usr[4].gShifted=ITM_toREC2;                   kbd_usr[4].keyLblAim=ITM_NULL;                    kbd_usr[4].primaryAim=ITM_E;                      kbd_usr[4].fShiftedAim=ITM_e;                     kbd_usr[4].gShiftedAim=ITM_LN_SIGN;               kbd_usr[4].primaryTam=ITM_E;                      </v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -7128,7 +7164,7 @@
       </c>
       <c r="H57" t="str">
         <f>"kbd_usr["&amp;$A57&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H8&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[5].gShiftedAim=ITM_DIGAMMA; </v>
+        <v xml:space="preserve">kbd_usr[5].gShiftedAim=ITM_alpha; </v>
       </c>
       <c r="I57" t="str">
         <f>"kbd_usr["&amp;$A57&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I8&amp;"; "</f>
@@ -7143,7 +7179,7 @@
 'C43Layout1'!G57&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G57)))&amp;
 'C43Layout1'!H57&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H57)))&amp;
 'C43Layout1'!I57&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I57)))</f>
-        <v xml:space="preserve">    kbd_usr[5].primary=ITM_XEQ;                       kbd_usr[5].fShifted=ITM_AIM;                      kbd_usr[5].gShifted=ITM_toPOL2;                   kbd_usr[5].keyLblAim=ITM_NULL;                    kbd_usr[5].primaryAim=ITM_F;                      kbd_usr[5].fShiftedAim=ITM_f;                     kbd_usr[5].gShiftedAim=ITM_DIGAMMA;               kbd_usr[5].primaryTam=ITM_alpha;                  </v>
+        <v xml:space="preserve">    kbd_usr[5].primary=ITM_XEQ;                       kbd_usr[5].fShifted=ITM_AIM;                      kbd_usr[5].gShifted=ITM_toPOL2;                   kbd_usr[5].keyLblAim=ITM_NULL;                    kbd_usr[5].primaryAim=ITM_F;                      kbd_usr[5].fShiftedAim=ITM_f;                     kbd_usr[5].gShiftedAim=ITM_alpha;                 kbd_usr[5].primaryTam=ITM_alpha;                  </v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7176,7 +7212,7 @@
       </c>
       <c r="H58" t="str">
         <f>"kbd_usr["&amp;$A58&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H10&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[6].gShiftedAim=ITM_GAMMA; </v>
+        <v xml:space="preserve">kbd_usr[6].gShiftedAim=ITM_VERTICAL_BAR; </v>
       </c>
       <c r="I58" t="str">
         <f>"kbd_usr["&amp;$A58&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I10&amp;"; "</f>
@@ -7191,7 +7227,7 @@
 'C43Layout1'!G58&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G58)))&amp;
 'C43Layout1'!H58&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H58)))&amp;
 'C43Layout1'!I58&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I58)))</f>
-        <v xml:space="preserve">    kbd_usr[6].primary=ITM_STO;                       kbd_usr[6].fShifted=ITM_MAGNITUDE;                kbd_usr[6].gShifted=ITM_ANGLE;                    kbd_usr[6].keyLblAim=ITM_NULL;                    kbd_usr[6].primaryAim=ITM_G;                      kbd_usr[6].fShiftedAim=ITM_g;                     kbd_usr[6].gShiftedAim=ITM_GAMMA;                 kbd_usr[6].primaryTam=ITM_NULL;                   </v>
+        <v xml:space="preserve">    kbd_usr[6].primary=ITM_STO;                       kbd_usr[6].fShifted=ITM_MAGNITUDE;                kbd_usr[6].gShifted=ITM_ANGLE;                    kbd_usr[6].keyLblAim=ITM_NULL;                    kbd_usr[6].primaryAim=ITM_G;                      kbd_usr[6].fShiftedAim=ITM_g;                     kbd_usr[6].gShiftedAim=ITM_VERTICAL_BAR;          kbd_usr[6].primaryTam=ITM_NULL;                   </v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -7224,7 +7260,7 @@
       </c>
       <c r="H59" t="str">
         <f>"kbd_usr["&amp;$A59&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H11&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[7].gShiftedAim=ITM_ETA; </v>
+        <v xml:space="preserve">kbd_usr[7].gShiftedAim=ITM_DELTA; </v>
       </c>
       <c r="I59" t="str">
         <f>"kbd_usr["&amp;$A59&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I11&amp;"; "</f>
@@ -7239,7 +7275,7 @@
 'C43Layout1'!G59&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G59)))&amp;
 'C43Layout1'!H59&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H59)))&amp;
 'C43Layout1'!I59&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I59)))</f>
-        <v xml:space="preserve">    kbd_usr[7].primary=ITM_RCL;                       kbd_usr[7].fShifted=ITM_PC;                       kbd_usr[7].gShifted=ITM_DELTAPC;                  kbd_usr[7].keyLblAim=ITM_NULL;                    kbd_usr[7].primaryAim=ITM_H;                      kbd_usr[7].fShiftedAim=ITM_h;                     kbd_usr[7].gShiftedAim=ITM_ETA;                   kbd_usr[7].primaryTam=ITM_HEX;                    </v>
+        <v xml:space="preserve">    kbd_usr[7].primary=ITM_RCL;                       kbd_usr[7].fShifted=ITM_PC;                       kbd_usr[7].gShifted=ITM_DELTAPC;                  kbd_usr[7].keyLblAim=ITM_NULL;                    kbd_usr[7].primaryAim=ITM_H;                      kbd_usr[7].fShiftedAim=ITM_h;                     kbd_usr[7].gShiftedAim=ITM_DELTA;                 kbd_usr[7].primaryTam=ITM_HEX;                    </v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -7272,7 +7308,7 @@
       </c>
       <c r="H60" t="str">
         <f>"kbd_usr["&amp;$A60&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H12&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[8].gShiftedAim=ITM_IOTA; </v>
+        <v xml:space="preserve">kbd_usr[8].gShiftedAim=ITM_pi; </v>
       </c>
       <c r="I60" t="str">
         <f>"kbd_usr["&amp;$A60&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I12&amp;"; "</f>
@@ -7287,7 +7323,7 @@
 'C43Layout1'!G60&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G60)))&amp;
 'C43Layout1'!H60&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H60)))&amp;
 'C43Layout1'!I60&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I60)))</f>
-        <v xml:space="preserve">    kbd_usr[8].primary=ITM_Rdown;                     kbd_usr[8].fShifted=ITM_CONSTpi;                  kbd_usr[8].gShifted=ITM_XTHROOT;                  kbd_usr[8].keyLblAim=ITM_NULL;                    kbd_usr[8].primaryAim=ITM_I;                      kbd_usr[8].fShiftedAim=ITM_i;                     kbd_usr[8].gShiftedAim=ITM_IOTA;                  kbd_usr[8].primaryTam=ITM_REG_I;                  </v>
+        <v xml:space="preserve">    kbd_usr[8].primary=ITM_Rdown;                     kbd_usr[8].fShifted=ITM_CONSTpi;                  kbd_usr[8].gShifted=ITM_XTHROOT;                  kbd_usr[8].keyLblAim=ITM_NULL;                    kbd_usr[8].primaryAim=ITM_I;                      kbd_usr[8].fShiftedAim=ITM_i;                     kbd_usr[8].gShiftedAim=ITM_pi;                    kbd_usr[8].primaryTam=ITM_REG_I;                  </v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -7320,7 +7356,7 @@
       </c>
       <c r="H61" t="str">
         <f>"kbd_usr["&amp;$A61&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H13&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[9].gShiftedAim=ITM_THETA; </v>
+        <v xml:space="preserve">kbd_usr[9].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I61" t="str">
         <f>"kbd_usr["&amp;$A61&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I13&amp;"; "</f>
@@ -7335,7 +7371,7 @@
 'C43Layout1'!G61&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G61)))&amp;
 'C43Layout1'!H61&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H61)))&amp;
 'C43Layout1'!I61&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I61)))</f>
-        <v xml:space="preserve">    kbd_usr[9].primary=ITM_sin;                       kbd_usr[9].fShifted=ITM_arcsin;                   kbd_usr[9].gShifted=ITM_GTO;                      kbd_usr[9].keyLblAim=ITM_NULL;                    kbd_usr[9].primaryAim=ITM_J;                      kbd_usr[9].fShiftedAim=ITM_j;                     kbd_usr[9].gShiftedAim=ITM_THETA;                 kbd_usr[9].primaryTam=ITM_REG_J;                  </v>
+        <v xml:space="preserve">    kbd_usr[9].primary=ITM_sin;                       kbd_usr[9].fShifted=ITM_arcsin;                   kbd_usr[9].gShifted=ITM_GTO;                      kbd_usr[9].keyLblAim=ITM_NULL;                    kbd_usr[9].primaryAim=ITM_J;                      kbd_usr[9].fShiftedAim=ITM_j;                     kbd_usr[9].gShiftedAim=ITM_NULL;                  kbd_usr[9].primaryTam=ITM_REG_J;                  </v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7368,7 +7404,7 @@
       </c>
       <c r="H62" t="str">
         <f>"kbd_usr["&amp;$A62&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H14&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[10].gShiftedAim=ITM_KAPPA; </v>
+        <v xml:space="preserve">kbd_usr[10].gShiftedAim=ITM_LEFT_PARENTHESIS; </v>
       </c>
       <c r="I62" t="str">
         <f>"kbd_usr["&amp;$A62&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I14&amp;"; "</f>
@@ -7383,7 +7419,7 @@
 'C43Layout1'!G62&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G62)))&amp;
 'C43Layout1'!H62&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H62)))&amp;
 'C43Layout1'!I62&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I62)))</f>
-        <v xml:space="preserve">    kbd_usr[10].primary=ITM_cos;                      kbd_usr[10].fShifted=ITM_arccos;                  kbd_usr[10].gShifted=ITM_LBL;                     kbd_usr[10].keyLblAim=ITM_NULL;                   kbd_usr[10].primaryAim=ITM_K;                     kbd_usr[10].fShiftedAim=ITM_k;                    kbd_usr[10].gShiftedAim=ITM_KAPPA;                kbd_usr[10].primaryTam=ITM_REG_K;                 </v>
+        <v xml:space="preserve">    kbd_usr[10].primary=ITM_cos;                      kbd_usr[10].fShifted=ITM_arccos;                  kbd_usr[10].gShifted=ITM_LBL;                     kbd_usr[10].keyLblAim=ITM_NULL;                   kbd_usr[10].primaryAim=ITM_K;                     kbd_usr[10].fShiftedAim=ITM_k;                    kbd_usr[10].gShiftedAim=ITM_LEFT_PARENTHESIS;     kbd_usr[10].primaryTam=ITM_REG_K;                 </v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -7416,7 +7452,7 @@
       </c>
       <c r="H63" t="str">
         <f>"kbd_usr["&amp;$A63&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H15&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[11].gShiftedAim=ITM_LAMBDA; </v>
+        <v xml:space="preserve">kbd_usr[11].gShiftedAim=ITM_RIGHT_PARENTHESIS; </v>
       </c>
       <c r="I63" t="str">
         <f>"kbd_usr["&amp;$A63&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I15&amp;"; "</f>
@@ -7431,7 +7467,7 @@
 'C43Layout1'!G63&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G63)))&amp;
 'C43Layout1'!H63&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H63)))&amp;
 'C43Layout1'!I63&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I63)))</f>
-        <v xml:space="preserve">    kbd_usr[11].primary=ITM_tan;                      kbd_usr[11].fShifted=ITM_arctan;                  kbd_usr[11].gShifted=ITM_RTN;                     kbd_usr[11].keyLblAim=ITM_NULL;                   kbd_usr[11].primaryAim=ITM_L;                     kbd_usr[11].fShiftedAim=ITM_l;                    kbd_usr[11].gShiftedAim=ITM_LAMBDA;               kbd_usr[11].primaryTam=ITM_REG_L;                 </v>
+        <v xml:space="preserve">    kbd_usr[11].primary=ITM_tan;                      kbd_usr[11].fShifted=ITM_arctan;                  kbd_usr[11].gShifted=ITM_RTN;                     kbd_usr[11].keyLblAim=ITM_NULL;                   kbd_usr[11].primaryAim=ITM_L;                     kbd_usr[11].fShiftedAim=ITM_l;                    kbd_usr[11].gShiftedAim=ITM_RIGHT_PARENTHESIS;    kbd_usr[11].primaryTam=ITM_REG_L;                 </v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7464,7 +7500,7 @@
       </c>
       <c r="H64" t="str">
         <f>"kbd_usr["&amp;$A64&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[12].gShiftedAim=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[12].gShiftedAim=ITM_XEDIT; </v>
       </c>
       <c r="I64" t="str">
         <f>"kbd_usr["&amp;$A64&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I17&amp;"; "</f>
@@ -7479,7 +7515,7 @@
 'C43Layout1'!G64&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G64)))&amp;
 'C43Layout1'!H64&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H64)))&amp;
 'C43Layout1'!I64&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I64)))</f>
-        <v xml:space="preserve">    kbd_usr[12].primary=ITM_ENTER;                    kbd_usr[12].fShifted=KEY_COMPLEX;                 kbd_usr[12].gShifted=-MNU_CPX;                    kbd_usr[12].keyLblAim=ITM_ENTER;                  kbd_usr[12].primaryAim=ITM_ENTER;                 kbd_usr[12].fShiftedAim=ITM_XEDIT;                kbd_usr[12].gShiftedAim=ITM_NULL;                 kbd_usr[12].primaryTam=ITM_ENTER;                 </v>
+        <v xml:space="preserve">    kbd_usr[12].primary=ITM_ENTER;                    kbd_usr[12].fShifted=KEY_COMPLEX;                 kbd_usr[12].gShifted=-MNU_CPX;                    kbd_usr[12].keyLblAim=ITM_ENTER;                  kbd_usr[12].primaryAim=ITM_ENTER;                 kbd_usr[12].fShiftedAim=ITM_XEDIT;                kbd_usr[12].gShiftedAim=ITM_XEDIT;                kbd_usr[12].primaryTam=ITM_ENTER;                 </v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -7512,7 +7548,7 @@
       </c>
       <c r="H65" t="str">
         <f>"kbd_usr["&amp;$A65&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H18&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].gShiftedAim=ITM_MU; </v>
+        <v xml:space="preserve">kbd_usr[13].gShiftedAim=ITM_ex; </v>
       </c>
       <c r="I65" t="str">
         <f>"kbd_usr["&amp;$A65&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I18&amp;"; "</f>
@@ -7527,7 +7563,7 @@
 'C43Layout1'!G65&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G65)))&amp;
 'C43Layout1'!H65&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H65)))&amp;
 'C43Layout1'!I65&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I65)))</f>
-        <v xml:space="preserve">    kbd_usr[13].primary=ITM_XexY;                     kbd_usr[13].fShifted=ITM_LASTX;                   kbd_usr[13].gShifted=ITM_Rup;                     kbd_usr[13].keyLblAim=ITM_ex;                     kbd_usr[13].primaryAim=ITM_M;                     kbd_usr[13].fShiftedAim=ITM_m;                    kbd_usr[13].gShiftedAim=ITM_MU;                   kbd_usr[13].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">    kbd_usr[13].primary=ITM_XexY;                     kbd_usr[13].fShifted=ITM_LASTX;                   kbd_usr[13].gShifted=ITM_Rup;                     kbd_usr[13].keyLblAim=ITM_ex;                     kbd_usr[13].primaryAim=ITM_M;                     kbd_usr[13].fShiftedAim=ITM_m;                    kbd_usr[13].gShiftedAim=ITM_ex;                   kbd_usr[13].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -7560,7 +7596,7 @@
       </c>
       <c r="H66" t="str">
         <f>"kbd_usr["&amp;$A66&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H19&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[14].gShiftedAim=ITM_NU; </v>
+        <v xml:space="preserve">kbd_usr[14].gShiftedAim=ITM_PLUS_MINUS; </v>
       </c>
       <c r="I66" t="str">
         <f>"kbd_usr["&amp;$A66&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I19&amp;"; "</f>
@@ -7575,7 +7611,7 @@
 'C43Layout1'!G66&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G66)))&amp;
 'C43Layout1'!H66&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H66)))&amp;
 'C43Layout1'!I66&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I66)))</f>
-        <v xml:space="preserve">    kbd_usr[14].primary=ITM_CHS;                      kbd_usr[14].fShifted=-MNU_MODE;                   kbd_usr[14].gShifted=-MNU_STK;                    kbd_usr[14].keyLblAim=ITM_PLUS_MINUS;             kbd_usr[14].primaryAim=ITM_N;                     kbd_usr[14].fShiftedAim=ITM_n;                    kbd_usr[14].gShiftedAim=ITM_NU;                   kbd_usr[14].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">    kbd_usr[14].primary=ITM_CHS;                      kbd_usr[14].fShifted=-MNU_MODE;                   kbd_usr[14].gShifted=-MNU_STK;                    kbd_usr[14].keyLblAim=ITM_PLUS_MINUS;             kbd_usr[14].primaryAim=ITM_N;                     kbd_usr[14].fShiftedAim=ITM_n;                    kbd_usr[14].gShiftedAim=ITM_PLUS_MINUS;           kbd_usr[14].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -7588,7 +7624,7 @@
       </c>
       <c r="C67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;C$50&amp;"="&amp;'C43Layout1'!C20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].fShifted=-MNU_DSP; </v>
+        <v xml:space="preserve">kbd_usr[15].fShifted=-MNU_DISP; </v>
       </c>
       <c r="D67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;D$50&amp;"="&amp;'C43Layout1'!D20&amp;"; "</f>
@@ -7608,7 +7644,7 @@
       </c>
       <c r="H67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].gShiftedAim=ITM_OMICRON; </v>
+        <v xml:space="preserve">kbd_usr[15].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I20&amp;"; "</f>
@@ -7623,7 +7659,7 @@
 'C43Layout1'!G67&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G67)))&amp;
 'C43Layout1'!H67&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H67)))&amp;
 'C43Layout1'!I67&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I67)))</f>
-        <v xml:space="preserve">    kbd_usr[15].primary=ITM_EXPONENT;                 kbd_usr[15].fShifted=-MNU_DSP;                    kbd_usr[15].gShifted=-MNU_EXP;                    kbd_usr[15].keyLblAim=ITM_NULL;                   kbd_usr[15].primaryAim=ITM_O;                     kbd_usr[15].fShiftedAim=ITM_o;                    kbd_usr[15].gShiftedAim=ITM_OMICRON;              kbd_usr[15].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">    kbd_usr[15].primary=ITM_EXPONENT;                 kbd_usr[15].fShifted=-MNU_DISP;                   kbd_usr[15].gShifted=-MNU_EXP;                    kbd_usr[15].keyLblAim=ITM_NULL;                   kbd_usr[15].primaryAim=ITM_O;                     kbd_usr[15].fShiftedAim=ITM_o;                    kbd_usr[15].gShiftedAim=ITM_NULL;                 kbd_usr[15].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -7656,7 +7692,7 @@
       </c>
       <c r="H68" t="str">
         <f>"kbd_usr["&amp;$A68&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H21&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[16].gShiftedAim=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[16].gShiftedAim=ITM_CLA; </v>
       </c>
       <c r="I68" t="str">
         <f>"kbd_usr["&amp;$A68&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I21&amp;"; "</f>
@@ -7671,7 +7707,7 @@
 'C43Layout1'!G68&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G68)))&amp;
 'C43Layout1'!H68&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H68)))&amp;
 'C43Layout1'!I68&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I68)))</f>
-        <v xml:space="preserve">    kbd_usr[16].primary=ITM_BACKSPACE;                kbd_usr[16].fShifted=ITM_UNDO;                    kbd_usr[16].gShifted=-MNU_CLR;                    kbd_usr[16].keyLblAim=ITM_BACKSPACE;              kbd_usr[16].primaryAim=ITM_BACKSPACE;             kbd_usr[16].fShiftedAim=ITM_CLA;                  kbd_usr[16].gShiftedAim=ITM_NULL;                 kbd_usr[16].primaryTam=ITM_BACKSPACE;             </v>
+        <v xml:space="preserve">    kbd_usr[16].primary=ITM_BACKSPACE;                kbd_usr[16].fShifted=ITM_UNDO;                    kbd_usr[16].gShifted=-MNU_CLR;                    kbd_usr[16].keyLblAim=ITM_BACKSPACE;              kbd_usr[16].primaryAim=ITM_BACKSPACE;             kbd_usr[16].fShiftedAim=ITM_CLA;                  kbd_usr[16].gShiftedAim=ITM_CLA;                  kbd_usr[16].primaryTam=ITM_BACKSPACE;             </v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -7752,7 +7788,7 @@
       </c>
       <c r="H70" t="str">
         <f>"kbd_usr["&amp;$A70&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].gShiftedAim=ITM_PI; </v>
+        <v xml:space="preserve">kbd_usr[18].gShiftedAim=ITM_7; </v>
       </c>
       <c r="I70" t="str">
         <f>"kbd_usr["&amp;$A70&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I24&amp;"; "</f>
@@ -7767,7 +7803,7 @@
 'C43Layout1'!G70&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G70)))&amp;
 'C43Layout1'!H70&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H70)))&amp;
 'C43Layout1'!I70&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I70)))</f>
-        <v xml:space="preserve">    kbd_usr[18].primary=ITM_7;                        kbd_usr[18].fShifted=-MNU_EQN;                    kbd_usr[18].gShifted=-MNU_HOME;                   kbd_usr[18].keyLblAim=ITM_7;                      kbd_usr[18].primaryAim=ITM_P;                     kbd_usr[18].fShiftedAim=ITM_p;                    kbd_usr[18].gShiftedAim=ITM_PI;                   kbd_usr[18].primaryTam=ITM_7;                     </v>
+        <v xml:space="preserve">    kbd_usr[18].primary=ITM_7;                        kbd_usr[18].fShifted=-MNU_EQN;                    kbd_usr[18].gShifted=-MNU_HOME;                   kbd_usr[18].keyLblAim=ITM_7;                      kbd_usr[18].primaryAim=ITM_P;                     kbd_usr[18].fShiftedAim=ITM_p;                    kbd_usr[18].gShiftedAim=ITM_7;                    kbd_usr[18].primaryTam=ITM_7;                     </v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -7800,7 +7836,7 @@
       </c>
       <c r="H71" t="str">
         <f>"kbd_usr["&amp;$A71&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H25&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].gShiftedAim=ITM_QOPPA; </v>
+        <v xml:space="preserve">kbd_usr[19].gShiftedAim=ITM_8; </v>
       </c>
       <c r="I71" t="str">
         <f>"kbd_usr["&amp;$A71&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I25&amp;"; "</f>
@@ -7815,7 +7851,7 @@
 'C43Layout1'!G71&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G71)))&amp;
 'C43Layout1'!H71&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H71)))&amp;
 'C43Layout1'!I71&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I71)))</f>
-        <v xml:space="preserve">    kbd_usr[19].primary=ITM_8;                        kbd_usr[19].fShifted=-MNU_ADV;                    kbd_usr[19].gShifted=-MNU_CONST;                  kbd_usr[19].keyLblAim=ITM_8;                      kbd_usr[19].primaryAim=ITM_Q;                     kbd_usr[19].fShiftedAim=ITM_q;                    kbd_usr[19].gShiftedAim=ITM_QOPPA;                kbd_usr[19].primaryTam=ITM_8;                     </v>
+        <v xml:space="preserve">    kbd_usr[19].primary=ITM_8;                        kbd_usr[19].fShifted=-MNU_ADV;                    kbd_usr[19].gShifted=-MNU_CONST;                  kbd_usr[19].keyLblAim=ITM_8;                      kbd_usr[19].primaryAim=ITM_Q;                     kbd_usr[19].fShiftedAim=ITM_q;                    kbd_usr[19].gShiftedAim=ITM_8;                    kbd_usr[19].primaryTam=ITM_8;                     </v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -7848,7 +7884,7 @@
       </c>
       <c r="H72" t="str">
         <f>"kbd_usr["&amp;$A72&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H26&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].gShiftedAim=ITM_RHO; </v>
+        <v xml:space="preserve">kbd_usr[20].gShiftedAim=ITM_9; </v>
       </c>
       <c r="I72" t="str">
         <f>"kbd_usr["&amp;$A72&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I26&amp;"; "</f>
@@ -7863,7 +7899,7 @@
 'C43Layout1'!G72&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G72)))&amp;
 'C43Layout1'!H72&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H72)))&amp;
 'C43Layout1'!I72&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I72)))</f>
-        <v xml:space="preserve">    kbd_usr[20].primary=ITM_9;                        kbd_usr[20].fShifted=-MNU_MATX;                   kbd_usr[20].gShifted=-MNU_XFN;                    kbd_usr[20].keyLblAim=ITM_9;                      kbd_usr[20].primaryAim=ITM_R;                     kbd_usr[20].fShiftedAim=ITM_r;                    kbd_usr[20].gShiftedAim=ITM_RHO;                  kbd_usr[20].primaryTam=ITM_9;                     </v>
+        <v xml:space="preserve">    kbd_usr[20].primary=ITM_9;                        kbd_usr[20].fShifted=-MNU_MATX;                   kbd_usr[20].gShifted=-MNU_XFN;                    kbd_usr[20].keyLblAim=ITM_9;                      kbd_usr[20].primaryAim=ITM_R;                     kbd_usr[20].fShiftedAim=ITM_r;                    kbd_usr[20].gShiftedAim=ITM_9;                    kbd_usr[20].primaryTam=ITM_9;                     </v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -7896,7 +7932,7 @@
       </c>
       <c r="H73" t="str">
         <f>"kbd_usr["&amp;$A73&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H27&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[21].gShiftedAim=ITM_SIGMA; </v>
+        <v xml:space="preserve">kbd_usr[21].gShiftedAim=ITM_OBELUS; </v>
       </c>
       <c r="I73" t="str">
         <f>"kbd_usr["&amp;$A73&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I27&amp;"; "</f>
@@ -7911,7 +7947,7 @@
 'C43Layout1'!G73&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G73)))&amp;
 'C43Layout1'!H73&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H73)))&amp;
 'C43Layout1'!I73&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I73)))</f>
-        <v xml:space="preserve">    kbd_usr[21].primary=ITM_DIV;                      kbd_usr[21].fShifted=-MNU_STAT;                   kbd_usr[21].gShifted=-MNU_SUMS;                   kbd_usr[21].keyLblAim=ITM_OBELUS;                 kbd_usr[21].primaryAim=ITM_S;                     kbd_usr[21].fShiftedAim=ITM_s;                    kbd_usr[21].gShiftedAim=ITM_SIGMA;                kbd_usr[21].primaryTam=ITM_DIV;                   </v>
+        <v xml:space="preserve">    kbd_usr[21].primary=ITM_DIV;                      kbd_usr[21].fShifted=-MNU_STAT;                   kbd_usr[21].gShifted=-MNU_SUMS;                   kbd_usr[21].keyLblAim=ITM_OBELUS;                 kbd_usr[21].primaryAim=ITM_S;                     kbd_usr[21].fShiftedAim=ITM_s;                    kbd_usr[21].gShiftedAim=ITM_OBELUS;               kbd_usr[21].primaryTam=ITM_DIV;                   </v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -7992,7 +8028,7 @@
       </c>
       <c r="H75" t="str">
         <f>"kbd_usr["&amp;$A75&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H30&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].gShiftedAim=ITM_TAU; </v>
+        <v xml:space="preserve">kbd_usr[23].gShiftedAim=ITM_4; </v>
       </c>
       <c r="I75" t="str">
         <f>"kbd_usr["&amp;$A75&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I30&amp;"; "</f>
@@ -8007,7 +8043,7 @@
 'C43Layout1'!G75&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G75)))&amp;
 'C43Layout1'!H75&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H75)))&amp;
 'C43Layout1'!I75&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I75)))</f>
-        <v xml:space="preserve">    kbd_usr[23].primary=ITM_4;                        kbd_usr[23].fShifted=-MNU_BASE;                   kbd_usr[23].gShifted=-MNU_CLK;                    kbd_usr[23].keyLblAim=ITM_4;                      kbd_usr[23].primaryAim=ITM_T;                     kbd_usr[23].fShiftedAim=ITM_t;                    kbd_usr[23].gShiftedAim=ITM_TAU;                  kbd_usr[23].primaryTam=ITM_4;                     </v>
+        <v xml:space="preserve">    kbd_usr[23].primary=ITM_4;                        kbd_usr[23].fShifted=-MNU_BASE;                   kbd_usr[23].gShifted=-MNU_CLK;                    kbd_usr[23].keyLblAim=ITM_4;                      kbd_usr[23].primaryAim=ITM_T;                     kbd_usr[23].fShiftedAim=ITM_t;                    kbd_usr[23].gShiftedAim=ITM_4;                    kbd_usr[23].primaryTam=ITM_4;                     </v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -8040,7 +8076,7 @@
       </c>
       <c r="H76" t="str">
         <f>"kbd_usr["&amp;$A76&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[24].gShiftedAim=ITM_PHI; </v>
+        <v xml:space="preserve">kbd_usr[24].gShiftedAim=ITM_5; </v>
       </c>
       <c r="I76" t="str">
         <f>"kbd_usr["&amp;$A76&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I31&amp;"; "</f>
@@ -8055,7 +8091,7 @@
 'C43Layout1'!G76&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G76)))&amp;
 'C43Layout1'!H76&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H76)))&amp;
 'C43Layout1'!I76&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I76)))</f>
-        <v xml:space="preserve">    kbd_usr[24].primary=ITM_5;                        kbd_usr[24].fShifted=-MNU_ANGLECONV;              kbd_usr[24].gShifted=-MNU_UNITCONV;               kbd_usr[24].keyLblAim=ITM_5;                      kbd_usr[24].primaryAim=ITM_U;                     kbd_usr[24].fShiftedAim=ITM_u;                    kbd_usr[24].gShiftedAim=ITM_PHI;                  kbd_usr[24].primaryTam=ITM_5;                     </v>
+        <v xml:space="preserve">    kbd_usr[24].primary=ITM_5;                        kbd_usr[24].fShifted=-MNU_ANGLECONV;              kbd_usr[24].gShifted=-MNU_UNITCONV;               kbd_usr[24].keyLblAim=ITM_5;                      kbd_usr[24].primaryAim=ITM_U;                     kbd_usr[24].fShiftedAim=ITM_u;                    kbd_usr[24].gShiftedAim=ITM_5;                    kbd_usr[24].primaryTam=ITM_5;                     </v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -8088,7 +8124,7 @@
       </c>
       <c r="H77" t="str">
         <f>"kbd_usr["&amp;$A77&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H32&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].gShiftedAim=ITM_PSI; </v>
+        <v xml:space="preserve">kbd_usr[25].gShiftedAim=ITM_6; </v>
       </c>
       <c r="I77" t="str">
         <f>"kbd_usr["&amp;$A77&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I32&amp;"; "</f>
@@ -8103,7 +8139,7 @@
 'C43Layout1'!G77&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G77)))&amp;
 'C43Layout1'!H77&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H77)))&amp;
 'C43Layout1'!I77&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I77)))</f>
-        <v xml:space="preserve">    kbd_usr[25].primary=ITM_6;                        kbd_usr[25].fShifted=-MNU_FLAGS;                  kbd_usr[25].gShifted=-MNU_BITS;                   kbd_usr[25].keyLblAim=ITM_6;                      kbd_usr[25].primaryAim=ITM_V;                     kbd_usr[25].fShiftedAim=ITM_v;                    kbd_usr[25].gShiftedAim=ITM_PSI;                  kbd_usr[25].primaryTam=ITM_6;                     </v>
+        <v xml:space="preserve">    kbd_usr[25].primary=ITM_6;                        kbd_usr[25].fShifted=-MNU_FLAGS;                  kbd_usr[25].gShifted=-MNU_BITS;                   kbd_usr[25].keyLblAim=ITM_6;                      kbd_usr[25].primaryAim=ITM_V;                     kbd_usr[25].fShiftedAim=ITM_v;                    kbd_usr[25].gShiftedAim=ITM_6;                    kbd_usr[25].primaryTam=ITM_6;                     </v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -8136,7 +8172,7 @@
       </c>
       <c r="H78" t="str">
         <f>"kbd_usr["&amp;$A78&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H33&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[26].gShiftedAim=ITM_OMEGA; </v>
+        <v xml:space="preserve">kbd_usr[26].gShiftedAim=ITM_CROSS; </v>
       </c>
       <c r="I78" t="str">
         <f>"kbd_usr["&amp;$A78&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I33&amp;"; "</f>
@@ -8151,7 +8187,7 @@
 'C43Layout1'!G78&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G78)))&amp;
 'C43Layout1'!H78&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H78)))&amp;
 'C43Layout1'!I78&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I78)))</f>
-        <v xml:space="preserve">    kbd_usr[26].primary=ITM_MULT;                     kbd_usr[26].fShifted=-MNU_PROB;                   kbd_usr[26].gShifted=-MNU_INTS;                   kbd_usr[26].keyLblAim=ITM_CROSS;                  kbd_usr[26].primaryAim=ITM_W;                     kbd_usr[26].fShiftedAim=ITM_w;                    kbd_usr[26].gShiftedAim=ITM_OMEGA;                kbd_usr[26].primaryTam=ITM_MULT;                  </v>
+        <v xml:space="preserve">    kbd_usr[26].primary=ITM_MULT;                     kbd_usr[26].fShifted=-MNU_PROB;                   kbd_usr[26].gShifted=-MNU_INTS;                   kbd_usr[26].keyLblAim=ITM_CROSS;                  kbd_usr[26].primaryAim=ITM_W;                     kbd_usr[26].fShiftedAim=ITM_w;                    kbd_usr[26].gShiftedAim=ITM_CROSS;                kbd_usr[26].primaryTam=ITM_MULT;                  </v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -8184,7 +8220,7 @@
       </c>
       <c r="H79" t="str">
         <f>"kbd_usr["&amp;$A79&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H35&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[27].gShiftedAim=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[27].gShiftedAim=KEY_fg; </v>
       </c>
       <c r="I79" t="str">
         <f>"kbd_usr["&amp;$A79&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I35&amp;"; "</f>
@@ -8199,7 +8235,7 @@
 'C43Layout1'!G79&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G79)))&amp;
 'C43Layout1'!H79&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H79)))&amp;
 'C43Layout1'!I79&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I79)))</f>
-        <v xml:space="preserve">    kbd_usr[27].primary=KEY_fg;                       kbd_usr[27].fShifted=ITM_NULL;                    kbd_usr[27].gShifted=ITM_NULL;                    kbd_usr[27].keyLblAim=KEY_fg;                     kbd_usr[27].primaryAim=KEY_fg;                    kbd_usr[27].fShiftedAim=ITM_NULL;                 kbd_usr[27].gShiftedAim=ITM_NULL;                 kbd_usr[27].primaryTam=KEY_fg;                    </v>
+        <v xml:space="preserve">    kbd_usr[27].primary=KEY_fg;                       kbd_usr[27].fShifted=ITM_NULL;                    kbd_usr[27].gShifted=ITM_NULL;                    kbd_usr[27].keyLblAim=KEY_fg;                     kbd_usr[27].primaryAim=KEY_fg;                    kbd_usr[27].fShiftedAim=ITM_NULL;                 kbd_usr[27].gShiftedAim=KEY_fg;                   kbd_usr[27].primaryTam=KEY_fg;                    </v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -8232,7 +8268,7 @@
       </c>
       <c r="H80" t="str">
         <f>"kbd_usr["&amp;$A80&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H36&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[28].gShiftedAim=ITM_XI; </v>
+        <v xml:space="preserve">kbd_usr[28].gShiftedAim=ITM_1; </v>
       </c>
       <c r="I80" t="str">
         <f>"kbd_usr["&amp;$A80&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I36&amp;"; "</f>
@@ -8247,7 +8283,7 @@
 'C43Layout1'!G80&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G80)))&amp;
 'C43Layout1'!H80&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H80)))&amp;
 'C43Layout1'!I80&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I80)))</f>
-        <v xml:space="preserve">    kbd_usr[28].primary=ITM_1;                        kbd_usr[28].fShifted=ITM_ASSIGN;                  kbd_usr[28].gShifted=-MNU_ASN;                    kbd_usr[28].keyLblAim=ITM_1;                      kbd_usr[28].primaryAim=ITM_X;                     kbd_usr[28].fShiftedAim=ITM_x;                    kbd_usr[28].gShiftedAim=ITM_XI;                   kbd_usr[28].primaryTam=ITM_1;                     </v>
+        <v xml:space="preserve">    kbd_usr[28].primary=ITM_1;                        kbd_usr[28].fShifted=ITM_ASSIGN;                  kbd_usr[28].gShifted=-MNU_ASN;                    kbd_usr[28].keyLblAim=ITM_1;                      kbd_usr[28].primaryAim=ITM_X;                     kbd_usr[28].fShiftedAim=ITM_x;                    kbd_usr[28].gShiftedAim=ITM_1;                    kbd_usr[28].primaryTam=ITM_1;                     </v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -8280,7 +8316,7 @@
       </c>
       <c r="H81" t="str">
         <f>"kbd_usr["&amp;$A81&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[29].gShiftedAim=ITM_UPSILON; </v>
+        <v xml:space="preserve">kbd_usr[29].gShiftedAim=ITM_2; </v>
       </c>
       <c r="I81" t="str">
         <f>"kbd_usr["&amp;$A81&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I37&amp;"; "</f>
@@ -8295,7 +8331,7 @@
 'C43Layout1'!G81&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G81)))&amp;
 'C43Layout1'!H81&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H81)))&amp;
 'C43Layout1'!I81&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I81)))</f>
-        <v xml:space="preserve">    kbd_usr[29].primary=ITM_2;                        kbd_usr[29].fShifted=ITM_USERMODE;                kbd_usr[29].gShifted=-MNU_LOOP;                   kbd_usr[29].keyLblAim=ITM_2;                      kbd_usr[29].primaryAim=ITM_Y;                     kbd_usr[29].fShiftedAim=ITM_y;                    kbd_usr[29].gShiftedAim=ITM_UPSILON;              kbd_usr[29].primaryTam=ITM_2;                     </v>
+        <v xml:space="preserve">    kbd_usr[29].primary=ITM_2;                        kbd_usr[29].fShifted=ITM_USERMODE;                kbd_usr[29].gShifted=-MNU_LOOP;                   kbd_usr[29].keyLblAim=ITM_2;                      kbd_usr[29].primaryAim=ITM_Y;                     kbd_usr[29].fShiftedAim=ITM_y;                    kbd_usr[29].gShiftedAim=ITM_2;                    kbd_usr[29].primaryTam=ITM_2;                     </v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8328,7 +8364,7 @@
       </c>
       <c r="H82" t="str">
         <f>"kbd_usr["&amp;$A82&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].gShiftedAim=ITM_ZETA; </v>
+        <v xml:space="preserve">kbd_usr[30].gShiftedAim=ITM_3; </v>
       </c>
       <c r="I82" t="str">
         <f>"kbd_usr["&amp;$A82&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I38&amp;"; "</f>
@@ -8343,7 +8379,7 @@
 'C43Layout1'!G82&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G82)))&amp;
 'C43Layout1'!H82&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H82)))&amp;
 'C43Layout1'!I82&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I82)))</f>
-        <v xml:space="preserve">    kbd_usr[30].primary=ITM_3;                        kbd_usr[30].fShifted=-MNU_PARTS;                  kbd_usr[30].gShifted=-MNU_TEST;                   kbd_usr[30].keyLblAim=ITM_3;                      kbd_usr[30].primaryAim=ITM_Z;                     kbd_usr[30].fShiftedAim=ITM_z;                    kbd_usr[30].gShiftedAim=ITM_ZETA;                 kbd_usr[30].primaryTam=ITM_3;                     </v>
+        <v xml:space="preserve">    kbd_usr[30].primary=ITM_3;                        kbd_usr[30].fShifted=-MNU_PARTS;                  kbd_usr[30].gShifted=-MNU_TEST;                   kbd_usr[30].keyLblAim=ITM_3;                      kbd_usr[30].primaryAim=ITM_Z;                     kbd_usr[30].fShiftedAim=ITM_z;                    kbd_usr[30].gShiftedAim=ITM_3;                    kbd_usr[30].primaryTam=ITM_3;                     </v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -8376,7 +8412,7 @@
       </c>
       <c r="H83" t="str">
         <f>"kbd_usr["&amp;$A83&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H39&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[31].gShiftedAim=ITM_SAMPI; </v>
+        <v xml:space="preserve">kbd_usr[31].gShiftedAim=ITM_MINUS; </v>
       </c>
       <c r="I83" t="str">
         <f>"kbd_usr["&amp;$A83&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I39&amp;"; "</f>
@@ -8391,7 +8427,7 @@
 'C43Layout1'!G83&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G83)))&amp;
 'C43Layout1'!H83&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H83)))&amp;
 'C43Layout1'!I83&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I83)))</f>
-        <v xml:space="preserve">    kbd_usr[31].primary=ITM_SUB;                      kbd_usr[31].fShifted=-MNU_FIN;                    kbd_usr[31].gShifted=-MNU_ALPHAFN;                kbd_usr[31].keyLblAim=ITM_MINUS;                  kbd_usr[31].primaryAim=ITM_UNDERSCORE;            kbd_usr[31].fShiftedAim=ITM_MINUS;                kbd_usr[31].gShiftedAim=ITM_SAMPI;                kbd_usr[31].primaryTam=ITM_SUB;                   </v>
+        <v xml:space="preserve">    kbd_usr[31].primary=ITM_SUB;                      kbd_usr[31].fShifted=-MNU_FIN;                    kbd_usr[31].gShifted=-MNU_ALPHAFN;                kbd_usr[31].keyLblAim=ITM_MINUS;                  kbd_usr[31].primaryAim=ITM_UNDERSCORE;            kbd_usr[31].fShiftedAim=ITM_MINUS;                kbd_usr[31].gShiftedAim=ITM_MINUS;                kbd_usr[31].primaryTam=ITM_SUB;                   </v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -8408,7 +8444,7 @@
       </c>
       <c r="D84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;D$50&amp;"="&amp;'C43Layout1'!D41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].gShifted=-MNU_PRINT; </v>
+        <v xml:space="preserve">kbd_usr[32].gShifted=ITM_PRN; </v>
       </c>
       <c r="E84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;E$50&amp;"="&amp;'C43Layout1'!E41&amp;"; "</f>
@@ -8424,7 +8460,7 @@
       </c>
       <c r="H84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].gShiftedAim=ITM_PRINTER; </v>
+        <v xml:space="preserve">kbd_usr[32].gShiftedAim=ITM_PRN; </v>
       </c>
       <c r="I84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I41&amp;"; "</f>
@@ -8439,7 +8475,7 @@
 'C43Layout1'!G84&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G84)))&amp;
 'C43Layout1'!H84&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H84)))&amp;
 'C43Layout1'!I84&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I84)))</f>
-        <v xml:space="preserve">    kbd_usr[32].primary=ITM_EXIT1;                    kbd_usr[32].fShifted=ITM_OFF;                     kbd_usr[32].gShifted=-MNU_PRINT;                  kbd_usr[32].keyLblAim=ITM_EXIT1;                  kbd_usr[32].primaryAim=ITM_EXIT1;                 kbd_usr[32].fShiftedAim=ITM_OFF;                  kbd_usr[32].gShiftedAim=ITM_PRINTER;              kbd_usr[32].primaryTam=ITM_EXIT1;                 </v>
+        <v xml:space="preserve">    kbd_usr[32].primary=ITM_EXIT1;                    kbd_usr[32].fShifted=ITM_OFF;                     kbd_usr[32].gShifted=ITM_PRN;                     kbd_usr[32].keyLblAim=ITM_EXIT1;                  kbd_usr[32].primaryAim=ITM_EXIT1;                 kbd_usr[32].fShiftedAim=ITM_OFF;                  kbd_usr[32].gShiftedAim=ITM_PRN;                  kbd_usr[32].primaryTam=ITM_EXIT1;                 </v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -8472,7 +8508,7 @@
       </c>
       <c r="H85" t="str">
         <f>"kbd_usr["&amp;$A85&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H42&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].gShiftedAim=-MNU_ALPHA; </v>
+        <v xml:space="preserve">kbd_usr[33].gShiftedAim=ITM_0; </v>
       </c>
       <c r="I85" t="str">
         <f>"kbd_usr["&amp;$A85&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I42&amp;"; "</f>
@@ -8487,7 +8523,7 @@
 'C43Layout1'!G85&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G85)))&amp;
 'C43Layout1'!H85&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H85)))&amp;
 'C43Layout1'!I85&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I85)))</f>
-        <v xml:space="preserve">    kbd_usr[33].primary=ITM_0;                        kbd_usr[33].fShifted=ITM_VIEW;                    kbd_usr[33].gShifted=ITM_TIMER;                   kbd_usr[33].keyLblAim=ITM_0;                      kbd_usr[33].primaryAim=ITM_COLON;                 kbd_usr[33].fShiftedAim=ITM_0;                    kbd_usr[33].gShiftedAim=-MNU_ALPHA;               kbd_usr[33].primaryTam=ITM_0;                     </v>
+        <v xml:space="preserve">    kbd_usr[33].primary=ITM_0;                        kbd_usr[33].fShifted=ITM_VIEW;                    kbd_usr[33].gShifted=ITM_TIMER;                   kbd_usr[33].keyLblAim=ITM_0;                      kbd_usr[33].primaryAim=ITM_COLON;                 kbd_usr[33].fShiftedAim=ITM_0;                    kbd_usr[33].gShiftedAim=ITM_0;                    kbd_usr[33].primaryTam=ITM_0;                     </v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -8520,7 +8556,7 @@
       </c>
       <c r="H86" t="str">
         <f>"kbd_usr["&amp;$A86&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H43&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[34].gShiftedAim=-MNU_ALPHADOT; </v>
+        <v xml:space="preserve">kbd_usr[34].gShiftedAim=ITM_PERIOD; </v>
       </c>
       <c r="I86" t="str">
         <f>"kbd_usr["&amp;$A86&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I43&amp;"; "</f>
@@ -8535,7 +8571,7 @@
 'C43Layout1'!G86&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G86)))&amp;
 'C43Layout1'!H86&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H86)))&amp;
 'C43Layout1'!I86&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I86)))</f>
-        <v xml:space="preserve">    kbd_usr[34].primary=ITM_PERIOD;                   kbd_usr[34].fShifted=ITM_SHOW;                    kbd_usr[34].gShifted=-MNU_INFO;                   kbd_usr[34].keyLblAim=ITM_PERIOD;                 kbd_usr[34].primaryAim=ITM_COMMA;                 kbd_usr[34].fShiftedAim=ITM_PERIOD;               kbd_usr[34].gShiftedAim=-MNU_ALPHADOT;            kbd_usr[34].primaryTam=ITM_PERIOD;                </v>
+        <v xml:space="preserve">    kbd_usr[34].primary=ITM_PERIOD;                   kbd_usr[34].fShifted=ITM_SHOW;                    kbd_usr[34].gShifted=-MNU_INFO;                   kbd_usr[34].keyLblAim=ITM_PERIOD;                 kbd_usr[34].primaryAim=ITM_COMMA;                 kbd_usr[34].fShiftedAim=ITM_PERIOD;               kbd_usr[34].gShiftedAim=ITM_PERIOD;               kbd_usr[34].primaryTam=ITM_PERIOD;                </v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -8568,7 +8604,7 @@
       </c>
       <c r="H87" t="str">
         <f>"kbd_usr["&amp;$A87&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H44&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[35].gShiftedAim=-MNU_ALPHAMATH; </v>
+        <v xml:space="preserve">kbd_usr[35].gShiftedAim=ITM_SLASH; </v>
       </c>
       <c r="I87" t="str">
         <f>"kbd_usr["&amp;$A87&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I44&amp;"; "</f>
@@ -8583,7 +8619,7 @@
 'C43Layout1'!G87&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G87)))&amp;
 'C43Layout1'!H87&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H87)))&amp;
 'C43Layout1'!I87&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I87)))</f>
-        <v xml:space="preserve">    kbd_usr[35].primary=ITM_RS;                       kbd_usr[35].fShifted=ITM_PR;                      kbd_usr[35].gShifted=-MNU_PFN;                    kbd_usr[35].keyLblAim=ITM_NULL;                   kbd_usr[35].primaryAim=ITM_QUESTION_MARK;         kbd_usr[35].fShiftedAim=ITM_SLASH;                kbd_usr[35].gShiftedAim=-MNU_ALPHAMATH;           kbd_usr[35].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">    kbd_usr[35].primary=ITM_RS;                       kbd_usr[35].fShifted=ITM_PR;                      kbd_usr[35].gShifted=-MNU_PFN;                    kbd_usr[35].keyLblAim=ITM_NULL;                   kbd_usr[35].primaryAim=ITM_QUESTION_MARK;         kbd_usr[35].fShiftedAim=ITM_SLASH;                kbd_usr[35].gShiftedAim=ITM_SLASH;                kbd_usr[35].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -8616,7 +8652,7 @@
       </c>
       <c r="H88" t="str">
         <f>"kbd_usr["&amp;$A88&amp;"]."&amp;H$50&amp;"="&amp;'C43Layout1'!H45&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[36].gShiftedAim=-MNU_ALPHAINTL; </v>
+        <v xml:space="preserve">kbd_usr[36].gShiftedAim=ITM_PLUS; </v>
       </c>
       <c r="I88" t="str">
         <f>"kbd_usr["&amp;$A88&amp;"]."&amp;I$50&amp;"="&amp;'C43Layout1'!I45&amp;"; "</f>
@@ -8631,17 +8667,17 @@
 'C43Layout1'!G88&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!G88)))&amp;
 'C43Layout1'!H88&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!H88)))&amp;
 'C43Layout1'!I88&amp;REPT(" ",('C43Layout1'!$J$51-LEN('C43Layout1'!I88)))</f>
-        <v xml:space="preserve">    kbd_usr[36].primary=ITM_ADD;                      kbd_usr[36].fShifted=-MNU_CATALOG;                kbd_usr[36].gShifted=-MNU_IO;                     kbd_usr[36].keyLblAim=ITM_PLUS;                   kbd_usr[36].primaryAim=ITM_SPACE;                 kbd_usr[36].fShiftedAim=ITM_PLUS;                 kbd_usr[36].gShiftedAim=-MNU_ALPHAINTL;           kbd_usr[36].primaryTam=ITM_ADD;                   </v>
+        <v xml:space="preserve">    kbd_usr[36].primary=ITM_ADD;                      kbd_usr[36].fShifted=-MNU_CATALOG;                kbd_usr[36].gShifted=-MNU_IO;                     kbd_usr[36].keyLblAim=ITM_PLUS;                   kbd_usr[36].primaryAim=ITM_SPACE;                 kbd_usr[36].fShiftedAim=ITM_PLUS;                 kbd_usr[36].gShiftedAim=ITM_PLUS;                 kbd_usr[36].primaryTam=ITM_ADD;                   </v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="K89" s="22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="K90" s="22" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -8659,28 +8695,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E5078C-31CC-AA43-A2CF-AE79D6E77F8B}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.35546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31">
+    <row r="1" spans="1:11" ht="30.9">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8751,7 +8787,7 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>'C43Layout1'!H3</f>
-        <v>ITM_ALPHA</v>
+        <v>ITM_SIGMA</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>'C43Layout1'!I3</f>
@@ -8788,7 +8824,7 @@
       </c>
       <c r="H4" s="5" t="str">
         <f>'C43Layout1'!H4</f>
-        <v>ITM_BETA</v>
+        <v>ITM_CIRCUMFLEX</v>
       </c>
       <c r="I4" s="5" t="str">
         <f>'C43Layout1'!I4</f>
@@ -8809,11 +8845,11 @@
         <v>ITM_SQUARE</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>'C43Layout1'!E5</f>
-        <v>ITM_CHECK_MARK</v>
+        <v>ITM_ROOT_SIGN</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>'C43Layout1'!F5</f>
@@ -8825,7 +8861,7 @@
       </c>
       <c r="H5" s="5" t="str">
         <f>'C43Layout1'!H5</f>
-        <v>ITM_CHI</v>
+        <v>ITM_ROOT_SIGN</v>
       </c>
       <c r="I5" s="5" t="str">
         <f>'C43Layout1'!I5</f>
@@ -8863,7 +8899,7 @@
       </c>
       <c r="H6" s="5" t="str">
         <f>'C43Layout1'!H6</f>
-        <v>ITM_DELTA</v>
+        <v>ITM_LG_SIGN</v>
       </c>
       <c r="I6" s="5" t="str">
         <f>'C43Layout1'!I6</f>
@@ -8901,14 +8937,14 @@
       </c>
       <c r="H7" s="5" t="str">
         <f>'C43Layout1'!H7</f>
-        <v>ITM_EPSILON</v>
+        <v>ITM_LN_SIGN</v>
       </c>
       <c r="I7" s="5" t="str">
         <f>'C43Layout1'!I7</f>
-        <v>ITM_NULL</v>
+        <v>ITM_E</v>
       </c>
       <c r="K7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8948,7 +8984,7 @@
         <v>ITM_alpha</v>
       </c>
       <c r="K8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8993,7 +9029,7 @@
       </c>
       <c r="H10" s="5" t="str">
         <f>'C43Layout1'!H10</f>
-        <v>ITM_GAMMA</v>
+        <v>ITM_VERTICAL_BAR</v>
       </c>
       <c r="I10" s="5" t="str">
         <f>'C43Layout1'!I10</f>
@@ -9031,7 +9067,7 @@
       </c>
       <c r="H11" s="5" t="str">
         <f>'C43Layout1'!H11</f>
-        <v>ITM_ETA</v>
+        <v>ITM_DELTA</v>
       </c>
       <c r="I11" s="5" t="str">
         <f>'C43Layout1'!I11</f>
@@ -9068,7 +9104,7 @@
       </c>
       <c r="H12" s="5" t="str">
         <f>'C43Layout1'!H12</f>
-        <v>ITM_IOTA</v>
+        <v>ITM_pi</v>
       </c>
       <c r="I12" s="5" t="str">
         <f>'C43Layout1'!I12</f>
@@ -9081,13 +9117,13 @@
         <v>{34</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>'C43Layout1'!E13</f>
@@ -9102,7 +9138,7 @@
       </c>
       <c r="H13" s="5" t="str">
         <f>'C43Layout1'!H13</f>
-        <v>ITM_THETA</v>
+        <v>ITM_NULL</v>
       </c>
       <c r="I13" s="5" t="str">
         <f>'C43Layout1'!I13</f>
@@ -9115,7 +9151,7 @@
         <v>{35</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
@@ -9136,7 +9172,7 @@
       </c>
       <c r="H14" s="5" t="str">
         <f>'C43Layout1'!H14</f>
-        <v>ITM_KAPPA</v>
+        <v>ITM_LEFT_PARENTHESIS</v>
       </c>
       <c r="I14" s="5" t="str">
         <f>'C43Layout1'!I14</f>
@@ -9149,7 +9185,7 @@
         <v>{36</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
@@ -9171,7 +9207,7 @@
       </c>
       <c r="H15" s="5" t="str">
         <f>'C43Layout1'!H15</f>
-        <v>ITM_LAMBDA</v>
+        <v>ITM_RIGHT_PARENTHESIS</v>
       </c>
       <c r="I15" s="5" t="str">
         <f>'C43Layout1'!I15</f>
@@ -9199,7 +9235,7 @@
         <v>ITM_ENTER</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D17" s="5" t="str">
         <f>'C43Layout1'!D17</f>
@@ -9219,7 +9255,7 @@
       </c>
       <c r="H17" s="5" t="str">
         <f>'C43Layout1'!H17</f>
-        <v>ITM_NULL</v>
+        <v>ITM_XEDIT</v>
       </c>
       <c r="I17" s="5" t="str">
         <f>'C43Layout1'!I17</f>
@@ -9257,7 +9293,7 @@
       </c>
       <c r="H18" s="5" t="str">
         <f>'C43Layout1'!H18</f>
-        <v>ITM_MU</v>
+        <v>ITM_ex</v>
       </c>
       <c r="I18" s="5" t="str">
         <f>'C43Layout1'!I18</f>
@@ -9295,7 +9331,7 @@
       </c>
       <c r="H19" s="5" t="str">
         <f>'C43Layout1'!H19</f>
-        <v>ITM_NU</v>
+        <v>ITM_PLUS_MINUS</v>
       </c>
       <c r="I19" s="5" t="str">
         <f>'C43Layout1'!I19</f>
@@ -9313,7 +9349,7 @@
       </c>
       <c r="C20" s="5" t="str">
         <f>'C43Layout1'!C20</f>
-        <v>-MNU_DSP</v>
+        <v>-MNU_DISP</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>'C43Layout1'!D20</f>
@@ -9333,7 +9369,7 @@
       </c>
       <c r="H20" s="5" t="str">
         <f>'C43Layout1'!H20</f>
-        <v>ITM_OMICRON</v>
+        <v>ITM_NULL</v>
       </c>
       <c r="I20" s="5" t="str">
         <f>'C43Layout1'!I20</f>
@@ -9371,7 +9407,7 @@
       </c>
       <c r="H21" s="5" t="str">
         <f>'C43Layout1'!H21</f>
-        <v>ITM_NULL</v>
+        <v>ITM_CLA</v>
       </c>
       <c r="I21" s="5" t="str">
         <f>'C43Layout1'!I21</f>
@@ -9484,7 +9520,7 @@
       </c>
       <c r="H24" s="5" t="str">
         <f>'C43Layout1'!H24</f>
-        <v>ITM_PI</v>
+        <v>ITM_7</v>
       </c>
       <c r="I24" s="5" t="str">
         <f>'C43Layout1'!I24</f>
@@ -9559,7 +9595,7 @@
       </c>
       <c r="H26" s="5" t="str">
         <f>'C43Layout1'!H26</f>
-        <v>ITM_RHO</v>
+        <v>ITM_9</v>
       </c>
       <c r="I26" s="5" t="str">
         <f>'C43Layout1'!I26</f>
@@ -9597,7 +9633,7 @@
       </c>
       <c r="H27" s="5" t="str">
         <f>'C43Layout1'!H27</f>
-        <v>ITM_SIGMA</v>
+        <v>ITM_OBELUS</v>
       </c>
       <c r="I27" s="5" t="str">
         <f>'C43Layout1'!I27</f>
@@ -9636,7 +9672,7 @@
         <v>ITM_SST</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>IF($K$48="swap",
@@ -9709,7 +9745,7 @@
       </c>
       <c r="H30" s="5" t="str">
         <f>'C43Layout1'!H30</f>
-        <v>ITM_TAU</v>
+        <v>ITM_4</v>
       </c>
       <c r="I30" s="5" t="str">
         <f>'C43Layout1'!I30</f>
@@ -9747,7 +9783,7 @@
       </c>
       <c r="H31" s="5" t="str">
         <f>'C43Layout1'!H31</f>
-        <v>ITM_PHI</v>
+        <v>ITM_5</v>
       </c>
       <c r="I31" s="5" t="str">
         <f>'C43Layout1'!I31</f>
@@ -9785,7 +9821,7 @@
       </c>
       <c r="H32" s="5" t="str">
         <f>'C43Layout1'!H32</f>
-        <v>ITM_PSI</v>
+        <v>ITM_6</v>
       </c>
       <c r="I32" s="5" t="str">
         <f>'C43Layout1'!I32</f>
@@ -9823,7 +9859,7 @@
       </c>
       <c r="H33" s="5" t="str">
         <f>'C43Layout1'!H33</f>
-        <v>ITM_OMEGA</v>
+        <v>ITM_CROSS</v>
       </c>
       <c r="I33" s="5" t="str">
         <f>'C43Layout1'!I33</f>
@@ -9847,7 +9883,7 @@
         <v>{71</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C35" s="5" t="str">
         <f>'C43Layout1'!C35</f>
@@ -9858,10 +9894,10 @@
         <v>ITM_NULL</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G35" s="5" t="str">
         <f>'C43Layout1'!G35</f>
@@ -9869,10 +9905,10 @@
       </c>
       <c r="H35" s="5" t="str">
         <f>'C43Layout1'!H35</f>
-        <v>ITM_NULL</v>
+        <v>KEY_fg</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -9905,7 +9941,7 @@
       </c>
       <c r="H36" s="5" t="str">
         <f>'C43Layout1'!H36</f>
-        <v>ITM_XI</v>
+        <v>ITM_1</v>
       </c>
       <c r="I36" s="5" t="str">
         <f>'C43Layout1'!I36</f>
@@ -9943,7 +9979,7 @@
       </c>
       <c r="H37" s="5" t="str">
         <f>'C43Layout1'!H37</f>
-        <v>ITM_UPSILON</v>
+        <v>ITM_2</v>
       </c>
       <c r="I37" s="5" t="str">
         <f>'C43Layout1'!I37</f>
@@ -9981,7 +10017,7 @@
       </c>
       <c r="H38" s="5" t="str">
         <f>'C43Layout1'!H38</f>
-        <v>ITM_ZETA</v>
+        <v>ITM_3</v>
       </c>
       <c r="I38" s="5" t="str">
         <f>'C43Layout1'!I38</f>
@@ -10058,7 +10094,7 @@
       </c>
       <c r="D41" s="5" t="str">
         <f>'C43Layout1'!D41</f>
-        <v>-MNU_PRINT</v>
+        <v>ITM_PRN</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>IF($K$48="swap",
@@ -10088,7 +10124,7 @@
       </c>
       <c r="H41" s="5" t="str">
         <f>'C43Layout1'!H41</f>
-        <v>ITM_PRINTER</v>
+        <v>ITM_PRN</v>
       </c>
       <c r="I41" s="7" t="str">
         <f>IF($K$48="swap",
@@ -10170,7 +10206,7 @@
       </c>
       <c r="H43" s="5" t="str">
         <f>'C43Layout1'!H43</f>
-        <v>-MNU_ALPHADOT</v>
+        <v>ITM_PERIOD</v>
       </c>
       <c r="I43" s="5" t="str">
         <f>'C43Layout1'!I43</f>
@@ -10208,17 +10244,17 @@
       </c>
       <c r="H44" s="5" t="str">
         <f>'C43Layout1'!H44</f>
-        <v>-MNU_ALPHAMATH</v>
+        <v>ITM_SLASH</v>
       </c>
       <c r="I44" s="5" t="str">
         <f>'C43Layout1'!I44</f>
         <v>ITM_NULL</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -10252,25 +10288,25 @@
       </c>
       <c r="H45" s="5" t="str">
         <f>'C43Layout1'!H45</f>
-        <v>-MNU_ALPHAINTL</v>
+        <v>ITM_PLUS</v>
       </c>
       <c r="I45" s="5" t="str">
         <f>'C43Layout1'!I45</f>
         <v>ITM_ADD</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="33.450000000000003">
       <c r="K48" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M48" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -10310,7 +10346,7 @@
         <v>primaryTam</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="31">
+    <row r="51" spans="1:11" ht="30.9">
       <c r="A51" s="1" t="str">
         <f>A1</f>
         <v>LAYOUT1</v>
@@ -10349,7 +10385,7 @@
       </c>
       <c r="H52" t="str">
         <f>"kbd_usr["&amp;$A52&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[0].gShiftedAim=ITM_ALPHA; </v>
+        <v xml:space="preserve">kbd_usr[0].gShiftedAim=ITM_SIGMA; </v>
       </c>
       <c r="I52" t="str">
         <f>"kbd_usr["&amp;$A52&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I3&amp;"; "</f>
@@ -10364,7 +10400,7 @@
 'WP43S on C43L1'!G52&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G52)))&amp;
 'WP43S on C43L1'!H52&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H52)))&amp;
 'WP43S on C43L1'!I52&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I52)))</f>
-        <v xml:space="preserve">      kbd_usr[0].primary=ITM_SIGMAPLUS;                 kbd_usr[0].fShifted=ITM_NULL;                     kbd_usr[0].gShifted=ITM_TGLFRT;                   kbd_usr[0].keyLblAim=ITM_NULL;                    kbd_usr[0].primaryAim=ITM_A;                      kbd_usr[0].fShiftedAim=ITM_a;                     kbd_usr[0].gShiftedAim=ITM_ALPHA;                 kbd_usr[0].primaryTam=ITM_REG_A;                  </v>
+        <v xml:space="preserve">      kbd_usr[0].primary=ITM_SIGMAPLUS;                 kbd_usr[0].fShifted=ITM_NULL;                     kbd_usr[0].gShifted=ITM_TGLFRT;                   kbd_usr[0].keyLblAim=ITM_NULL;                    kbd_usr[0].primaryAim=ITM_A;                      kbd_usr[0].fShiftedAim=ITM_a;                     kbd_usr[0].gShiftedAim=ITM_SIGMA;                 kbd_usr[0].primaryTam=ITM_REG_A;                  </v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -10397,7 +10433,7 @@
       </c>
       <c r="H53" t="str">
         <f>"kbd_usr["&amp;$A53&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H4&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].gShiftedAim=ITM_BETA; </v>
+        <v xml:space="preserve">kbd_usr[1].gShiftedAim=ITM_CIRCUMFLEX; </v>
       </c>
       <c r="I53" t="str">
         <f>"kbd_usr["&amp;$A53&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I4&amp;"; "</f>
@@ -10412,7 +10448,7 @@
 'WP43S on C43L1'!G53&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G53)))&amp;
 'WP43S on C43L1'!H53&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H53)))&amp;
 'WP43S on C43L1'!I53&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I53)))</f>
-        <v xml:space="preserve">      kbd_usr[1].primary=ITM_1ONX;                      kbd_usr[1].fShifted=ITM_YX;                       kbd_usr[1].gShifted=ITM_toINT;                    kbd_usr[1].keyLblAim=ITM_NUMBER_SIGN;             kbd_usr[1].primaryAim=ITM_B;                      kbd_usr[1].fShiftedAim=ITM_b;                     kbd_usr[1].gShiftedAim=ITM_BETA;                  kbd_usr[1].primaryTam=ITM_REG_B;                  </v>
+        <v xml:space="preserve">      kbd_usr[1].primary=ITM_1ONX;                      kbd_usr[1].fShifted=ITM_YX;                       kbd_usr[1].gShifted=ITM_toINT;                    kbd_usr[1].keyLblAim=ITM_NUMBER_SIGN;             kbd_usr[1].primaryAim=ITM_B;                      kbd_usr[1].fShiftedAim=ITM_b;                     kbd_usr[1].gShiftedAim=ITM_CIRCUMFLEX;            kbd_usr[1].primaryTam=ITM_REG_B;                  </v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -10433,7 +10469,7 @@
       </c>
       <c r="E54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;E$50&amp;"="&amp;'WP43S on C43L1'!E5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].keyLblAim=ITM_CHECK_MARK; </v>
+        <v xml:space="preserve">kbd_usr[2].keyLblAim=ITM_ROOT_SIGN; </v>
       </c>
       <c r="F54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;F$50&amp;"="&amp;'WP43S on C43L1'!F5&amp;"; "</f>
@@ -10445,7 +10481,7 @@
       </c>
       <c r="H54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].gShiftedAim=ITM_CHI; </v>
+        <v xml:space="preserve">kbd_usr[2].gShiftedAim=ITM_ROOT_SIGN; </v>
       </c>
       <c r="I54" t="str">
         <f>"kbd_usr["&amp;$A54&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I5&amp;"; "</f>
@@ -10460,7 +10496,7 @@
 'WP43S on C43L1'!G54&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G54)))&amp;
 'WP43S on C43L1'!H54&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H54)))&amp;
 'WP43S on C43L1'!I54&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I54)))</f>
-        <v xml:space="preserve">      kbd_usr[2].primary=ITM_SQUAREROOTX;               kbd_usr[2].fShifted=ITM_SQUARE;                   kbd_usr[2].gShifted=ITM_DMS;                      kbd_usr[2].keyLblAim=ITM_CHECK_MARK;              kbd_usr[2].primaryAim=ITM_C;                      kbd_usr[2].fShiftedAim=ITM_c;                     kbd_usr[2].gShiftedAim=ITM_CHI;                   kbd_usr[2].primaryTam=ITM_REG_C;                  </v>
+        <v xml:space="preserve">      kbd_usr[2].primary=ITM_SQUAREROOTX;               kbd_usr[2].fShifted=ITM_SQUARE;                   kbd_usr[2].gShifted=ITM_DMS;                      kbd_usr[2].keyLblAim=ITM_ROOT_SIGN;               kbd_usr[2].primaryAim=ITM_C;                      kbd_usr[2].fShiftedAim=ITM_c;                     kbd_usr[2].gShiftedAim=ITM_ROOT_SIGN;             kbd_usr[2].primaryTam=ITM_REG_C;                  </v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -10493,7 +10529,7 @@
       </c>
       <c r="H55" t="str">
         <f>"kbd_usr["&amp;$A55&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H6&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[3].gShiftedAim=ITM_DELTA; </v>
+        <v xml:space="preserve">kbd_usr[3].gShiftedAim=ITM_LG_SIGN; </v>
       </c>
       <c r="I55" t="str">
         <f>"kbd_usr["&amp;$A55&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I6&amp;"; "</f>
@@ -10508,7 +10544,7 @@
 'WP43S on C43L1'!G55&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G55)))&amp;
 'WP43S on C43L1'!H55&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H55)))&amp;
 'WP43S on C43L1'!I55&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I55)))</f>
-        <v xml:space="preserve">      kbd_usr[3].primary=ITM_LOG10;                     kbd_usr[3].fShifted=ITM_10x;                      kbd_usr[3].gShifted=ITM_dotD;                     kbd_usr[3].keyLblAim=ITM_NULL;                    kbd_usr[3].primaryAim=ITM_D;                      kbd_usr[3].fShiftedAim=ITM_d;                     kbd_usr[3].gShiftedAim=ITM_DELTA;                 kbd_usr[3].primaryTam=ITM_REG_D;                  </v>
+        <v xml:space="preserve">      kbd_usr[3].primary=ITM_LOG10;                     kbd_usr[3].fShifted=ITM_10x;                      kbd_usr[3].gShifted=ITM_dotD;                     kbd_usr[3].keyLblAim=ITM_NULL;                    kbd_usr[3].primaryAim=ITM_D;                      kbd_usr[3].fShiftedAim=ITM_d;                     kbd_usr[3].gShiftedAim=ITM_LG_SIGN;               kbd_usr[3].primaryTam=ITM_REG_D;                  </v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -10541,11 +10577,11 @@
       </c>
       <c r="H56" t="str">
         <f>"kbd_usr["&amp;$A56&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[4].gShiftedAim=ITM_EPSILON; </v>
+        <v xml:space="preserve">kbd_usr[4].gShiftedAim=ITM_LN_SIGN; </v>
       </c>
       <c r="I56" t="str">
         <f>"kbd_usr["&amp;$A56&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[4].primaryTam=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[4].primaryTam=ITM_E; </v>
       </c>
       <c r="K56" s="3" t="str">
         <f>"      "&amp;'WP43S on C43L1'!B56&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!B56)))&amp;
@@ -10556,7 +10592,7 @@
 'WP43S on C43L1'!G56&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G56)))&amp;
 'WP43S on C43L1'!H56&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H56)))&amp;
 'WP43S on C43L1'!I56&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I56)))</f>
-        <v xml:space="preserve">      kbd_usr[4].primary=ITM_LN;                        kbd_usr[4].fShifted=ITM_EXP;                      kbd_usr[4].gShifted=ITM_toREC2;                   kbd_usr[4].keyLblAim=ITM_NULL;                    kbd_usr[4].primaryAim=ITM_E;                      kbd_usr[4].fShiftedAim=ITM_e;                     kbd_usr[4].gShiftedAim=ITM_EPSILON;               kbd_usr[4].primaryTam=ITM_NULL;                   </v>
+        <v xml:space="preserve">      kbd_usr[4].primary=ITM_LN;                        kbd_usr[4].fShifted=ITM_EXP;                      kbd_usr[4].gShifted=ITM_toREC2;                   kbd_usr[4].keyLblAim=ITM_NULL;                    kbd_usr[4].primaryAim=ITM_E;                      kbd_usr[4].fShiftedAim=ITM_e;                     kbd_usr[4].gShiftedAim=ITM_LN_SIGN;               kbd_usr[4].primaryTam=ITM_E;                      </v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -10637,7 +10673,7 @@
       </c>
       <c r="H58" t="str">
         <f>"kbd_usr["&amp;$A58&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H10&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[6].gShiftedAim=ITM_GAMMA; </v>
+        <v xml:space="preserve">kbd_usr[6].gShiftedAim=ITM_VERTICAL_BAR; </v>
       </c>
       <c r="I58" t="str">
         <f>"kbd_usr["&amp;$A58&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I10&amp;"; "</f>
@@ -10652,7 +10688,7 @@
 'WP43S on C43L1'!G58&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G58)))&amp;
 'WP43S on C43L1'!H58&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H58)))&amp;
 'WP43S on C43L1'!I58&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I58)))</f>
-        <v xml:space="preserve">      kbd_usr[6].primary=ITM_STO;                       kbd_usr[6].fShifted=ITM_MAGNITUDE;                kbd_usr[6].gShifted=ITM_ANGLE;                    kbd_usr[6].keyLblAim=ITM_NULL;                    kbd_usr[6].primaryAim=ITM_G;                      kbd_usr[6].fShiftedAim=ITM_g;                     kbd_usr[6].gShiftedAim=ITM_GAMMA;                 kbd_usr[6].primaryTam=ITM_NULL;                   </v>
+        <v xml:space="preserve">      kbd_usr[6].primary=ITM_STO;                       kbd_usr[6].fShifted=ITM_MAGNITUDE;                kbd_usr[6].gShifted=ITM_ANGLE;                    kbd_usr[6].keyLblAim=ITM_NULL;                    kbd_usr[6].primaryAim=ITM_G;                      kbd_usr[6].fShiftedAim=ITM_g;                     kbd_usr[6].gShiftedAim=ITM_VERTICAL_BAR;          kbd_usr[6].primaryTam=ITM_NULL;                   </v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -10685,7 +10721,7 @@
       </c>
       <c r="H59" t="str">
         <f>"kbd_usr["&amp;$A59&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H11&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[7].gShiftedAim=ITM_ETA; </v>
+        <v xml:space="preserve">kbd_usr[7].gShiftedAim=ITM_DELTA; </v>
       </c>
       <c r="I59" t="str">
         <f>"kbd_usr["&amp;$A59&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I11&amp;"; "</f>
@@ -10700,7 +10736,7 @@
 'WP43S on C43L1'!G59&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G59)))&amp;
 'WP43S on C43L1'!H59&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H59)))&amp;
 'WP43S on C43L1'!I59&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I59)))</f>
-        <v xml:space="preserve">      kbd_usr[7].primary=ITM_RCL;                       kbd_usr[7].fShifted=ITM_PC;                       kbd_usr[7].gShifted=ITM_DELTAPC;                  kbd_usr[7].keyLblAim=ITM_NULL;                    kbd_usr[7].primaryAim=ITM_H;                      kbd_usr[7].fShiftedAim=ITM_h;                     kbd_usr[7].gShiftedAim=ITM_ETA;                   kbd_usr[7].primaryTam=ITM_HEX;                    </v>
+        <v xml:space="preserve">      kbd_usr[7].primary=ITM_RCL;                       kbd_usr[7].fShifted=ITM_PC;                       kbd_usr[7].gShifted=ITM_DELTAPC;                  kbd_usr[7].keyLblAim=ITM_NULL;                    kbd_usr[7].primaryAim=ITM_H;                      kbd_usr[7].fShiftedAim=ITM_h;                     kbd_usr[7].gShiftedAim=ITM_DELTA;                 kbd_usr[7].primaryTam=ITM_HEX;                    </v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -10733,7 +10769,7 @@
       </c>
       <c r="H60" t="str">
         <f>"kbd_usr["&amp;$A60&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H12&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[8].gShiftedAim=ITM_IOTA; </v>
+        <v xml:space="preserve">kbd_usr[8].gShiftedAim=ITM_pi; </v>
       </c>
       <c r="I60" t="str">
         <f>"kbd_usr["&amp;$A60&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I12&amp;"; "</f>
@@ -10748,7 +10784,7 @@
 'WP43S on C43L1'!G60&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G60)))&amp;
 'WP43S on C43L1'!H60&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H60)))&amp;
 'WP43S on C43L1'!I60&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I60)))</f>
-        <v xml:space="preserve">      kbd_usr[8].primary=ITM_Rdown;                     kbd_usr[8].fShifted=ITM_CONSTpi;                  kbd_usr[8].gShifted=ITM_XTHROOT;                  kbd_usr[8].keyLblAim=ITM_NULL;                    kbd_usr[8].primaryAim=ITM_I;                      kbd_usr[8].fShiftedAim=ITM_NULL;                  kbd_usr[8].gShiftedAim=ITM_IOTA;                  kbd_usr[8].primaryTam=ITM_REG_I;                  </v>
+        <v xml:space="preserve">      kbd_usr[8].primary=ITM_Rdown;                     kbd_usr[8].fShifted=ITM_CONSTpi;                  kbd_usr[8].gShifted=ITM_XTHROOT;                  kbd_usr[8].keyLblAim=ITM_NULL;                    kbd_usr[8].primaryAim=ITM_I;                      kbd_usr[8].fShiftedAim=ITM_NULL;                  kbd_usr[8].gShiftedAim=ITM_pi;                    kbd_usr[8].primaryTam=ITM_REG_I;                  </v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -10781,7 +10817,7 @@
       </c>
       <c r="H61" t="str">
         <f>"kbd_usr["&amp;$A61&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H13&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[9].gShiftedAim=ITM_THETA; </v>
+        <v xml:space="preserve">kbd_usr[9].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I61" t="str">
         <f>"kbd_usr["&amp;$A61&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I13&amp;"; "</f>
@@ -10796,7 +10832,7 @@
 'WP43S on C43L1'!G61&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G61)))&amp;
 'WP43S on C43L1'!H61&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H61)))&amp;
 'WP43S on C43L1'!I61&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I61)))</f>
-        <v xml:space="preserve">      kbd_usr[9].primary=-MNU_TRI;                      kbd_usr[9].fShifted=ITM_DROP;                     kbd_usr[9].gShifted=ITM_FILL;                     kbd_usr[9].keyLblAim=ITM_NULL;                    kbd_usr[9].primaryAim=ITM_J;                      kbd_usr[9].fShiftedAim=ITM_NULL;                  kbd_usr[9].gShiftedAim=ITM_THETA;                 kbd_usr[9].primaryTam=ITM_REG_J;                  </v>
+        <v xml:space="preserve">      kbd_usr[9].primary=-MNU_TRI;                      kbd_usr[9].fShifted=ITM_DROP;                     kbd_usr[9].gShifted=ITM_FILL;                     kbd_usr[9].keyLblAim=ITM_NULL;                    kbd_usr[9].primaryAim=ITM_J;                      kbd_usr[9].fShiftedAim=ITM_NULL;                  kbd_usr[9].gShiftedAim=ITM_NULL;                  kbd_usr[9].primaryTam=ITM_REG_J;                  </v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -10829,7 +10865,7 @@
       </c>
       <c r="H62" t="str">
         <f>"kbd_usr["&amp;$A62&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H14&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[10].gShiftedAim=ITM_KAPPA; </v>
+        <v xml:space="preserve">kbd_usr[10].gShiftedAim=ITM_LEFT_PARENTHESIS; </v>
       </c>
       <c r="I62" t="str">
         <f>"kbd_usr["&amp;$A62&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I14&amp;"; "</f>
@@ -10844,7 +10880,7 @@
 'WP43S on C43L1'!G62&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G62)))&amp;
 'WP43S on C43L1'!H62&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H62)))&amp;
 'WP43S on C43L1'!I62&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I62)))</f>
-        <v xml:space="preserve">      kbd_usr[10].primary=ITM_SHIFTf;                   kbd_usr[10].fShifted=ITM_NULL;                    kbd_usr[10].gShifted=ITM_NULL;                    kbd_usr[10].keyLblAim=ITM_NULL;                   kbd_usr[10].primaryAim=ITM_K;                     kbd_usr[10].fShiftedAim=ITM_NULL;                 kbd_usr[10].gShiftedAim=ITM_KAPPA;                kbd_usr[10].primaryTam=ITM_REG_K;                 </v>
+        <v xml:space="preserve">      kbd_usr[10].primary=ITM_SHIFTf;                   kbd_usr[10].fShifted=ITM_NULL;                    kbd_usr[10].gShifted=ITM_NULL;                    kbd_usr[10].keyLblAim=ITM_NULL;                   kbd_usr[10].primaryAim=ITM_K;                     kbd_usr[10].fShiftedAim=ITM_NULL;                 kbd_usr[10].gShiftedAim=ITM_LEFT_PARENTHESIS;     kbd_usr[10].primaryTam=ITM_REG_K;                 </v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -10877,7 +10913,7 @@
       </c>
       <c r="H63" t="str">
         <f>"kbd_usr["&amp;$A63&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H15&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[11].gShiftedAim=ITM_LAMBDA; </v>
+        <v xml:space="preserve">kbd_usr[11].gShiftedAim=ITM_RIGHT_PARENTHESIS; </v>
       </c>
       <c r="I63" t="str">
         <f>"kbd_usr["&amp;$A63&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I15&amp;"; "</f>
@@ -10892,7 +10928,7 @@
 'WP43S on C43L1'!G63&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G63)))&amp;
 'WP43S on C43L1'!H63&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H63)))&amp;
 'WP43S on C43L1'!I63&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I63)))</f>
-        <v xml:space="preserve">      kbd_usr[11].primary=ITM_SHIFTg;                   kbd_usr[11].fShifted=ITM_NULL;                    kbd_usr[11].gShifted=ITM_NULL;                    kbd_usr[11].keyLblAim=ITM_NULL;                   kbd_usr[11].primaryAim=ITM_L;                     kbd_usr[11].fShiftedAim=ITM_l;                    kbd_usr[11].gShiftedAim=ITM_LAMBDA;               kbd_usr[11].primaryTam=ITM_REG_L;                 </v>
+        <v xml:space="preserve">      kbd_usr[11].primary=ITM_SHIFTg;                   kbd_usr[11].fShifted=ITM_NULL;                    kbd_usr[11].gShifted=ITM_NULL;                    kbd_usr[11].keyLblAim=ITM_NULL;                   kbd_usr[11].primaryAim=ITM_L;                     kbd_usr[11].fShiftedAim=ITM_l;                    kbd_usr[11].gShiftedAim=ITM_RIGHT_PARENTHESIS;    kbd_usr[11].primaryTam=ITM_REG_L;                 </v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -10925,7 +10961,7 @@
       </c>
       <c r="H64" t="str">
         <f>"kbd_usr["&amp;$A64&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[12].gShiftedAim=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[12].gShiftedAim=ITM_XEDIT; </v>
       </c>
       <c r="I64" t="str">
         <f>"kbd_usr["&amp;$A64&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I17&amp;"; "</f>
@@ -10940,7 +10976,7 @@
 'WP43S on C43L1'!G64&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G64)))&amp;
 'WP43S on C43L1'!H64&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H64)))&amp;
 'WP43S on C43L1'!I64&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I64)))</f>
-        <v xml:space="preserve">      kbd_usr[12].primary=ITM_ENTER;                    kbd_usr[12].fShifted=ITM_CC;                      kbd_usr[12].gShifted=-MNU_CPX;                    kbd_usr[12].keyLblAim=ITM_ENTER;                  kbd_usr[12].primaryAim=ITM_ENTER;                 kbd_usr[12].fShiftedAim=ITM_XEDIT;                kbd_usr[12].gShiftedAim=ITM_NULL;                 kbd_usr[12].primaryTam=ITM_ENTER;                 </v>
+        <v xml:space="preserve">      kbd_usr[12].primary=ITM_ENTER;                    kbd_usr[12].fShifted=ITM_CC;                      kbd_usr[12].gShifted=-MNU_CPX;                    kbd_usr[12].keyLblAim=ITM_ENTER;                  kbd_usr[12].primaryAim=ITM_ENTER;                 kbd_usr[12].fShiftedAim=ITM_XEDIT;                kbd_usr[12].gShiftedAim=ITM_XEDIT;                kbd_usr[12].primaryTam=ITM_ENTER;                 </v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -10973,7 +11009,7 @@
       </c>
       <c r="H65" t="str">
         <f>"kbd_usr["&amp;$A65&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H18&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].gShiftedAim=ITM_MU; </v>
+        <v xml:space="preserve">kbd_usr[13].gShiftedAim=ITM_ex; </v>
       </c>
       <c r="I65" t="str">
         <f>"kbd_usr["&amp;$A65&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I18&amp;"; "</f>
@@ -10988,7 +11024,7 @@
 'WP43S on C43L1'!G65&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G65)))&amp;
 'WP43S on C43L1'!H65&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H65)))&amp;
 'WP43S on C43L1'!I65&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I65)))</f>
-        <v xml:space="preserve">      kbd_usr[13].primary=ITM_XexY;                     kbd_usr[13].fShifted=ITM_LASTX;                   kbd_usr[13].gShifted=ITM_Rup;                     kbd_usr[13].keyLblAim=ITM_ex;                     kbd_usr[13].primaryAim=ITM_M;                     kbd_usr[13].fShiftedAim=ITM_m;                    kbd_usr[13].gShiftedAim=ITM_MU;                   kbd_usr[13].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">      kbd_usr[13].primary=ITM_XexY;                     kbd_usr[13].fShifted=ITM_LASTX;                   kbd_usr[13].gShifted=ITM_Rup;                     kbd_usr[13].keyLblAim=ITM_ex;                     kbd_usr[13].primaryAim=ITM_M;                     kbd_usr[13].fShiftedAim=ITM_m;                    kbd_usr[13].gShiftedAim=ITM_ex;                   kbd_usr[13].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -11021,7 +11057,7 @@
       </c>
       <c r="H66" t="str">
         <f>"kbd_usr["&amp;$A66&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H19&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[14].gShiftedAim=ITM_NU; </v>
+        <v xml:space="preserve">kbd_usr[14].gShiftedAim=ITM_PLUS_MINUS; </v>
       </c>
       <c r="I66" t="str">
         <f>"kbd_usr["&amp;$A66&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I19&amp;"; "</f>
@@ -11036,7 +11072,7 @@
 'WP43S on C43L1'!G66&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G66)))&amp;
 'WP43S on C43L1'!H66&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H66)))&amp;
 'WP43S on C43L1'!I66&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I66)))</f>
-        <v xml:space="preserve">      kbd_usr[14].primary=ITM_CHS;                      kbd_usr[14].fShifted=-MNU_MODE;                   kbd_usr[14].gShifted=-MNU_STK;                    kbd_usr[14].keyLblAim=ITM_PLUS_MINUS;             kbd_usr[14].primaryAim=ITM_N;                     kbd_usr[14].fShiftedAim=ITM_n;                    kbd_usr[14].gShiftedAim=ITM_NU;                   kbd_usr[14].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">      kbd_usr[14].primary=ITM_CHS;                      kbd_usr[14].fShifted=-MNU_MODE;                   kbd_usr[14].gShifted=-MNU_STK;                    kbd_usr[14].keyLblAim=ITM_PLUS_MINUS;             kbd_usr[14].primaryAim=ITM_N;                     kbd_usr[14].fShiftedAim=ITM_n;                    kbd_usr[14].gShiftedAim=ITM_PLUS_MINUS;           kbd_usr[14].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -11049,7 +11085,7 @@
       </c>
       <c r="C67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;C$50&amp;"="&amp;'WP43S on C43L1'!C20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].fShifted=-MNU_DSP; </v>
+        <v xml:space="preserve">kbd_usr[15].fShifted=-MNU_DISP; </v>
       </c>
       <c r="D67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;D$50&amp;"="&amp;'WP43S on C43L1'!D20&amp;"; "</f>
@@ -11069,7 +11105,7 @@
       </c>
       <c r="H67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].gShiftedAim=ITM_OMICRON; </v>
+        <v xml:space="preserve">kbd_usr[15].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I67" t="str">
         <f>"kbd_usr["&amp;$A67&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I20&amp;"; "</f>
@@ -11084,7 +11120,7 @@
 'WP43S on C43L1'!G67&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G67)))&amp;
 'WP43S on C43L1'!H67&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H67)))&amp;
 'WP43S on C43L1'!I67&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I67)))</f>
-        <v xml:space="preserve">      kbd_usr[15].primary=ITM_EXPONENT;                 kbd_usr[15].fShifted=-MNU_DSP;                    kbd_usr[15].gShifted=-MNU_EXP;                    kbd_usr[15].keyLblAim=ITM_NULL;                   kbd_usr[15].primaryAim=ITM_O;                     kbd_usr[15].fShiftedAim=ITM_o;                    kbd_usr[15].gShiftedAim=ITM_OMICRON;              kbd_usr[15].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">      kbd_usr[15].primary=ITM_EXPONENT;                 kbd_usr[15].fShifted=-MNU_DISP;                   kbd_usr[15].gShifted=-MNU_EXP;                    kbd_usr[15].keyLblAim=ITM_NULL;                   kbd_usr[15].primaryAim=ITM_O;                     kbd_usr[15].fShiftedAim=ITM_o;                    kbd_usr[15].gShiftedAim=ITM_NULL;                 kbd_usr[15].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -11117,7 +11153,7 @@
       </c>
       <c r="H68" t="str">
         <f>"kbd_usr["&amp;$A68&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H21&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[16].gShiftedAim=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[16].gShiftedAim=ITM_CLA; </v>
       </c>
       <c r="I68" t="str">
         <f>"kbd_usr["&amp;$A68&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I21&amp;"; "</f>
@@ -11132,7 +11168,7 @@
 'WP43S on C43L1'!G68&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G68)))&amp;
 'WP43S on C43L1'!H68&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H68)))&amp;
 'WP43S on C43L1'!I68&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I68)))</f>
-        <v xml:space="preserve">      kbd_usr[16].primary=ITM_BACKSPACE;                kbd_usr[16].fShifted=ITM_UNDO;                    kbd_usr[16].gShifted=-MNU_CLR;                    kbd_usr[16].keyLblAim=ITM_BACKSPACE;              kbd_usr[16].primaryAim=ITM_BACKSPACE;             kbd_usr[16].fShiftedAim=ITM_CLA;                  kbd_usr[16].gShiftedAim=ITM_NULL;                 kbd_usr[16].primaryTam=ITM_BACKSPACE;             </v>
+        <v xml:space="preserve">      kbd_usr[16].primary=ITM_BACKSPACE;                kbd_usr[16].fShifted=ITM_UNDO;                    kbd_usr[16].gShifted=-MNU_CLR;                    kbd_usr[16].keyLblAim=ITM_BACKSPACE;              kbd_usr[16].primaryAim=ITM_BACKSPACE;             kbd_usr[16].fShiftedAim=ITM_CLA;                  kbd_usr[16].gShiftedAim=ITM_CLA;                  kbd_usr[16].primaryTam=ITM_BACKSPACE;             </v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -11213,7 +11249,7 @@
       </c>
       <c r="H70" t="str">
         <f>"kbd_usr["&amp;$A70&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].gShiftedAim=ITM_PI; </v>
+        <v xml:space="preserve">kbd_usr[18].gShiftedAim=ITM_7; </v>
       </c>
       <c r="I70" t="str">
         <f>"kbd_usr["&amp;$A70&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I24&amp;"; "</f>
@@ -11228,7 +11264,7 @@
 'WP43S on C43L1'!G70&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G70)))&amp;
 'WP43S on C43L1'!H70&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H70)))&amp;
 'WP43S on C43L1'!I70&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I70)))</f>
-        <v xml:space="preserve">      kbd_usr[18].primary=ITM_7;                        kbd_usr[18].fShifted=-MNU_EQN;                    kbd_usr[18].gShifted=ITM_NULL;                    kbd_usr[18].keyLblAim=ITM_7;                      kbd_usr[18].primaryAim=ITM_P;                     kbd_usr[18].fShiftedAim=ITM_p;                    kbd_usr[18].gShiftedAim=ITM_PI;                   kbd_usr[18].primaryTam=ITM_7;                     </v>
+        <v xml:space="preserve">      kbd_usr[18].primary=ITM_7;                        kbd_usr[18].fShifted=-MNU_EQN;                    kbd_usr[18].gShifted=ITM_NULL;                    kbd_usr[18].keyLblAim=ITM_7;                      kbd_usr[18].primaryAim=ITM_P;                     kbd_usr[18].fShiftedAim=ITM_p;                    kbd_usr[18].gShiftedAim=ITM_7;                    kbd_usr[18].primaryTam=ITM_7;                     </v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -11309,7 +11345,7 @@
       </c>
       <c r="H72" t="str">
         <f>"kbd_usr["&amp;$A72&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H26&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].gShiftedAim=ITM_RHO; </v>
+        <v xml:space="preserve">kbd_usr[20].gShiftedAim=ITM_9; </v>
       </c>
       <c r="I72" t="str">
         <f>"kbd_usr["&amp;$A72&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I26&amp;"; "</f>
@@ -11324,7 +11360,7 @@
 'WP43S on C43L1'!G72&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G72)))&amp;
 'WP43S on C43L1'!H72&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H72)))&amp;
 'WP43S on C43L1'!I72&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I72)))</f>
-        <v xml:space="preserve">      kbd_usr[20].primary=ITM_9;                        kbd_usr[20].fShifted=-MNU_MATX;                   kbd_usr[20].gShifted=-MNU_XFN;                    kbd_usr[20].keyLblAim=ITM_9;                      kbd_usr[20].primaryAim=ITM_R;                     kbd_usr[20].fShiftedAim=ITM_r;                    kbd_usr[20].gShiftedAim=ITM_RHO;                  kbd_usr[20].primaryTam=ITM_9;                     </v>
+        <v xml:space="preserve">      kbd_usr[20].primary=ITM_9;                        kbd_usr[20].fShifted=-MNU_MATX;                   kbd_usr[20].gShifted=-MNU_XFN;                    kbd_usr[20].keyLblAim=ITM_9;                      kbd_usr[20].primaryAim=ITM_R;                     kbd_usr[20].fShiftedAim=ITM_r;                    kbd_usr[20].gShiftedAim=ITM_9;                    kbd_usr[20].primaryTam=ITM_9;                     </v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -11357,7 +11393,7 @@
       </c>
       <c r="H73" t="str">
         <f>"kbd_usr["&amp;$A73&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H27&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[21].gShiftedAim=ITM_SIGMA; </v>
+        <v xml:space="preserve">kbd_usr[21].gShiftedAim=ITM_OBELUS; </v>
       </c>
       <c r="I73" t="str">
         <f>"kbd_usr["&amp;$A73&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I27&amp;"; "</f>
@@ -11372,7 +11408,7 @@
 'WP43S on C43L1'!G73&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G73)))&amp;
 'WP43S on C43L1'!H73&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H73)))&amp;
 'WP43S on C43L1'!I73&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I73)))</f>
-        <v xml:space="preserve">      kbd_usr[21].primary=ITM_DIV;                      kbd_usr[21].fShifted=-MNU_STAT;                   kbd_usr[21].gShifted=-MNU_SUMS;                   kbd_usr[21].keyLblAim=ITM_OBELUS;                 kbd_usr[21].primaryAim=ITM_S;                     kbd_usr[21].fShiftedAim=ITM_s;                    kbd_usr[21].gShiftedAim=ITM_SIGMA;                kbd_usr[21].primaryTam=ITM_DIV;                   </v>
+        <v xml:space="preserve">      kbd_usr[21].primary=ITM_DIV;                      kbd_usr[21].fShifted=-MNU_STAT;                   kbd_usr[21].gShifted=-MNU_SUMS;                   kbd_usr[21].keyLblAim=ITM_OBELUS;                 kbd_usr[21].primaryAim=ITM_S;                     kbd_usr[21].fShiftedAim=ITM_s;                    kbd_usr[21].gShiftedAim=ITM_OBELUS;               kbd_usr[21].primaryTam=ITM_DIV;                   </v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -11453,7 +11489,7 @@
       </c>
       <c r="H75" t="str">
         <f>"kbd_usr["&amp;$A75&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H30&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].gShiftedAim=ITM_TAU; </v>
+        <v xml:space="preserve">kbd_usr[23].gShiftedAim=ITM_4; </v>
       </c>
       <c r="I75" t="str">
         <f>"kbd_usr["&amp;$A75&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I30&amp;"; "</f>
@@ -11468,7 +11504,7 @@
 'WP43S on C43L1'!G75&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G75)))&amp;
 'WP43S on C43L1'!H75&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H75)))&amp;
 'WP43S on C43L1'!I75&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I75)))</f>
-        <v xml:space="preserve">      kbd_usr[23].primary=ITM_4;                        kbd_usr[23].fShifted=ITM_NULL;                    kbd_usr[23].gShifted=-MNU_CLK;                    kbd_usr[23].keyLblAim=ITM_4;                      kbd_usr[23].primaryAim=ITM_T;                     kbd_usr[23].fShiftedAim=ITM_t;                    kbd_usr[23].gShiftedAim=ITM_TAU;                  kbd_usr[23].primaryTam=ITM_4;                     </v>
+        <v xml:space="preserve">      kbd_usr[23].primary=ITM_4;                        kbd_usr[23].fShifted=ITM_NULL;                    kbd_usr[23].gShifted=-MNU_CLK;                    kbd_usr[23].keyLblAim=ITM_4;                      kbd_usr[23].primaryAim=ITM_T;                     kbd_usr[23].fShiftedAim=ITM_t;                    kbd_usr[23].gShiftedAim=ITM_4;                    kbd_usr[23].primaryTam=ITM_4;                     </v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -11501,7 +11537,7 @@
       </c>
       <c r="H76" t="str">
         <f>"kbd_usr["&amp;$A76&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[24].gShiftedAim=ITM_PHI; </v>
+        <v xml:space="preserve">kbd_usr[24].gShiftedAim=ITM_5; </v>
       </c>
       <c r="I76" t="str">
         <f>"kbd_usr["&amp;$A76&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I31&amp;"; "</f>
@@ -11516,7 +11552,7 @@
 'WP43S on C43L1'!G76&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G76)))&amp;
 'WP43S on C43L1'!H76&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H76)))&amp;
 'WP43S on C43L1'!I76&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I76)))</f>
-        <v xml:space="preserve">      kbd_usr[24].primary=ITM_5;                        kbd_usr[24].fShifted=-MNU_ANGLECONV;              kbd_usr[24].gShifted=-MNU_UNITCONV;               kbd_usr[24].keyLblAim=ITM_5;                      kbd_usr[24].primaryAim=ITM_U;                     kbd_usr[24].fShiftedAim=ITM_u;                    kbd_usr[24].gShiftedAim=ITM_PHI;                  kbd_usr[24].primaryTam=ITM_5;                     </v>
+        <v xml:space="preserve">      kbd_usr[24].primary=ITM_5;                        kbd_usr[24].fShifted=-MNU_ANGLECONV;              kbd_usr[24].gShifted=-MNU_UNITCONV;               kbd_usr[24].keyLblAim=ITM_5;                      kbd_usr[24].primaryAim=ITM_U;                     kbd_usr[24].fShiftedAim=ITM_u;                    kbd_usr[24].gShiftedAim=ITM_5;                    kbd_usr[24].primaryTam=ITM_5;                     </v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -11549,7 +11585,7 @@
       </c>
       <c r="H77" t="str">
         <f>"kbd_usr["&amp;$A77&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H32&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].gShiftedAim=ITM_PSI; </v>
+        <v xml:space="preserve">kbd_usr[25].gShiftedAim=ITM_6; </v>
       </c>
       <c r="I77" t="str">
         <f>"kbd_usr["&amp;$A77&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I32&amp;"; "</f>
@@ -11564,7 +11600,7 @@
 'WP43S on C43L1'!G77&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G77)))&amp;
 'WP43S on C43L1'!H77&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H77)))&amp;
 'WP43S on C43L1'!I77&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I77)))</f>
-        <v xml:space="preserve">      kbd_usr[25].primary=ITM_6;                        kbd_usr[25].fShifted=-MNU_FLAGS;                  kbd_usr[25].gShifted=-MNU_BITS;                   kbd_usr[25].keyLblAim=ITM_6;                      kbd_usr[25].primaryAim=ITM_V;                     kbd_usr[25].fShiftedAim=ITM_v;                    kbd_usr[25].gShiftedAim=ITM_PSI;                  kbd_usr[25].primaryTam=ITM_6;                     </v>
+        <v xml:space="preserve">      kbd_usr[25].primary=ITM_6;                        kbd_usr[25].fShifted=-MNU_FLAGS;                  kbd_usr[25].gShifted=-MNU_BITS;                   kbd_usr[25].keyLblAim=ITM_6;                      kbd_usr[25].primaryAim=ITM_V;                     kbd_usr[25].fShiftedAim=ITM_v;                    kbd_usr[25].gShiftedAim=ITM_6;                    kbd_usr[25].primaryTam=ITM_6;                     </v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -11597,7 +11633,7 @@
       </c>
       <c r="H78" t="str">
         <f>"kbd_usr["&amp;$A78&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H33&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[26].gShiftedAim=ITM_OMEGA; </v>
+        <v xml:space="preserve">kbd_usr[26].gShiftedAim=ITM_CROSS; </v>
       </c>
       <c r="I78" t="str">
         <f>"kbd_usr["&amp;$A78&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I33&amp;"; "</f>
@@ -11612,7 +11648,7 @@
 'WP43S on C43L1'!G78&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G78)))&amp;
 'WP43S on C43L1'!H78&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H78)))&amp;
 'WP43S on C43L1'!I78&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I78)))</f>
-        <v xml:space="preserve">      kbd_usr[26].primary=ITM_MULT;                     kbd_usr[26].fShifted=-MNU_PROB;                   kbd_usr[26].gShifted=-MNU_INTS;                   kbd_usr[26].keyLblAim=ITM_CROSS;                  kbd_usr[26].primaryAim=ITM_W;                     kbd_usr[26].fShiftedAim=ITM_w;                    kbd_usr[26].gShiftedAim=ITM_OMEGA;                kbd_usr[26].primaryTam=ITM_MULT;                  </v>
+        <v xml:space="preserve">      kbd_usr[26].primary=ITM_MULT;                     kbd_usr[26].fShifted=-MNU_PROB;                   kbd_usr[26].gShifted=-MNU_INTS;                   kbd_usr[26].keyLblAim=ITM_CROSS;                  kbd_usr[26].primaryAim=ITM_W;                     kbd_usr[26].fShiftedAim=ITM_w;                    kbd_usr[26].gShiftedAim=ITM_CROSS;                kbd_usr[26].primaryTam=ITM_MULT;                  </v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -11645,7 +11681,7 @@
       </c>
       <c r="H79" t="str">
         <f>"kbd_usr["&amp;$A79&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H35&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[27].gShiftedAim=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[27].gShiftedAim=KEY_fg; </v>
       </c>
       <c r="I79" t="str">
         <f>"kbd_usr["&amp;$A79&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I35&amp;"; "</f>
@@ -11660,7 +11696,7 @@
 'WP43S on C43L1'!G79&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G79)))&amp;
 'WP43S on C43L1'!H79&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H79)))&amp;
 'WP43S on C43L1'!I79&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I79)))</f>
-        <v xml:space="preserve">      kbd_usr[27].primary=ITM_SHIFTf;                   kbd_usr[27].fShifted=ITM_NULL;                    kbd_usr[27].gShifted=ITM_NULL;                    kbd_usr[27].keyLblAim=ITM_SHIFTf;                 kbd_usr[27].primaryAim=ITM_SHIFTf;                kbd_usr[27].fShiftedAim=ITM_NULL;                 kbd_usr[27].gShiftedAim=ITM_NULL;                 kbd_usr[27].primaryTam=ITM_SHIFTf;                </v>
+        <v xml:space="preserve">      kbd_usr[27].primary=ITM_SHIFTf;                   kbd_usr[27].fShifted=ITM_NULL;                    kbd_usr[27].gShifted=ITM_NULL;                    kbd_usr[27].keyLblAim=ITM_SHIFTf;                 kbd_usr[27].primaryAim=ITM_SHIFTf;                kbd_usr[27].fShiftedAim=ITM_NULL;                 kbd_usr[27].gShiftedAim=KEY_fg;                   kbd_usr[27].primaryTam=ITM_SHIFTf;                </v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -11693,7 +11729,7 @@
       </c>
       <c r="H80" t="str">
         <f>"kbd_usr["&amp;$A80&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H36&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[28].gShiftedAim=ITM_XI; </v>
+        <v xml:space="preserve">kbd_usr[28].gShiftedAim=ITM_1; </v>
       </c>
       <c r="I80" t="str">
         <f>"kbd_usr["&amp;$A80&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I36&amp;"; "</f>
@@ -11708,7 +11744,7 @@
 'WP43S on C43L1'!G80&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G80)))&amp;
 'WP43S on C43L1'!H80&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H80)))&amp;
 'WP43S on C43L1'!I80&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I80)))</f>
-        <v xml:space="preserve">      kbd_usr[28].primary=ITM_1;                        kbd_usr[28].fShifted=ITM_ASSIGN;                  kbd_usr[28].gShifted=ITM_NULL;                    kbd_usr[28].keyLblAim=ITM_1;                      kbd_usr[28].primaryAim=ITM_X;                     kbd_usr[28].fShiftedAim=ITM_x;                    kbd_usr[28].gShiftedAim=ITM_XI;                   kbd_usr[28].primaryTam=ITM_1;                     </v>
+        <v xml:space="preserve">      kbd_usr[28].primary=ITM_1;                        kbd_usr[28].fShifted=ITM_ASSIGN;                  kbd_usr[28].gShifted=ITM_NULL;                    kbd_usr[28].keyLblAim=ITM_1;                      kbd_usr[28].primaryAim=ITM_X;                     kbd_usr[28].fShiftedAim=ITM_x;                    kbd_usr[28].gShiftedAim=ITM_1;                    kbd_usr[28].primaryTam=ITM_1;                     </v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -11741,7 +11777,7 @@
       </c>
       <c r="H81" t="str">
         <f>"kbd_usr["&amp;$A81&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[29].gShiftedAim=ITM_UPSILON; </v>
+        <v xml:space="preserve">kbd_usr[29].gShiftedAim=ITM_2; </v>
       </c>
       <c r="I81" t="str">
         <f>"kbd_usr["&amp;$A81&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I37&amp;"; "</f>
@@ -11756,7 +11792,7 @@
 'WP43S on C43L1'!G81&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G81)))&amp;
 'WP43S on C43L1'!H81&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H81)))&amp;
 'WP43S on C43L1'!I81&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I81)))</f>
-        <v xml:space="preserve">      kbd_usr[29].primary=ITM_2;                        kbd_usr[29].fShifted=ITM_USERMODE;                kbd_usr[29].gShifted=-MNU_LOOP;                   kbd_usr[29].keyLblAim=ITM_2;                      kbd_usr[29].primaryAim=ITM_Y;                     kbd_usr[29].fShiftedAim=ITM_y;                    kbd_usr[29].gShiftedAim=ITM_UPSILON;              kbd_usr[29].primaryTam=ITM_2;                     </v>
+        <v xml:space="preserve">      kbd_usr[29].primary=ITM_2;                        kbd_usr[29].fShifted=ITM_USERMODE;                kbd_usr[29].gShifted=-MNU_LOOP;                   kbd_usr[29].keyLblAim=ITM_2;                      kbd_usr[29].primaryAim=ITM_Y;                     kbd_usr[29].fShiftedAim=ITM_y;                    kbd_usr[29].gShiftedAim=ITM_2;                    kbd_usr[29].primaryTam=ITM_2;                     </v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -11789,7 +11825,7 @@
       </c>
       <c r="H82" t="str">
         <f>"kbd_usr["&amp;$A82&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].gShiftedAim=ITM_ZETA; </v>
+        <v xml:space="preserve">kbd_usr[30].gShiftedAim=ITM_3; </v>
       </c>
       <c r="I82" t="str">
         <f>"kbd_usr["&amp;$A82&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I38&amp;"; "</f>
@@ -11804,7 +11840,7 @@
 'WP43S on C43L1'!G82&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G82)))&amp;
 'WP43S on C43L1'!H82&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H82)))&amp;
 'WP43S on C43L1'!I82&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I82)))</f>
-        <v xml:space="preserve">      kbd_usr[30].primary=ITM_3;                        kbd_usr[30].fShifted=-MNU_PARTS;                  kbd_usr[30].gShifted=-MNU_TEST;                   kbd_usr[30].keyLblAim=ITM_3;                      kbd_usr[30].primaryAim=ITM_Z;                     kbd_usr[30].fShiftedAim=ITM_z;                    kbd_usr[30].gShiftedAim=ITM_ZETA;                 kbd_usr[30].primaryTam=ITM_3;                     </v>
+        <v xml:space="preserve">      kbd_usr[30].primary=ITM_3;                        kbd_usr[30].fShifted=-MNU_PARTS;                  kbd_usr[30].gShifted=-MNU_TEST;                   kbd_usr[30].keyLblAim=ITM_3;                      kbd_usr[30].primaryAim=ITM_Z;                     kbd_usr[30].fShiftedAim=ITM_z;                    kbd_usr[30].gShiftedAim=ITM_3;                    kbd_usr[30].primaryTam=ITM_3;                     </v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -11869,7 +11905,7 @@
       </c>
       <c r="D84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;D$50&amp;"="&amp;'WP43S on C43L1'!D41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].gShifted=-MNU_PRINT; </v>
+        <v xml:space="preserve">kbd_usr[32].gShifted=ITM_PRN; </v>
       </c>
       <c r="E84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;E$50&amp;"="&amp;'WP43S on C43L1'!E41&amp;"; "</f>
@@ -11885,7 +11921,7 @@
       </c>
       <c r="H84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].gShiftedAim=ITM_PRINTER; </v>
+        <v xml:space="preserve">kbd_usr[32].gShiftedAim=ITM_PRN; </v>
       </c>
       <c r="I84" t="str">
         <f>"kbd_usr["&amp;$A84&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I41&amp;"; "</f>
@@ -11900,7 +11936,7 @@
 'WP43S on C43L1'!G84&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G84)))&amp;
 'WP43S on C43L1'!H84&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H84)))&amp;
 'WP43S on C43L1'!I84&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I84)))</f>
-        <v xml:space="preserve">      kbd_usr[32].primary=ITM_EXIT1;                    kbd_usr[32].fShifted=ITM_OFF;                     kbd_usr[32].gShifted=-MNU_PRINT;                  kbd_usr[32].keyLblAim=ITM_EXIT1;                  kbd_usr[32].primaryAim=ITM_EXIT1;                 kbd_usr[32].fShiftedAim=ITM_OFF;                  kbd_usr[32].gShiftedAim=ITM_PRINTER;              kbd_usr[32].primaryTam=ITM_EXIT1;                 </v>
+        <v xml:space="preserve">      kbd_usr[32].primary=ITM_EXIT1;                    kbd_usr[32].fShifted=ITM_OFF;                     kbd_usr[32].gShifted=ITM_PRN;                     kbd_usr[32].keyLblAim=ITM_EXIT1;                  kbd_usr[32].primaryAim=ITM_EXIT1;                 kbd_usr[32].fShiftedAim=ITM_OFF;                  kbd_usr[32].gShiftedAim=ITM_PRN;                  kbd_usr[32].primaryTam=ITM_EXIT1;                 </v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -11981,7 +12017,7 @@
       </c>
       <c r="H86" t="str">
         <f>"kbd_usr["&amp;$A86&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H43&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[34].gShiftedAim=-MNU_ALPHADOT; </v>
+        <v xml:space="preserve">kbd_usr[34].gShiftedAim=ITM_PERIOD; </v>
       </c>
       <c r="I86" t="str">
         <f>"kbd_usr["&amp;$A86&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I43&amp;"; "</f>
@@ -11996,7 +12032,7 @@
 'WP43S on C43L1'!G86&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G86)))&amp;
 'WP43S on C43L1'!H86&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H86)))&amp;
 'WP43S on C43L1'!I86&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I86)))</f>
-        <v xml:space="preserve">      kbd_usr[34].primary=ITM_PERIOD;                   kbd_usr[34].fShifted=ITM_SHOW;                    kbd_usr[34].gShifted=-MNU_INFO;                   kbd_usr[34].keyLblAim=ITM_PERIOD;                 kbd_usr[34].primaryAim=ITM_COMMA;                 kbd_usr[34].fShiftedAim=ITM_PERIOD;               kbd_usr[34].gShiftedAim=-MNU_ALPHADOT;            kbd_usr[34].primaryTam=ITM_PERIOD;                </v>
+        <v xml:space="preserve">      kbd_usr[34].primary=ITM_PERIOD;                   kbd_usr[34].fShifted=ITM_SHOW;                    kbd_usr[34].gShifted=-MNU_INFO;                   kbd_usr[34].keyLblAim=ITM_PERIOD;                 kbd_usr[34].primaryAim=ITM_COMMA;                 kbd_usr[34].fShiftedAim=ITM_PERIOD;               kbd_usr[34].gShiftedAim=ITM_PERIOD;               kbd_usr[34].primaryTam=ITM_PERIOD;                </v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -12029,7 +12065,7 @@
       </c>
       <c r="H87" t="str">
         <f>"kbd_usr["&amp;$A87&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H44&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[35].gShiftedAim=-MNU_ALPHAMATH; </v>
+        <v xml:space="preserve">kbd_usr[35].gShiftedAim=ITM_SLASH; </v>
       </c>
       <c r="I87" t="str">
         <f>"kbd_usr["&amp;$A87&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I44&amp;"; "</f>
@@ -12044,7 +12080,7 @@
 'WP43S on C43L1'!G87&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G87)))&amp;
 'WP43S on C43L1'!H87&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H87)))&amp;
 'WP43S on C43L1'!I87&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I87)))</f>
-        <v xml:space="preserve">      kbd_usr[35].primary=ITM_RS;                       kbd_usr[35].fShifted=ITM_PR;                      kbd_usr[35].gShifted=-MNU_PFN;                    kbd_usr[35].keyLblAim=ITM_NULL;                   kbd_usr[35].primaryAim=ITM_QUESTION_MARK;         kbd_usr[35].fShiftedAim=ITM_SLASH;                kbd_usr[35].gShiftedAim=-MNU_ALPHAMATH;           kbd_usr[35].primaryTam=ITM_NULL;                  </v>
+        <v xml:space="preserve">      kbd_usr[35].primary=ITM_RS;                       kbd_usr[35].fShifted=ITM_PR;                      kbd_usr[35].gShifted=-MNU_PFN;                    kbd_usr[35].keyLblAim=ITM_NULL;                   kbd_usr[35].primaryAim=ITM_QUESTION_MARK;         kbd_usr[35].fShiftedAim=ITM_SLASH;                kbd_usr[35].gShiftedAim=ITM_SLASH;                kbd_usr[35].primaryTam=ITM_NULL;                  </v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -12077,7 +12113,7 @@
       </c>
       <c r="H88" t="str">
         <f>"kbd_usr["&amp;$A88&amp;"]."&amp;H$50&amp;"="&amp;'WP43S on C43L1'!H45&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[36].gShiftedAim=-MNU_ALPHAINTL; </v>
+        <v xml:space="preserve">kbd_usr[36].gShiftedAim=ITM_PLUS; </v>
       </c>
       <c r="I88" t="str">
         <f>"kbd_usr["&amp;$A88&amp;"]."&amp;I$50&amp;"="&amp;'WP43S on C43L1'!I45&amp;"; "</f>
@@ -12092,7 +12128,7 @@
 'WP43S on C43L1'!G88&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!G88)))&amp;
 'WP43S on C43L1'!H88&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!H88)))&amp;
 'WP43S on C43L1'!I88&amp;REPT(" ",('WP43S on C43L1'!$K$51-LEN('WP43S on C43L1'!I88)))</f>
-        <v xml:space="preserve">      kbd_usr[36].primary=ITM_ADD;                      kbd_usr[36].fShifted=-MNU_CATALOG;                kbd_usr[36].gShifted=-MNU_IO;                     kbd_usr[36].keyLblAim=ITM_PLUS;                   kbd_usr[36].primaryAim=ITM_SPACE;                 kbd_usr[36].fShiftedAim=ITM_PLUS;                 kbd_usr[36].gShiftedAim=-MNU_ALPHAINTL;           kbd_usr[36].primaryTam=ITM_ADD;                   </v>
+        <v xml:space="preserve">      kbd_usr[36].primary=ITM_ADD;                      kbd_usr[36].fShifted=-MNU_CATALOG;                kbd_usr[36].gShifted=-MNU_IO;                     kbd_usr[36].keyLblAim=ITM_PLUS;                   kbd_usr[36].primaryAim=ITM_SPACE;                 kbd_usr[36].fShiftedAim=ITM_PLUS;                 kbd_usr[36].gShiftedAim=ITM_PLUS;                 kbd_usr[36].primaryTam=ITM_ADD;                   </v>
       </c>
     </row>
   </sheetData>
@@ -12110,27 +12146,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D19319-5784-F94F-8436-EBE870F749B6}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView zoomScale="63" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.35546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="108.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="108.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -12161,7 +12195,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -12176,21 +12210,21 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -12202,59 +12236,59 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s">
         <v>142</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" t="s">
         <v>143</v>
       </c>
-      <c r="G4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" t="s">
-        <v>144</v>
-      </c>
       <c r="I4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -12263,27 +12297,27 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -12292,13 +12326,13 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -12306,7 +12340,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -12318,24 +12352,24 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -12344,19 +12378,19 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -12364,7 +12398,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -12379,13 +12413,13 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
@@ -12393,7 +12427,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -12408,24 +12442,24 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" t="s">
         <v>161</v>
       </c>
-      <c r="G12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" t="s">
-        <v>163</v>
-      </c>
       <c r="I12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -12437,24 +12471,24 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -12463,27 +12497,27 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I14" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>10</v>
@@ -12492,33 +12526,33 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H15" t="s">
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -12527,10 +12561,10 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I17" t="s">
         <v>29</v>
@@ -12538,36 +12572,36 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -12579,24 +12613,24 @@
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -12611,13 +12645,13 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -12625,57 +12659,57 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
         <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I23" t="s">
         <v>35</v>
@@ -12683,10 +12717,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
@@ -12695,56 +12729,56 @@
         <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H24" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>82</v>
@@ -12753,24 +12787,24 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -12799,28 +12833,28 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D29" t="s">
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I29" t="s">
         <v>40</v>
@@ -12828,10 +12862,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -12840,56 +12874,56 @@
         <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" t="s">
         <v>195</v>
-      </c>
-      <c r="I30" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H31" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -12898,53 +12932,53 @@
         <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
         <v>62</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
@@ -12956,13 +12990,13 @@
         <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G35" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H35" t="s">
         <v>65</v>
@@ -12973,10 +13007,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -12985,27 +13019,27 @@
         <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H36" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" t="s">
         <v>207</v>
-      </c>
-      <c r="I36" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -13014,27 +13048,27 @@
         <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
@@ -13043,53 +13077,53 @@
         <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
         <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H39" t="s">
         <v>71</v>
       </c>
       <c r="I39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -13101,16 +13135,16 @@
         <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G41" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I41" t="s">
         <v>43</v>
@@ -13118,10 +13152,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
@@ -13130,27 +13164,27 @@
         <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H42" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C43" t="s">
         <v>76</v>
@@ -13159,24 +13193,24 @@
         <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F43" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H43" t="s">
         <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -13191,7 +13225,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -13205,10 +13239,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
         <v>80</v>
@@ -13217,10 +13251,10 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G45" t="s">
         <v>80</v>
@@ -13229,7 +13263,7 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -13269,10 +13303,10 @@
         <v>primaryTam</v>
       </c>
       <c r="K50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="31">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30.9">
       <c r="A51" s="1" t="str">
         <f>A1</f>
         <v>LAYOUT 43S</v>
@@ -13281,7 +13315,7 @@
         <v>50</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -15062,12 +15096,12 @@
     </row>
     <row r="89" spans="1:11">
       <c r="K89" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="K90" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:11">
